--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="30" windowWidth="15900" windowHeight="12435" tabRatio="570" activeTab="2"/>
+    <workbookView xWindow="12750" yWindow="30" windowWidth="15900" windowHeight="12435" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -663,14 +663,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${pd.openingdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.enddate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${pd.deliveryfinshdate}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -688,6 +680,14 @@
   </si>
   <si>
     <t>${pd.responphone}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -831,6 +831,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -860,6 +861,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1197,7 +1199,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1261,9 +1263,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1403,9 +1402,57 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1424,53 +1471,68 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1484,68 +1546,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1856,8 +1862,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1871,370 +1877,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="D1" s="71" t="s">
+      <c r="B1" s="69"/>
+      <c r="D1" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="18"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
     </row>
     <row r="11" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="124" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="23" t="s">
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C19" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="42" t="s">
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1">
+      <c r="A21" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+    </row>
+    <row r="23" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+    </row>
+    <row r="24" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+    </row>
+    <row r="25" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="40" t="s">
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+    </row>
+    <row r="26" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C26" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
-      <c r="A21" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
-    </row>
-    <row r="23" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
-    </row>
-    <row r="24" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-    </row>
-    <row r="25" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
-    </row>
-    <row r="26" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
     </row>
     <row r="27" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="44" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="18" t="str">
         <f>"GF-"&amp;B12</f>
         <v>GF-${pd.contractnumber}</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
     </row>
     <row r="28" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="44" t="s">
         <v>99</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
     </row>
     <row r="29" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
     </row>
     <row r="30" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="18"/>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="11"/>
@@ -2314,16 +2320,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A1" s="67"/>
+      <c r="A1" s="66"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="29" t="str">
+      <c r="H1" s="28" t="str">
         <f>記入!B16</f>
         <v>${pd.deliveryfinshdate}</v>
       </c>
@@ -2334,28 +2340,28 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="30" t="str">
+      <c r="H2" s="29" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="28" t="s">
+      <c r="E3" s="98"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="32" t="str">
+      <c r="H3" s="31" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
@@ -2363,191 +2369,191 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="48.75" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="33" t="s">
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="78" t="str">
+      <c r="G4" s="93" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="80"/>
+      <c r="H4" s="95"/>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="53.25" customHeight="1">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="81" t="str">
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="96" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="82"/>
+      <c r="H5" s="97"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="78" t="str">
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="93" t="str">
         <f>記入!B7</f>
         <v>${pd.responerglish}</v>
       </c>
-      <c r="H6" s="78"/>
+      <c r="H6" s="93"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
     </row>
     <row r="8" spans="1:11" ht="39" customHeight="1">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:11" ht="31.5" customHeight="1">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="97" t="str">
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="87" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="95" t="str">
+      <c r="C13" s="85" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="98"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="43" t="str">
+      <c r="C14" s="42" t="str">
         <f>記入!B14</f>
-        <v>${pd.openingdate}</v>
-      </c>
-      <c r="D14" s="36" t="s">
+        <v>${statime[0]}</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="35" t="str">
+      <c r="E14" s="34" t="str">
         <f>記入!B15</f>
-        <v>${pd.enddate}</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="98"/>
+        <v>${statime[1]}</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="88"/>
     </row>
     <row r="15" spans="1:11" ht="71.25" customHeight="1">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="92" t="str">
+      <c r="C15" s="82" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="99"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="89"/>
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="27">
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="26">
         <f>SUM(H12:H15)</f>
         <v>0</v>
       </c>
@@ -2571,58 +2577,58 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="24" customHeight="1">
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="2:8">
@@ -2721,6 +2727,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:G11"/>
@@ -2733,20 +2753,6 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H12:H15"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2760,1015 +2766,1026 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="47" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="47" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="47" customWidth="1"/>
-    <col min="7" max="7" width="6.125" style="47" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="47" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="2.125" style="47" customWidth="1"/>
-    <col min="11" max="257" width="9" style="47"/>
-    <col min="258" max="258" width="11.375" style="47" customWidth="1"/>
-    <col min="259" max="259" width="9.75" style="47" customWidth="1"/>
-    <col min="260" max="260" width="8.125" style="47" customWidth="1"/>
-    <col min="261" max="261" width="12.5" style="47" customWidth="1"/>
-    <col min="262" max="262" width="16.25" style="47" customWidth="1"/>
-    <col min="263" max="263" width="6.125" style="47" customWidth="1"/>
-    <col min="264" max="264" width="9.375" style="47" customWidth="1"/>
-    <col min="265" max="265" width="13.125" style="47" customWidth="1"/>
-    <col min="266" max="513" width="9" style="47"/>
-    <col min="514" max="514" width="11.375" style="47" customWidth="1"/>
-    <col min="515" max="515" width="9.75" style="47" customWidth="1"/>
-    <col min="516" max="516" width="8.125" style="47" customWidth="1"/>
-    <col min="517" max="517" width="12.5" style="47" customWidth="1"/>
-    <col min="518" max="518" width="16.25" style="47" customWidth="1"/>
-    <col min="519" max="519" width="6.125" style="47" customWidth="1"/>
-    <col min="520" max="520" width="9.375" style="47" customWidth="1"/>
-    <col min="521" max="521" width="13.125" style="47" customWidth="1"/>
-    <col min="522" max="769" width="9" style="47"/>
-    <col min="770" max="770" width="11.375" style="47" customWidth="1"/>
-    <col min="771" max="771" width="9.75" style="47" customWidth="1"/>
-    <col min="772" max="772" width="8.125" style="47" customWidth="1"/>
-    <col min="773" max="773" width="12.5" style="47" customWidth="1"/>
-    <col min="774" max="774" width="16.25" style="47" customWidth="1"/>
-    <col min="775" max="775" width="6.125" style="47" customWidth="1"/>
-    <col min="776" max="776" width="9.375" style="47" customWidth="1"/>
-    <col min="777" max="777" width="13.125" style="47" customWidth="1"/>
-    <col min="778" max="1025" width="9" style="47"/>
-    <col min="1026" max="1026" width="11.375" style="47" customWidth="1"/>
-    <col min="1027" max="1027" width="9.75" style="47" customWidth="1"/>
-    <col min="1028" max="1028" width="8.125" style="47" customWidth="1"/>
-    <col min="1029" max="1029" width="12.5" style="47" customWidth="1"/>
-    <col min="1030" max="1030" width="16.25" style="47" customWidth="1"/>
-    <col min="1031" max="1031" width="6.125" style="47" customWidth="1"/>
-    <col min="1032" max="1032" width="9.375" style="47" customWidth="1"/>
-    <col min="1033" max="1033" width="13.125" style="47" customWidth="1"/>
-    <col min="1034" max="1281" width="9" style="47"/>
-    <col min="1282" max="1282" width="11.375" style="47" customWidth="1"/>
-    <col min="1283" max="1283" width="9.75" style="47" customWidth="1"/>
-    <col min="1284" max="1284" width="8.125" style="47" customWidth="1"/>
-    <col min="1285" max="1285" width="12.5" style="47" customWidth="1"/>
-    <col min="1286" max="1286" width="16.25" style="47" customWidth="1"/>
-    <col min="1287" max="1287" width="6.125" style="47" customWidth="1"/>
-    <col min="1288" max="1288" width="9.375" style="47" customWidth="1"/>
-    <col min="1289" max="1289" width="13.125" style="47" customWidth="1"/>
-    <col min="1290" max="1537" width="9" style="47"/>
-    <col min="1538" max="1538" width="11.375" style="47" customWidth="1"/>
-    <col min="1539" max="1539" width="9.75" style="47" customWidth="1"/>
-    <col min="1540" max="1540" width="8.125" style="47" customWidth="1"/>
-    <col min="1541" max="1541" width="12.5" style="47" customWidth="1"/>
-    <col min="1542" max="1542" width="16.25" style="47" customWidth="1"/>
-    <col min="1543" max="1543" width="6.125" style="47" customWidth="1"/>
-    <col min="1544" max="1544" width="9.375" style="47" customWidth="1"/>
-    <col min="1545" max="1545" width="13.125" style="47" customWidth="1"/>
-    <col min="1546" max="1793" width="9" style="47"/>
-    <col min="1794" max="1794" width="11.375" style="47" customWidth="1"/>
-    <col min="1795" max="1795" width="9.75" style="47" customWidth="1"/>
-    <col min="1796" max="1796" width="8.125" style="47" customWidth="1"/>
-    <col min="1797" max="1797" width="12.5" style="47" customWidth="1"/>
-    <col min="1798" max="1798" width="16.25" style="47" customWidth="1"/>
-    <col min="1799" max="1799" width="6.125" style="47" customWidth="1"/>
-    <col min="1800" max="1800" width="9.375" style="47" customWidth="1"/>
-    <col min="1801" max="1801" width="13.125" style="47" customWidth="1"/>
-    <col min="1802" max="2049" width="9" style="47"/>
-    <col min="2050" max="2050" width="11.375" style="47" customWidth="1"/>
-    <col min="2051" max="2051" width="9.75" style="47" customWidth="1"/>
-    <col min="2052" max="2052" width="8.125" style="47" customWidth="1"/>
-    <col min="2053" max="2053" width="12.5" style="47" customWidth="1"/>
-    <col min="2054" max="2054" width="16.25" style="47" customWidth="1"/>
-    <col min="2055" max="2055" width="6.125" style="47" customWidth="1"/>
-    <col min="2056" max="2056" width="9.375" style="47" customWidth="1"/>
-    <col min="2057" max="2057" width="13.125" style="47" customWidth="1"/>
-    <col min="2058" max="2305" width="9" style="47"/>
-    <col min="2306" max="2306" width="11.375" style="47" customWidth="1"/>
-    <col min="2307" max="2307" width="9.75" style="47" customWidth="1"/>
-    <col min="2308" max="2308" width="8.125" style="47" customWidth="1"/>
-    <col min="2309" max="2309" width="12.5" style="47" customWidth="1"/>
-    <col min="2310" max="2310" width="16.25" style="47" customWidth="1"/>
-    <col min="2311" max="2311" width="6.125" style="47" customWidth="1"/>
-    <col min="2312" max="2312" width="9.375" style="47" customWidth="1"/>
-    <col min="2313" max="2313" width="13.125" style="47" customWidth="1"/>
-    <col min="2314" max="2561" width="9" style="47"/>
-    <col min="2562" max="2562" width="11.375" style="47" customWidth="1"/>
-    <col min="2563" max="2563" width="9.75" style="47" customWidth="1"/>
-    <col min="2564" max="2564" width="8.125" style="47" customWidth="1"/>
-    <col min="2565" max="2565" width="12.5" style="47" customWidth="1"/>
-    <col min="2566" max="2566" width="16.25" style="47" customWidth="1"/>
-    <col min="2567" max="2567" width="6.125" style="47" customWidth="1"/>
-    <col min="2568" max="2568" width="9.375" style="47" customWidth="1"/>
-    <col min="2569" max="2569" width="13.125" style="47" customWidth="1"/>
-    <col min="2570" max="2817" width="9" style="47"/>
-    <col min="2818" max="2818" width="11.375" style="47" customWidth="1"/>
-    <col min="2819" max="2819" width="9.75" style="47" customWidth="1"/>
-    <col min="2820" max="2820" width="8.125" style="47" customWidth="1"/>
-    <col min="2821" max="2821" width="12.5" style="47" customWidth="1"/>
-    <col min="2822" max="2822" width="16.25" style="47" customWidth="1"/>
-    <col min="2823" max="2823" width="6.125" style="47" customWidth="1"/>
-    <col min="2824" max="2824" width="9.375" style="47" customWidth="1"/>
-    <col min="2825" max="2825" width="13.125" style="47" customWidth="1"/>
-    <col min="2826" max="3073" width="9" style="47"/>
-    <col min="3074" max="3074" width="11.375" style="47" customWidth="1"/>
-    <col min="3075" max="3075" width="9.75" style="47" customWidth="1"/>
-    <col min="3076" max="3076" width="8.125" style="47" customWidth="1"/>
-    <col min="3077" max="3077" width="12.5" style="47" customWidth="1"/>
-    <col min="3078" max="3078" width="16.25" style="47" customWidth="1"/>
-    <col min="3079" max="3079" width="6.125" style="47" customWidth="1"/>
-    <col min="3080" max="3080" width="9.375" style="47" customWidth="1"/>
-    <col min="3081" max="3081" width="13.125" style="47" customWidth="1"/>
-    <col min="3082" max="3329" width="9" style="47"/>
-    <col min="3330" max="3330" width="11.375" style="47" customWidth="1"/>
-    <col min="3331" max="3331" width="9.75" style="47" customWidth="1"/>
-    <col min="3332" max="3332" width="8.125" style="47" customWidth="1"/>
-    <col min="3333" max="3333" width="12.5" style="47" customWidth="1"/>
-    <col min="3334" max="3334" width="16.25" style="47" customWidth="1"/>
-    <col min="3335" max="3335" width="6.125" style="47" customWidth="1"/>
-    <col min="3336" max="3336" width="9.375" style="47" customWidth="1"/>
-    <col min="3337" max="3337" width="13.125" style="47" customWidth="1"/>
-    <col min="3338" max="3585" width="9" style="47"/>
-    <col min="3586" max="3586" width="11.375" style="47" customWidth="1"/>
-    <col min="3587" max="3587" width="9.75" style="47" customWidth="1"/>
-    <col min="3588" max="3588" width="8.125" style="47" customWidth="1"/>
-    <col min="3589" max="3589" width="12.5" style="47" customWidth="1"/>
-    <col min="3590" max="3590" width="16.25" style="47" customWidth="1"/>
-    <col min="3591" max="3591" width="6.125" style="47" customWidth="1"/>
-    <col min="3592" max="3592" width="9.375" style="47" customWidth="1"/>
-    <col min="3593" max="3593" width="13.125" style="47" customWidth="1"/>
-    <col min="3594" max="3841" width="9" style="47"/>
-    <col min="3842" max="3842" width="11.375" style="47" customWidth="1"/>
-    <col min="3843" max="3843" width="9.75" style="47" customWidth="1"/>
-    <col min="3844" max="3844" width="8.125" style="47" customWidth="1"/>
-    <col min="3845" max="3845" width="12.5" style="47" customWidth="1"/>
-    <col min="3846" max="3846" width="16.25" style="47" customWidth="1"/>
-    <col min="3847" max="3847" width="6.125" style="47" customWidth="1"/>
-    <col min="3848" max="3848" width="9.375" style="47" customWidth="1"/>
-    <col min="3849" max="3849" width="13.125" style="47" customWidth="1"/>
-    <col min="3850" max="4097" width="9" style="47"/>
-    <col min="4098" max="4098" width="11.375" style="47" customWidth="1"/>
-    <col min="4099" max="4099" width="9.75" style="47" customWidth="1"/>
-    <col min="4100" max="4100" width="8.125" style="47" customWidth="1"/>
-    <col min="4101" max="4101" width="12.5" style="47" customWidth="1"/>
-    <col min="4102" max="4102" width="16.25" style="47" customWidth="1"/>
-    <col min="4103" max="4103" width="6.125" style="47" customWidth="1"/>
-    <col min="4104" max="4104" width="9.375" style="47" customWidth="1"/>
-    <col min="4105" max="4105" width="13.125" style="47" customWidth="1"/>
-    <col min="4106" max="4353" width="9" style="47"/>
-    <col min="4354" max="4354" width="11.375" style="47" customWidth="1"/>
-    <col min="4355" max="4355" width="9.75" style="47" customWidth="1"/>
-    <col min="4356" max="4356" width="8.125" style="47" customWidth="1"/>
-    <col min="4357" max="4357" width="12.5" style="47" customWidth="1"/>
-    <col min="4358" max="4358" width="16.25" style="47" customWidth="1"/>
-    <col min="4359" max="4359" width="6.125" style="47" customWidth="1"/>
-    <col min="4360" max="4360" width="9.375" style="47" customWidth="1"/>
-    <col min="4361" max="4361" width="13.125" style="47" customWidth="1"/>
-    <col min="4362" max="4609" width="9" style="47"/>
-    <col min="4610" max="4610" width="11.375" style="47" customWidth="1"/>
-    <col min="4611" max="4611" width="9.75" style="47" customWidth="1"/>
-    <col min="4612" max="4612" width="8.125" style="47" customWidth="1"/>
-    <col min="4613" max="4613" width="12.5" style="47" customWidth="1"/>
-    <col min="4614" max="4614" width="16.25" style="47" customWidth="1"/>
-    <col min="4615" max="4615" width="6.125" style="47" customWidth="1"/>
-    <col min="4616" max="4616" width="9.375" style="47" customWidth="1"/>
-    <col min="4617" max="4617" width="13.125" style="47" customWidth="1"/>
-    <col min="4618" max="4865" width="9" style="47"/>
-    <col min="4866" max="4866" width="11.375" style="47" customWidth="1"/>
-    <col min="4867" max="4867" width="9.75" style="47" customWidth="1"/>
-    <col min="4868" max="4868" width="8.125" style="47" customWidth="1"/>
-    <col min="4869" max="4869" width="12.5" style="47" customWidth="1"/>
-    <col min="4870" max="4870" width="16.25" style="47" customWidth="1"/>
-    <col min="4871" max="4871" width="6.125" style="47" customWidth="1"/>
-    <col min="4872" max="4872" width="9.375" style="47" customWidth="1"/>
-    <col min="4873" max="4873" width="13.125" style="47" customWidth="1"/>
-    <col min="4874" max="5121" width="9" style="47"/>
-    <col min="5122" max="5122" width="11.375" style="47" customWidth="1"/>
-    <col min="5123" max="5123" width="9.75" style="47" customWidth="1"/>
-    <col min="5124" max="5124" width="8.125" style="47" customWidth="1"/>
-    <col min="5125" max="5125" width="12.5" style="47" customWidth="1"/>
-    <col min="5126" max="5126" width="16.25" style="47" customWidth="1"/>
-    <col min="5127" max="5127" width="6.125" style="47" customWidth="1"/>
-    <col min="5128" max="5128" width="9.375" style="47" customWidth="1"/>
-    <col min="5129" max="5129" width="13.125" style="47" customWidth="1"/>
-    <col min="5130" max="5377" width="9" style="47"/>
-    <col min="5378" max="5378" width="11.375" style="47" customWidth="1"/>
-    <col min="5379" max="5379" width="9.75" style="47" customWidth="1"/>
-    <col min="5380" max="5380" width="8.125" style="47" customWidth="1"/>
-    <col min="5381" max="5381" width="12.5" style="47" customWidth="1"/>
-    <col min="5382" max="5382" width="16.25" style="47" customWidth="1"/>
-    <col min="5383" max="5383" width="6.125" style="47" customWidth="1"/>
-    <col min="5384" max="5384" width="9.375" style="47" customWidth="1"/>
-    <col min="5385" max="5385" width="13.125" style="47" customWidth="1"/>
-    <col min="5386" max="5633" width="9" style="47"/>
-    <col min="5634" max="5634" width="11.375" style="47" customWidth="1"/>
-    <col min="5635" max="5635" width="9.75" style="47" customWidth="1"/>
-    <col min="5636" max="5636" width="8.125" style="47" customWidth="1"/>
-    <col min="5637" max="5637" width="12.5" style="47" customWidth="1"/>
-    <col min="5638" max="5638" width="16.25" style="47" customWidth="1"/>
-    <col min="5639" max="5639" width="6.125" style="47" customWidth="1"/>
-    <col min="5640" max="5640" width="9.375" style="47" customWidth="1"/>
-    <col min="5641" max="5641" width="13.125" style="47" customWidth="1"/>
-    <col min="5642" max="5889" width="9" style="47"/>
-    <col min="5890" max="5890" width="11.375" style="47" customWidth="1"/>
-    <col min="5891" max="5891" width="9.75" style="47" customWidth="1"/>
-    <col min="5892" max="5892" width="8.125" style="47" customWidth="1"/>
-    <col min="5893" max="5893" width="12.5" style="47" customWidth="1"/>
-    <col min="5894" max="5894" width="16.25" style="47" customWidth="1"/>
-    <col min="5895" max="5895" width="6.125" style="47" customWidth="1"/>
-    <col min="5896" max="5896" width="9.375" style="47" customWidth="1"/>
-    <col min="5897" max="5897" width="13.125" style="47" customWidth="1"/>
-    <col min="5898" max="6145" width="9" style="47"/>
-    <col min="6146" max="6146" width="11.375" style="47" customWidth="1"/>
-    <col min="6147" max="6147" width="9.75" style="47" customWidth="1"/>
-    <col min="6148" max="6148" width="8.125" style="47" customWidth="1"/>
-    <col min="6149" max="6149" width="12.5" style="47" customWidth="1"/>
-    <col min="6150" max="6150" width="16.25" style="47" customWidth="1"/>
-    <col min="6151" max="6151" width="6.125" style="47" customWidth="1"/>
-    <col min="6152" max="6152" width="9.375" style="47" customWidth="1"/>
-    <col min="6153" max="6153" width="13.125" style="47" customWidth="1"/>
-    <col min="6154" max="6401" width="9" style="47"/>
-    <col min="6402" max="6402" width="11.375" style="47" customWidth="1"/>
-    <col min="6403" max="6403" width="9.75" style="47" customWidth="1"/>
-    <col min="6404" max="6404" width="8.125" style="47" customWidth="1"/>
-    <col min="6405" max="6405" width="12.5" style="47" customWidth="1"/>
-    <col min="6406" max="6406" width="16.25" style="47" customWidth="1"/>
-    <col min="6407" max="6407" width="6.125" style="47" customWidth="1"/>
-    <col min="6408" max="6408" width="9.375" style="47" customWidth="1"/>
-    <col min="6409" max="6409" width="13.125" style="47" customWidth="1"/>
-    <col min="6410" max="6657" width="9" style="47"/>
-    <col min="6658" max="6658" width="11.375" style="47" customWidth="1"/>
-    <col min="6659" max="6659" width="9.75" style="47" customWidth="1"/>
-    <col min="6660" max="6660" width="8.125" style="47" customWidth="1"/>
-    <col min="6661" max="6661" width="12.5" style="47" customWidth="1"/>
-    <col min="6662" max="6662" width="16.25" style="47" customWidth="1"/>
-    <col min="6663" max="6663" width="6.125" style="47" customWidth="1"/>
-    <col min="6664" max="6664" width="9.375" style="47" customWidth="1"/>
-    <col min="6665" max="6665" width="13.125" style="47" customWidth="1"/>
-    <col min="6666" max="6913" width="9" style="47"/>
-    <col min="6914" max="6914" width="11.375" style="47" customWidth="1"/>
-    <col min="6915" max="6915" width="9.75" style="47" customWidth="1"/>
-    <col min="6916" max="6916" width="8.125" style="47" customWidth="1"/>
-    <col min="6917" max="6917" width="12.5" style="47" customWidth="1"/>
-    <col min="6918" max="6918" width="16.25" style="47" customWidth="1"/>
-    <col min="6919" max="6919" width="6.125" style="47" customWidth="1"/>
-    <col min="6920" max="6920" width="9.375" style="47" customWidth="1"/>
-    <col min="6921" max="6921" width="13.125" style="47" customWidth="1"/>
-    <col min="6922" max="7169" width="9" style="47"/>
-    <col min="7170" max="7170" width="11.375" style="47" customWidth="1"/>
-    <col min="7171" max="7171" width="9.75" style="47" customWidth="1"/>
-    <col min="7172" max="7172" width="8.125" style="47" customWidth="1"/>
-    <col min="7173" max="7173" width="12.5" style="47" customWidth="1"/>
-    <col min="7174" max="7174" width="16.25" style="47" customWidth="1"/>
-    <col min="7175" max="7175" width="6.125" style="47" customWidth="1"/>
-    <col min="7176" max="7176" width="9.375" style="47" customWidth="1"/>
-    <col min="7177" max="7177" width="13.125" style="47" customWidth="1"/>
-    <col min="7178" max="7425" width="9" style="47"/>
-    <col min="7426" max="7426" width="11.375" style="47" customWidth="1"/>
-    <col min="7427" max="7427" width="9.75" style="47" customWidth="1"/>
-    <col min="7428" max="7428" width="8.125" style="47" customWidth="1"/>
-    <col min="7429" max="7429" width="12.5" style="47" customWidth="1"/>
-    <col min="7430" max="7430" width="16.25" style="47" customWidth="1"/>
-    <col min="7431" max="7431" width="6.125" style="47" customWidth="1"/>
-    <col min="7432" max="7432" width="9.375" style="47" customWidth="1"/>
-    <col min="7433" max="7433" width="13.125" style="47" customWidth="1"/>
-    <col min="7434" max="7681" width="9" style="47"/>
-    <col min="7682" max="7682" width="11.375" style="47" customWidth="1"/>
-    <col min="7683" max="7683" width="9.75" style="47" customWidth="1"/>
-    <col min="7684" max="7684" width="8.125" style="47" customWidth="1"/>
-    <col min="7685" max="7685" width="12.5" style="47" customWidth="1"/>
-    <col min="7686" max="7686" width="16.25" style="47" customWidth="1"/>
-    <col min="7687" max="7687" width="6.125" style="47" customWidth="1"/>
-    <col min="7688" max="7688" width="9.375" style="47" customWidth="1"/>
-    <col min="7689" max="7689" width="13.125" style="47" customWidth="1"/>
-    <col min="7690" max="7937" width="9" style="47"/>
-    <col min="7938" max="7938" width="11.375" style="47" customWidth="1"/>
-    <col min="7939" max="7939" width="9.75" style="47" customWidth="1"/>
-    <col min="7940" max="7940" width="8.125" style="47" customWidth="1"/>
-    <col min="7941" max="7941" width="12.5" style="47" customWidth="1"/>
-    <col min="7942" max="7942" width="16.25" style="47" customWidth="1"/>
-    <col min="7943" max="7943" width="6.125" style="47" customWidth="1"/>
-    <col min="7944" max="7944" width="9.375" style="47" customWidth="1"/>
-    <col min="7945" max="7945" width="13.125" style="47" customWidth="1"/>
-    <col min="7946" max="8193" width="9" style="47"/>
-    <col min="8194" max="8194" width="11.375" style="47" customWidth="1"/>
-    <col min="8195" max="8195" width="9.75" style="47" customWidth="1"/>
-    <col min="8196" max="8196" width="8.125" style="47" customWidth="1"/>
-    <col min="8197" max="8197" width="12.5" style="47" customWidth="1"/>
-    <col min="8198" max="8198" width="16.25" style="47" customWidth="1"/>
-    <col min="8199" max="8199" width="6.125" style="47" customWidth="1"/>
-    <col min="8200" max="8200" width="9.375" style="47" customWidth="1"/>
-    <col min="8201" max="8201" width="13.125" style="47" customWidth="1"/>
-    <col min="8202" max="8449" width="9" style="47"/>
-    <col min="8450" max="8450" width="11.375" style="47" customWidth="1"/>
-    <col min="8451" max="8451" width="9.75" style="47" customWidth="1"/>
-    <col min="8452" max="8452" width="8.125" style="47" customWidth="1"/>
-    <col min="8453" max="8453" width="12.5" style="47" customWidth="1"/>
-    <col min="8454" max="8454" width="16.25" style="47" customWidth="1"/>
-    <col min="8455" max="8455" width="6.125" style="47" customWidth="1"/>
-    <col min="8456" max="8456" width="9.375" style="47" customWidth="1"/>
-    <col min="8457" max="8457" width="13.125" style="47" customWidth="1"/>
-    <col min="8458" max="8705" width="9" style="47"/>
-    <col min="8706" max="8706" width="11.375" style="47" customWidth="1"/>
-    <col min="8707" max="8707" width="9.75" style="47" customWidth="1"/>
-    <col min="8708" max="8708" width="8.125" style="47" customWidth="1"/>
-    <col min="8709" max="8709" width="12.5" style="47" customWidth="1"/>
-    <col min="8710" max="8710" width="16.25" style="47" customWidth="1"/>
-    <col min="8711" max="8711" width="6.125" style="47" customWidth="1"/>
-    <col min="8712" max="8712" width="9.375" style="47" customWidth="1"/>
-    <col min="8713" max="8713" width="13.125" style="47" customWidth="1"/>
-    <col min="8714" max="8961" width="9" style="47"/>
-    <col min="8962" max="8962" width="11.375" style="47" customWidth="1"/>
-    <col min="8963" max="8963" width="9.75" style="47" customWidth="1"/>
-    <col min="8964" max="8964" width="8.125" style="47" customWidth="1"/>
-    <col min="8965" max="8965" width="12.5" style="47" customWidth="1"/>
-    <col min="8966" max="8966" width="16.25" style="47" customWidth="1"/>
-    <col min="8967" max="8967" width="6.125" style="47" customWidth="1"/>
-    <col min="8968" max="8968" width="9.375" style="47" customWidth="1"/>
-    <col min="8969" max="8969" width="13.125" style="47" customWidth="1"/>
-    <col min="8970" max="9217" width="9" style="47"/>
-    <col min="9218" max="9218" width="11.375" style="47" customWidth="1"/>
-    <col min="9219" max="9219" width="9.75" style="47" customWidth="1"/>
-    <col min="9220" max="9220" width="8.125" style="47" customWidth="1"/>
-    <col min="9221" max="9221" width="12.5" style="47" customWidth="1"/>
-    <col min="9222" max="9222" width="16.25" style="47" customWidth="1"/>
-    <col min="9223" max="9223" width="6.125" style="47" customWidth="1"/>
-    <col min="9224" max="9224" width="9.375" style="47" customWidth="1"/>
-    <col min="9225" max="9225" width="13.125" style="47" customWidth="1"/>
-    <col min="9226" max="9473" width="9" style="47"/>
-    <col min="9474" max="9474" width="11.375" style="47" customWidth="1"/>
-    <col min="9475" max="9475" width="9.75" style="47" customWidth="1"/>
-    <col min="9476" max="9476" width="8.125" style="47" customWidth="1"/>
-    <col min="9477" max="9477" width="12.5" style="47" customWidth="1"/>
-    <col min="9478" max="9478" width="16.25" style="47" customWidth="1"/>
-    <col min="9479" max="9479" width="6.125" style="47" customWidth="1"/>
-    <col min="9480" max="9480" width="9.375" style="47" customWidth="1"/>
-    <col min="9481" max="9481" width="13.125" style="47" customWidth="1"/>
-    <col min="9482" max="9729" width="9" style="47"/>
-    <col min="9730" max="9730" width="11.375" style="47" customWidth="1"/>
-    <col min="9731" max="9731" width="9.75" style="47" customWidth="1"/>
-    <col min="9732" max="9732" width="8.125" style="47" customWidth="1"/>
-    <col min="9733" max="9733" width="12.5" style="47" customWidth="1"/>
-    <col min="9734" max="9734" width="16.25" style="47" customWidth="1"/>
-    <col min="9735" max="9735" width="6.125" style="47" customWidth="1"/>
-    <col min="9736" max="9736" width="9.375" style="47" customWidth="1"/>
-    <col min="9737" max="9737" width="13.125" style="47" customWidth="1"/>
-    <col min="9738" max="9985" width="9" style="47"/>
-    <col min="9986" max="9986" width="11.375" style="47" customWidth="1"/>
-    <col min="9987" max="9987" width="9.75" style="47" customWidth="1"/>
-    <col min="9988" max="9988" width="8.125" style="47" customWidth="1"/>
-    <col min="9989" max="9989" width="12.5" style="47" customWidth="1"/>
-    <col min="9990" max="9990" width="16.25" style="47" customWidth="1"/>
-    <col min="9991" max="9991" width="6.125" style="47" customWidth="1"/>
-    <col min="9992" max="9992" width="9.375" style="47" customWidth="1"/>
-    <col min="9993" max="9993" width="13.125" style="47" customWidth="1"/>
-    <col min="9994" max="10241" width="9" style="47"/>
-    <col min="10242" max="10242" width="11.375" style="47" customWidth="1"/>
-    <col min="10243" max="10243" width="9.75" style="47" customWidth="1"/>
-    <col min="10244" max="10244" width="8.125" style="47" customWidth="1"/>
-    <col min="10245" max="10245" width="12.5" style="47" customWidth="1"/>
-    <col min="10246" max="10246" width="16.25" style="47" customWidth="1"/>
-    <col min="10247" max="10247" width="6.125" style="47" customWidth="1"/>
-    <col min="10248" max="10248" width="9.375" style="47" customWidth="1"/>
-    <col min="10249" max="10249" width="13.125" style="47" customWidth="1"/>
-    <col min="10250" max="10497" width="9" style="47"/>
-    <col min="10498" max="10498" width="11.375" style="47" customWidth="1"/>
-    <col min="10499" max="10499" width="9.75" style="47" customWidth="1"/>
-    <col min="10500" max="10500" width="8.125" style="47" customWidth="1"/>
-    <col min="10501" max="10501" width="12.5" style="47" customWidth="1"/>
-    <col min="10502" max="10502" width="16.25" style="47" customWidth="1"/>
-    <col min="10503" max="10503" width="6.125" style="47" customWidth="1"/>
-    <col min="10504" max="10504" width="9.375" style="47" customWidth="1"/>
-    <col min="10505" max="10505" width="13.125" style="47" customWidth="1"/>
-    <col min="10506" max="10753" width="9" style="47"/>
-    <col min="10754" max="10754" width="11.375" style="47" customWidth="1"/>
-    <col min="10755" max="10755" width="9.75" style="47" customWidth="1"/>
-    <col min="10756" max="10756" width="8.125" style="47" customWidth="1"/>
-    <col min="10757" max="10757" width="12.5" style="47" customWidth="1"/>
-    <col min="10758" max="10758" width="16.25" style="47" customWidth="1"/>
-    <col min="10759" max="10759" width="6.125" style="47" customWidth="1"/>
-    <col min="10760" max="10760" width="9.375" style="47" customWidth="1"/>
-    <col min="10761" max="10761" width="13.125" style="47" customWidth="1"/>
-    <col min="10762" max="11009" width="9" style="47"/>
-    <col min="11010" max="11010" width="11.375" style="47" customWidth="1"/>
-    <col min="11011" max="11011" width="9.75" style="47" customWidth="1"/>
-    <col min="11012" max="11012" width="8.125" style="47" customWidth="1"/>
-    <col min="11013" max="11013" width="12.5" style="47" customWidth="1"/>
-    <col min="11014" max="11014" width="16.25" style="47" customWidth="1"/>
-    <col min="11015" max="11015" width="6.125" style="47" customWidth="1"/>
-    <col min="11016" max="11016" width="9.375" style="47" customWidth="1"/>
-    <col min="11017" max="11017" width="13.125" style="47" customWidth="1"/>
-    <col min="11018" max="11265" width="9" style="47"/>
-    <col min="11266" max="11266" width="11.375" style="47" customWidth="1"/>
-    <col min="11267" max="11267" width="9.75" style="47" customWidth="1"/>
-    <col min="11268" max="11268" width="8.125" style="47" customWidth="1"/>
-    <col min="11269" max="11269" width="12.5" style="47" customWidth="1"/>
-    <col min="11270" max="11270" width="16.25" style="47" customWidth="1"/>
-    <col min="11271" max="11271" width="6.125" style="47" customWidth="1"/>
-    <col min="11272" max="11272" width="9.375" style="47" customWidth="1"/>
-    <col min="11273" max="11273" width="13.125" style="47" customWidth="1"/>
-    <col min="11274" max="11521" width="9" style="47"/>
-    <col min="11522" max="11522" width="11.375" style="47" customWidth="1"/>
-    <col min="11523" max="11523" width="9.75" style="47" customWidth="1"/>
-    <col min="11524" max="11524" width="8.125" style="47" customWidth="1"/>
-    <col min="11525" max="11525" width="12.5" style="47" customWidth="1"/>
-    <col min="11526" max="11526" width="16.25" style="47" customWidth="1"/>
-    <col min="11527" max="11527" width="6.125" style="47" customWidth="1"/>
-    <col min="11528" max="11528" width="9.375" style="47" customWidth="1"/>
-    <col min="11529" max="11529" width="13.125" style="47" customWidth="1"/>
-    <col min="11530" max="11777" width="9" style="47"/>
-    <col min="11778" max="11778" width="11.375" style="47" customWidth="1"/>
-    <col min="11779" max="11779" width="9.75" style="47" customWidth="1"/>
-    <col min="11780" max="11780" width="8.125" style="47" customWidth="1"/>
-    <col min="11781" max="11781" width="12.5" style="47" customWidth="1"/>
-    <col min="11782" max="11782" width="16.25" style="47" customWidth="1"/>
-    <col min="11783" max="11783" width="6.125" style="47" customWidth="1"/>
-    <col min="11784" max="11784" width="9.375" style="47" customWidth="1"/>
-    <col min="11785" max="11785" width="13.125" style="47" customWidth="1"/>
-    <col min="11786" max="12033" width="9" style="47"/>
-    <col min="12034" max="12034" width="11.375" style="47" customWidth="1"/>
-    <col min="12035" max="12035" width="9.75" style="47" customWidth="1"/>
-    <col min="12036" max="12036" width="8.125" style="47" customWidth="1"/>
-    <col min="12037" max="12037" width="12.5" style="47" customWidth="1"/>
-    <col min="12038" max="12038" width="16.25" style="47" customWidth="1"/>
-    <col min="12039" max="12039" width="6.125" style="47" customWidth="1"/>
-    <col min="12040" max="12040" width="9.375" style="47" customWidth="1"/>
-    <col min="12041" max="12041" width="13.125" style="47" customWidth="1"/>
-    <col min="12042" max="12289" width="9" style="47"/>
-    <col min="12290" max="12290" width="11.375" style="47" customWidth="1"/>
-    <col min="12291" max="12291" width="9.75" style="47" customWidth="1"/>
-    <col min="12292" max="12292" width="8.125" style="47" customWidth="1"/>
-    <col min="12293" max="12293" width="12.5" style="47" customWidth="1"/>
-    <col min="12294" max="12294" width="16.25" style="47" customWidth="1"/>
-    <col min="12295" max="12295" width="6.125" style="47" customWidth="1"/>
-    <col min="12296" max="12296" width="9.375" style="47" customWidth="1"/>
-    <col min="12297" max="12297" width="13.125" style="47" customWidth="1"/>
-    <col min="12298" max="12545" width="9" style="47"/>
-    <col min="12546" max="12546" width="11.375" style="47" customWidth="1"/>
-    <col min="12547" max="12547" width="9.75" style="47" customWidth="1"/>
-    <col min="12548" max="12548" width="8.125" style="47" customWidth="1"/>
-    <col min="12549" max="12549" width="12.5" style="47" customWidth="1"/>
-    <col min="12550" max="12550" width="16.25" style="47" customWidth="1"/>
-    <col min="12551" max="12551" width="6.125" style="47" customWidth="1"/>
-    <col min="12552" max="12552" width="9.375" style="47" customWidth="1"/>
-    <col min="12553" max="12553" width="13.125" style="47" customWidth="1"/>
-    <col min="12554" max="12801" width="9" style="47"/>
-    <col min="12802" max="12802" width="11.375" style="47" customWidth="1"/>
-    <col min="12803" max="12803" width="9.75" style="47" customWidth="1"/>
-    <col min="12804" max="12804" width="8.125" style="47" customWidth="1"/>
-    <col min="12805" max="12805" width="12.5" style="47" customWidth="1"/>
-    <col min="12806" max="12806" width="16.25" style="47" customWidth="1"/>
-    <col min="12807" max="12807" width="6.125" style="47" customWidth="1"/>
-    <col min="12808" max="12808" width="9.375" style="47" customWidth="1"/>
-    <col min="12809" max="12809" width="13.125" style="47" customWidth="1"/>
-    <col min="12810" max="13057" width="9" style="47"/>
-    <col min="13058" max="13058" width="11.375" style="47" customWidth="1"/>
-    <col min="13059" max="13059" width="9.75" style="47" customWidth="1"/>
-    <col min="13060" max="13060" width="8.125" style="47" customWidth="1"/>
-    <col min="13061" max="13061" width="12.5" style="47" customWidth="1"/>
-    <col min="13062" max="13062" width="16.25" style="47" customWidth="1"/>
-    <col min="13063" max="13063" width="6.125" style="47" customWidth="1"/>
-    <col min="13064" max="13064" width="9.375" style="47" customWidth="1"/>
-    <col min="13065" max="13065" width="13.125" style="47" customWidth="1"/>
-    <col min="13066" max="13313" width="9" style="47"/>
-    <col min="13314" max="13314" width="11.375" style="47" customWidth="1"/>
-    <col min="13315" max="13315" width="9.75" style="47" customWidth="1"/>
-    <col min="13316" max="13316" width="8.125" style="47" customWidth="1"/>
-    <col min="13317" max="13317" width="12.5" style="47" customWidth="1"/>
-    <col min="13318" max="13318" width="16.25" style="47" customWidth="1"/>
-    <col min="13319" max="13319" width="6.125" style="47" customWidth="1"/>
-    <col min="13320" max="13320" width="9.375" style="47" customWidth="1"/>
-    <col min="13321" max="13321" width="13.125" style="47" customWidth="1"/>
-    <col min="13322" max="13569" width="9" style="47"/>
-    <col min="13570" max="13570" width="11.375" style="47" customWidth="1"/>
-    <col min="13571" max="13571" width="9.75" style="47" customWidth="1"/>
-    <col min="13572" max="13572" width="8.125" style="47" customWidth="1"/>
-    <col min="13573" max="13573" width="12.5" style="47" customWidth="1"/>
-    <col min="13574" max="13574" width="16.25" style="47" customWidth="1"/>
-    <col min="13575" max="13575" width="6.125" style="47" customWidth="1"/>
-    <col min="13576" max="13576" width="9.375" style="47" customWidth="1"/>
-    <col min="13577" max="13577" width="13.125" style="47" customWidth="1"/>
-    <col min="13578" max="13825" width="9" style="47"/>
-    <col min="13826" max="13826" width="11.375" style="47" customWidth="1"/>
-    <col min="13827" max="13827" width="9.75" style="47" customWidth="1"/>
-    <col min="13828" max="13828" width="8.125" style="47" customWidth="1"/>
-    <col min="13829" max="13829" width="12.5" style="47" customWidth="1"/>
-    <col min="13830" max="13830" width="16.25" style="47" customWidth="1"/>
-    <col min="13831" max="13831" width="6.125" style="47" customWidth="1"/>
-    <col min="13832" max="13832" width="9.375" style="47" customWidth="1"/>
-    <col min="13833" max="13833" width="13.125" style="47" customWidth="1"/>
-    <col min="13834" max="14081" width="9" style="47"/>
-    <col min="14082" max="14082" width="11.375" style="47" customWidth="1"/>
-    <col min="14083" max="14083" width="9.75" style="47" customWidth="1"/>
-    <col min="14084" max="14084" width="8.125" style="47" customWidth="1"/>
-    <col min="14085" max="14085" width="12.5" style="47" customWidth="1"/>
-    <col min="14086" max="14086" width="16.25" style="47" customWidth="1"/>
-    <col min="14087" max="14087" width="6.125" style="47" customWidth="1"/>
-    <col min="14088" max="14088" width="9.375" style="47" customWidth="1"/>
-    <col min="14089" max="14089" width="13.125" style="47" customWidth="1"/>
-    <col min="14090" max="14337" width="9" style="47"/>
-    <col min="14338" max="14338" width="11.375" style="47" customWidth="1"/>
-    <col min="14339" max="14339" width="9.75" style="47" customWidth="1"/>
-    <col min="14340" max="14340" width="8.125" style="47" customWidth="1"/>
-    <col min="14341" max="14341" width="12.5" style="47" customWidth="1"/>
-    <col min="14342" max="14342" width="16.25" style="47" customWidth="1"/>
-    <col min="14343" max="14343" width="6.125" style="47" customWidth="1"/>
-    <col min="14344" max="14344" width="9.375" style="47" customWidth="1"/>
-    <col min="14345" max="14345" width="13.125" style="47" customWidth="1"/>
-    <col min="14346" max="14593" width="9" style="47"/>
-    <col min="14594" max="14594" width="11.375" style="47" customWidth="1"/>
-    <col min="14595" max="14595" width="9.75" style="47" customWidth="1"/>
-    <col min="14596" max="14596" width="8.125" style="47" customWidth="1"/>
-    <col min="14597" max="14597" width="12.5" style="47" customWidth="1"/>
-    <col min="14598" max="14598" width="16.25" style="47" customWidth="1"/>
-    <col min="14599" max="14599" width="6.125" style="47" customWidth="1"/>
-    <col min="14600" max="14600" width="9.375" style="47" customWidth="1"/>
-    <col min="14601" max="14601" width="13.125" style="47" customWidth="1"/>
-    <col min="14602" max="14849" width="9" style="47"/>
-    <col min="14850" max="14850" width="11.375" style="47" customWidth="1"/>
-    <col min="14851" max="14851" width="9.75" style="47" customWidth="1"/>
-    <col min="14852" max="14852" width="8.125" style="47" customWidth="1"/>
-    <col min="14853" max="14853" width="12.5" style="47" customWidth="1"/>
-    <col min="14854" max="14854" width="16.25" style="47" customWidth="1"/>
-    <col min="14855" max="14855" width="6.125" style="47" customWidth="1"/>
-    <col min="14856" max="14856" width="9.375" style="47" customWidth="1"/>
-    <col min="14857" max="14857" width="13.125" style="47" customWidth="1"/>
-    <col min="14858" max="15105" width="9" style="47"/>
-    <col min="15106" max="15106" width="11.375" style="47" customWidth="1"/>
-    <col min="15107" max="15107" width="9.75" style="47" customWidth="1"/>
-    <col min="15108" max="15108" width="8.125" style="47" customWidth="1"/>
-    <col min="15109" max="15109" width="12.5" style="47" customWidth="1"/>
-    <col min="15110" max="15110" width="16.25" style="47" customWidth="1"/>
-    <col min="15111" max="15111" width="6.125" style="47" customWidth="1"/>
-    <col min="15112" max="15112" width="9.375" style="47" customWidth="1"/>
-    <col min="15113" max="15113" width="13.125" style="47" customWidth="1"/>
-    <col min="15114" max="15361" width="9" style="47"/>
-    <col min="15362" max="15362" width="11.375" style="47" customWidth="1"/>
-    <col min="15363" max="15363" width="9.75" style="47" customWidth="1"/>
-    <col min="15364" max="15364" width="8.125" style="47" customWidth="1"/>
-    <col min="15365" max="15365" width="12.5" style="47" customWidth="1"/>
-    <col min="15366" max="15366" width="16.25" style="47" customWidth="1"/>
-    <col min="15367" max="15367" width="6.125" style="47" customWidth="1"/>
-    <col min="15368" max="15368" width="9.375" style="47" customWidth="1"/>
-    <col min="15369" max="15369" width="13.125" style="47" customWidth="1"/>
-    <col min="15370" max="15617" width="9" style="47"/>
-    <col min="15618" max="15618" width="11.375" style="47" customWidth="1"/>
-    <col min="15619" max="15619" width="9.75" style="47" customWidth="1"/>
-    <col min="15620" max="15620" width="8.125" style="47" customWidth="1"/>
-    <col min="15621" max="15621" width="12.5" style="47" customWidth="1"/>
-    <col min="15622" max="15622" width="16.25" style="47" customWidth="1"/>
-    <col min="15623" max="15623" width="6.125" style="47" customWidth="1"/>
-    <col min="15624" max="15624" width="9.375" style="47" customWidth="1"/>
-    <col min="15625" max="15625" width="13.125" style="47" customWidth="1"/>
-    <col min="15626" max="15873" width="9" style="47"/>
-    <col min="15874" max="15874" width="11.375" style="47" customWidth="1"/>
-    <col min="15875" max="15875" width="9.75" style="47" customWidth="1"/>
-    <col min="15876" max="15876" width="8.125" style="47" customWidth="1"/>
-    <col min="15877" max="15877" width="12.5" style="47" customWidth="1"/>
-    <col min="15878" max="15878" width="16.25" style="47" customWidth="1"/>
-    <col min="15879" max="15879" width="6.125" style="47" customWidth="1"/>
-    <col min="15880" max="15880" width="9.375" style="47" customWidth="1"/>
-    <col min="15881" max="15881" width="13.125" style="47" customWidth="1"/>
-    <col min="15882" max="16129" width="9" style="47"/>
-    <col min="16130" max="16130" width="11.375" style="47" customWidth="1"/>
-    <col min="16131" max="16131" width="9.75" style="47" customWidth="1"/>
-    <col min="16132" max="16132" width="8.125" style="47" customWidth="1"/>
-    <col min="16133" max="16133" width="12.5" style="47" customWidth="1"/>
-    <col min="16134" max="16134" width="16.25" style="47" customWidth="1"/>
-    <col min="16135" max="16135" width="6.125" style="47" customWidth="1"/>
-    <col min="16136" max="16136" width="9.375" style="47" customWidth="1"/>
-    <col min="16137" max="16137" width="13.125" style="47" customWidth="1"/>
-    <col min="16138" max="16384" width="9" style="47"/>
+    <col min="1" max="1" width="2.625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="46" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="46" customWidth="1"/>
+    <col min="7" max="7" width="6.125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="46" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="2.125" style="46" customWidth="1"/>
+    <col min="11" max="257" width="9" style="46"/>
+    <col min="258" max="258" width="11.375" style="46" customWidth="1"/>
+    <col min="259" max="259" width="9.75" style="46" customWidth="1"/>
+    <col min="260" max="260" width="8.125" style="46" customWidth="1"/>
+    <col min="261" max="261" width="12.5" style="46" customWidth="1"/>
+    <col min="262" max="262" width="16.25" style="46" customWidth="1"/>
+    <col min="263" max="263" width="6.125" style="46" customWidth="1"/>
+    <col min="264" max="264" width="9.375" style="46" customWidth="1"/>
+    <col min="265" max="265" width="13.125" style="46" customWidth="1"/>
+    <col min="266" max="513" width="9" style="46"/>
+    <col min="514" max="514" width="11.375" style="46" customWidth="1"/>
+    <col min="515" max="515" width="9.75" style="46" customWidth="1"/>
+    <col min="516" max="516" width="8.125" style="46" customWidth="1"/>
+    <col min="517" max="517" width="12.5" style="46" customWidth="1"/>
+    <col min="518" max="518" width="16.25" style="46" customWidth="1"/>
+    <col min="519" max="519" width="6.125" style="46" customWidth="1"/>
+    <col min="520" max="520" width="9.375" style="46" customWidth="1"/>
+    <col min="521" max="521" width="13.125" style="46" customWidth="1"/>
+    <col min="522" max="769" width="9" style="46"/>
+    <col min="770" max="770" width="11.375" style="46" customWidth="1"/>
+    <col min="771" max="771" width="9.75" style="46" customWidth="1"/>
+    <col min="772" max="772" width="8.125" style="46" customWidth="1"/>
+    <col min="773" max="773" width="12.5" style="46" customWidth="1"/>
+    <col min="774" max="774" width="16.25" style="46" customWidth="1"/>
+    <col min="775" max="775" width="6.125" style="46" customWidth="1"/>
+    <col min="776" max="776" width="9.375" style="46" customWidth="1"/>
+    <col min="777" max="777" width="13.125" style="46" customWidth="1"/>
+    <col min="778" max="1025" width="9" style="46"/>
+    <col min="1026" max="1026" width="11.375" style="46" customWidth="1"/>
+    <col min="1027" max="1027" width="9.75" style="46" customWidth="1"/>
+    <col min="1028" max="1028" width="8.125" style="46" customWidth="1"/>
+    <col min="1029" max="1029" width="12.5" style="46" customWidth="1"/>
+    <col min="1030" max="1030" width="16.25" style="46" customWidth="1"/>
+    <col min="1031" max="1031" width="6.125" style="46" customWidth="1"/>
+    <col min="1032" max="1032" width="9.375" style="46" customWidth="1"/>
+    <col min="1033" max="1033" width="13.125" style="46" customWidth="1"/>
+    <col min="1034" max="1281" width="9" style="46"/>
+    <col min="1282" max="1282" width="11.375" style="46" customWidth="1"/>
+    <col min="1283" max="1283" width="9.75" style="46" customWidth="1"/>
+    <col min="1284" max="1284" width="8.125" style="46" customWidth="1"/>
+    <col min="1285" max="1285" width="12.5" style="46" customWidth="1"/>
+    <col min="1286" max="1286" width="16.25" style="46" customWidth="1"/>
+    <col min="1287" max="1287" width="6.125" style="46" customWidth="1"/>
+    <col min="1288" max="1288" width="9.375" style="46" customWidth="1"/>
+    <col min="1289" max="1289" width="13.125" style="46" customWidth="1"/>
+    <col min="1290" max="1537" width="9" style="46"/>
+    <col min="1538" max="1538" width="11.375" style="46" customWidth="1"/>
+    <col min="1539" max="1539" width="9.75" style="46" customWidth="1"/>
+    <col min="1540" max="1540" width="8.125" style="46" customWidth="1"/>
+    <col min="1541" max="1541" width="12.5" style="46" customWidth="1"/>
+    <col min="1542" max="1542" width="16.25" style="46" customWidth="1"/>
+    <col min="1543" max="1543" width="6.125" style="46" customWidth="1"/>
+    <col min="1544" max="1544" width="9.375" style="46" customWidth="1"/>
+    <col min="1545" max="1545" width="13.125" style="46" customWidth="1"/>
+    <col min="1546" max="1793" width="9" style="46"/>
+    <col min="1794" max="1794" width="11.375" style="46" customWidth="1"/>
+    <col min="1795" max="1795" width="9.75" style="46" customWidth="1"/>
+    <col min="1796" max="1796" width="8.125" style="46" customWidth="1"/>
+    <col min="1797" max="1797" width="12.5" style="46" customWidth="1"/>
+    <col min="1798" max="1798" width="16.25" style="46" customWidth="1"/>
+    <col min="1799" max="1799" width="6.125" style="46" customWidth="1"/>
+    <col min="1800" max="1800" width="9.375" style="46" customWidth="1"/>
+    <col min="1801" max="1801" width="13.125" style="46" customWidth="1"/>
+    <col min="1802" max="2049" width="9" style="46"/>
+    <col min="2050" max="2050" width="11.375" style="46" customWidth="1"/>
+    <col min="2051" max="2051" width="9.75" style="46" customWidth="1"/>
+    <col min="2052" max="2052" width="8.125" style="46" customWidth="1"/>
+    <col min="2053" max="2053" width="12.5" style="46" customWidth="1"/>
+    <col min="2054" max="2054" width="16.25" style="46" customWidth="1"/>
+    <col min="2055" max="2055" width="6.125" style="46" customWidth="1"/>
+    <col min="2056" max="2056" width="9.375" style="46" customWidth="1"/>
+    <col min="2057" max="2057" width="13.125" style="46" customWidth="1"/>
+    <col min="2058" max="2305" width="9" style="46"/>
+    <col min="2306" max="2306" width="11.375" style="46" customWidth="1"/>
+    <col min="2307" max="2307" width="9.75" style="46" customWidth="1"/>
+    <col min="2308" max="2308" width="8.125" style="46" customWidth="1"/>
+    <col min="2309" max="2309" width="12.5" style="46" customWidth="1"/>
+    <col min="2310" max="2310" width="16.25" style="46" customWidth="1"/>
+    <col min="2311" max="2311" width="6.125" style="46" customWidth="1"/>
+    <col min="2312" max="2312" width="9.375" style="46" customWidth="1"/>
+    <col min="2313" max="2313" width="13.125" style="46" customWidth="1"/>
+    <col min="2314" max="2561" width="9" style="46"/>
+    <col min="2562" max="2562" width="11.375" style="46" customWidth="1"/>
+    <col min="2563" max="2563" width="9.75" style="46" customWidth="1"/>
+    <col min="2564" max="2564" width="8.125" style="46" customWidth="1"/>
+    <col min="2565" max="2565" width="12.5" style="46" customWidth="1"/>
+    <col min="2566" max="2566" width="16.25" style="46" customWidth="1"/>
+    <col min="2567" max="2567" width="6.125" style="46" customWidth="1"/>
+    <col min="2568" max="2568" width="9.375" style="46" customWidth="1"/>
+    <col min="2569" max="2569" width="13.125" style="46" customWidth="1"/>
+    <col min="2570" max="2817" width="9" style="46"/>
+    <col min="2818" max="2818" width="11.375" style="46" customWidth="1"/>
+    <col min="2819" max="2819" width="9.75" style="46" customWidth="1"/>
+    <col min="2820" max="2820" width="8.125" style="46" customWidth="1"/>
+    <col min="2821" max="2821" width="12.5" style="46" customWidth="1"/>
+    <col min="2822" max="2822" width="16.25" style="46" customWidth="1"/>
+    <col min="2823" max="2823" width="6.125" style="46" customWidth="1"/>
+    <col min="2824" max="2824" width="9.375" style="46" customWidth="1"/>
+    <col min="2825" max="2825" width="13.125" style="46" customWidth="1"/>
+    <col min="2826" max="3073" width="9" style="46"/>
+    <col min="3074" max="3074" width="11.375" style="46" customWidth="1"/>
+    <col min="3075" max="3075" width="9.75" style="46" customWidth="1"/>
+    <col min="3076" max="3076" width="8.125" style="46" customWidth="1"/>
+    <col min="3077" max="3077" width="12.5" style="46" customWidth="1"/>
+    <col min="3078" max="3078" width="16.25" style="46" customWidth="1"/>
+    <col min="3079" max="3079" width="6.125" style="46" customWidth="1"/>
+    <col min="3080" max="3080" width="9.375" style="46" customWidth="1"/>
+    <col min="3081" max="3081" width="13.125" style="46" customWidth="1"/>
+    <col min="3082" max="3329" width="9" style="46"/>
+    <col min="3330" max="3330" width="11.375" style="46" customWidth="1"/>
+    <col min="3331" max="3331" width="9.75" style="46" customWidth="1"/>
+    <col min="3332" max="3332" width="8.125" style="46" customWidth="1"/>
+    <col min="3333" max="3333" width="12.5" style="46" customWidth="1"/>
+    <col min="3334" max="3334" width="16.25" style="46" customWidth="1"/>
+    <col min="3335" max="3335" width="6.125" style="46" customWidth="1"/>
+    <col min="3336" max="3336" width="9.375" style="46" customWidth="1"/>
+    <col min="3337" max="3337" width="13.125" style="46" customWidth="1"/>
+    <col min="3338" max="3585" width="9" style="46"/>
+    <col min="3586" max="3586" width="11.375" style="46" customWidth="1"/>
+    <col min="3587" max="3587" width="9.75" style="46" customWidth="1"/>
+    <col min="3588" max="3588" width="8.125" style="46" customWidth="1"/>
+    <col min="3589" max="3589" width="12.5" style="46" customWidth="1"/>
+    <col min="3590" max="3590" width="16.25" style="46" customWidth="1"/>
+    <col min="3591" max="3591" width="6.125" style="46" customWidth="1"/>
+    <col min="3592" max="3592" width="9.375" style="46" customWidth="1"/>
+    <col min="3593" max="3593" width="13.125" style="46" customWidth="1"/>
+    <col min="3594" max="3841" width="9" style="46"/>
+    <col min="3842" max="3842" width="11.375" style="46" customWidth="1"/>
+    <col min="3843" max="3843" width="9.75" style="46" customWidth="1"/>
+    <col min="3844" max="3844" width="8.125" style="46" customWidth="1"/>
+    <col min="3845" max="3845" width="12.5" style="46" customWidth="1"/>
+    <col min="3846" max="3846" width="16.25" style="46" customWidth="1"/>
+    <col min="3847" max="3847" width="6.125" style="46" customWidth="1"/>
+    <col min="3848" max="3848" width="9.375" style="46" customWidth="1"/>
+    <col min="3849" max="3849" width="13.125" style="46" customWidth="1"/>
+    <col min="3850" max="4097" width="9" style="46"/>
+    <col min="4098" max="4098" width="11.375" style="46" customWidth="1"/>
+    <col min="4099" max="4099" width="9.75" style="46" customWidth="1"/>
+    <col min="4100" max="4100" width="8.125" style="46" customWidth="1"/>
+    <col min="4101" max="4101" width="12.5" style="46" customWidth="1"/>
+    <col min="4102" max="4102" width="16.25" style="46" customWidth="1"/>
+    <col min="4103" max="4103" width="6.125" style="46" customWidth="1"/>
+    <col min="4104" max="4104" width="9.375" style="46" customWidth="1"/>
+    <col min="4105" max="4105" width="13.125" style="46" customWidth="1"/>
+    <col min="4106" max="4353" width="9" style="46"/>
+    <col min="4354" max="4354" width="11.375" style="46" customWidth="1"/>
+    <col min="4355" max="4355" width="9.75" style="46" customWidth="1"/>
+    <col min="4356" max="4356" width="8.125" style="46" customWidth="1"/>
+    <col min="4357" max="4357" width="12.5" style="46" customWidth="1"/>
+    <col min="4358" max="4358" width="16.25" style="46" customWidth="1"/>
+    <col min="4359" max="4359" width="6.125" style="46" customWidth="1"/>
+    <col min="4360" max="4360" width="9.375" style="46" customWidth="1"/>
+    <col min="4361" max="4361" width="13.125" style="46" customWidth="1"/>
+    <col min="4362" max="4609" width="9" style="46"/>
+    <col min="4610" max="4610" width="11.375" style="46" customWidth="1"/>
+    <col min="4611" max="4611" width="9.75" style="46" customWidth="1"/>
+    <col min="4612" max="4612" width="8.125" style="46" customWidth="1"/>
+    <col min="4613" max="4613" width="12.5" style="46" customWidth="1"/>
+    <col min="4614" max="4614" width="16.25" style="46" customWidth="1"/>
+    <col min="4615" max="4615" width="6.125" style="46" customWidth="1"/>
+    <col min="4616" max="4616" width="9.375" style="46" customWidth="1"/>
+    <col min="4617" max="4617" width="13.125" style="46" customWidth="1"/>
+    <col min="4618" max="4865" width="9" style="46"/>
+    <col min="4866" max="4866" width="11.375" style="46" customWidth="1"/>
+    <col min="4867" max="4867" width="9.75" style="46" customWidth="1"/>
+    <col min="4868" max="4868" width="8.125" style="46" customWidth="1"/>
+    <col min="4869" max="4869" width="12.5" style="46" customWidth="1"/>
+    <col min="4870" max="4870" width="16.25" style="46" customWidth="1"/>
+    <col min="4871" max="4871" width="6.125" style="46" customWidth="1"/>
+    <col min="4872" max="4872" width="9.375" style="46" customWidth="1"/>
+    <col min="4873" max="4873" width="13.125" style="46" customWidth="1"/>
+    <col min="4874" max="5121" width="9" style="46"/>
+    <col min="5122" max="5122" width="11.375" style="46" customWidth="1"/>
+    <col min="5123" max="5123" width="9.75" style="46" customWidth="1"/>
+    <col min="5124" max="5124" width="8.125" style="46" customWidth="1"/>
+    <col min="5125" max="5125" width="12.5" style="46" customWidth="1"/>
+    <col min="5126" max="5126" width="16.25" style="46" customWidth="1"/>
+    <col min="5127" max="5127" width="6.125" style="46" customWidth="1"/>
+    <col min="5128" max="5128" width="9.375" style="46" customWidth="1"/>
+    <col min="5129" max="5129" width="13.125" style="46" customWidth="1"/>
+    <col min="5130" max="5377" width="9" style="46"/>
+    <col min="5378" max="5378" width="11.375" style="46" customWidth="1"/>
+    <col min="5379" max="5379" width="9.75" style="46" customWidth="1"/>
+    <col min="5380" max="5380" width="8.125" style="46" customWidth="1"/>
+    <col min="5381" max="5381" width="12.5" style="46" customWidth="1"/>
+    <col min="5382" max="5382" width="16.25" style="46" customWidth="1"/>
+    <col min="5383" max="5383" width="6.125" style="46" customWidth="1"/>
+    <col min="5384" max="5384" width="9.375" style="46" customWidth="1"/>
+    <col min="5385" max="5385" width="13.125" style="46" customWidth="1"/>
+    <col min="5386" max="5633" width="9" style="46"/>
+    <col min="5634" max="5634" width="11.375" style="46" customWidth="1"/>
+    <col min="5635" max="5635" width="9.75" style="46" customWidth="1"/>
+    <col min="5636" max="5636" width="8.125" style="46" customWidth="1"/>
+    <col min="5637" max="5637" width="12.5" style="46" customWidth="1"/>
+    <col min="5638" max="5638" width="16.25" style="46" customWidth="1"/>
+    <col min="5639" max="5639" width="6.125" style="46" customWidth="1"/>
+    <col min="5640" max="5640" width="9.375" style="46" customWidth="1"/>
+    <col min="5641" max="5641" width="13.125" style="46" customWidth="1"/>
+    <col min="5642" max="5889" width="9" style="46"/>
+    <col min="5890" max="5890" width="11.375" style="46" customWidth="1"/>
+    <col min="5891" max="5891" width="9.75" style="46" customWidth="1"/>
+    <col min="5892" max="5892" width="8.125" style="46" customWidth="1"/>
+    <col min="5893" max="5893" width="12.5" style="46" customWidth="1"/>
+    <col min="5894" max="5894" width="16.25" style="46" customWidth="1"/>
+    <col min="5895" max="5895" width="6.125" style="46" customWidth="1"/>
+    <col min="5896" max="5896" width="9.375" style="46" customWidth="1"/>
+    <col min="5897" max="5897" width="13.125" style="46" customWidth="1"/>
+    <col min="5898" max="6145" width="9" style="46"/>
+    <col min="6146" max="6146" width="11.375" style="46" customWidth="1"/>
+    <col min="6147" max="6147" width="9.75" style="46" customWidth="1"/>
+    <col min="6148" max="6148" width="8.125" style="46" customWidth="1"/>
+    <col min="6149" max="6149" width="12.5" style="46" customWidth="1"/>
+    <col min="6150" max="6150" width="16.25" style="46" customWidth="1"/>
+    <col min="6151" max="6151" width="6.125" style="46" customWidth="1"/>
+    <col min="6152" max="6152" width="9.375" style="46" customWidth="1"/>
+    <col min="6153" max="6153" width="13.125" style="46" customWidth="1"/>
+    <col min="6154" max="6401" width="9" style="46"/>
+    <col min="6402" max="6402" width="11.375" style="46" customWidth="1"/>
+    <col min="6403" max="6403" width="9.75" style="46" customWidth="1"/>
+    <col min="6404" max="6404" width="8.125" style="46" customWidth="1"/>
+    <col min="6405" max="6405" width="12.5" style="46" customWidth="1"/>
+    <col min="6406" max="6406" width="16.25" style="46" customWidth="1"/>
+    <col min="6407" max="6407" width="6.125" style="46" customWidth="1"/>
+    <col min="6408" max="6408" width="9.375" style="46" customWidth="1"/>
+    <col min="6409" max="6409" width="13.125" style="46" customWidth="1"/>
+    <col min="6410" max="6657" width="9" style="46"/>
+    <col min="6658" max="6658" width="11.375" style="46" customWidth="1"/>
+    <col min="6659" max="6659" width="9.75" style="46" customWidth="1"/>
+    <col min="6660" max="6660" width="8.125" style="46" customWidth="1"/>
+    <col min="6661" max="6661" width="12.5" style="46" customWidth="1"/>
+    <col min="6662" max="6662" width="16.25" style="46" customWidth="1"/>
+    <col min="6663" max="6663" width="6.125" style="46" customWidth="1"/>
+    <col min="6664" max="6664" width="9.375" style="46" customWidth="1"/>
+    <col min="6665" max="6665" width="13.125" style="46" customWidth="1"/>
+    <col min="6666" max="6913" width="9" style="46"/>
+    <col min="6914" max="6914" width="11.375" style="46" customWidth="1"/>
+    <col min="6915" max="6915" width="9.75" style="46" customWidth="1"/>
+    <col min="6916" max="6916" width="8.125" style="46" customWidth="1"/>
+    <col min="6917" max="6917" width="12.5" style="46" customWidth="1"/>
+    <col min="6918" max="6918" width="16.25" style="46" customWidth="1"/>
+    <col min="6919" max="6919" width="6.125" style="46" customWidth="1"/>
+    <col min="6920" max="6920" width="9.375" style="46" customWidth="1"/>
+    <col min="6921" max="6921" width="13.125" style="46" customWidth="1"/>
+    <col min="6922" max="7169" width="9" style="46"/>
+    <col min="7170" max="7170" width="11.375" style="46" customWidth="1"/>
+    <col min="7171" max="7171" width="9.75" style="46" customWidth="1"/>
+    <col min="7172" max="7172" width="8.125" style="46" customWidth="1"/>
+    <col min="7173" max="7173" width="12.5" style="46" customWidth="1"/>
+    <col min="7174" max="7174" width="16.25" style="46" customWidth="1"/>
+    <col min="7175" max="7175" width="6.125" style="46" customWidth="1"/>
+    <col min="7176" max="7176" width="9.375" style="46" customWidth="1"/>
+    <col min="7177" max="7177" width="13.125" style="46" customWidth="1"/>
+    <col min="7178" max="7425" width="9" style="46"/>
+    <col min="7426" max="7426" width="11.375" style="46" customWidth="1"/>
+    <col min="7427" max="7427" width="9.75" style="46" customWidth="1"/>
+    <col min="7428" max="7428" width="8.125" style="46" customWidth="1"/>
+    <col min="7429" max="7429" width="12.5" style="46" customWidth="1"/>
+    <col min="7430" max="7430" width="16.25" style="46" customWidth="1"/>
+    <col min="7431" max="7431" width="6.125" style="46" customWidth="1"/>
+    <col min="7432" max="7432" width="9.375" style="46" customWidth="1"/>
+    <col min="7433" max="7433" width="13.125" style="46" customWidth="1"/>
+    <col min="7434" max="7681" width="9" style="46"/>
+    <col min="7682" max="7682" width="11.375" style="46" customWidth="1"/>
+    <col min="7683" max="7683" width="9.75" style="46" customWidth="1"/>
+    <col min="7684" max="7684" width="8.125" style="46" customWidth="1"/>
+    <col min="7685" max="7685" width="12.5" style="46" customWidth="1"/>
+    <col min="7686" max="7686" width="16.25" style="46" customWidth="1"/>
+    <col min="7687" max="7687" width="6.125" style="46" customWidth="1"/>
+    <col min="7688" max="7688" width="9.375" style="46" customWidth="1"/>
+    <col min="7689" max="7689" width="13.125" style="46" customWidth="1"/>
+    <col min="7690" max="7937" width="9" style="46"/>
+    <col min="7938" max="7938" width="11.375" style="46" customWidth="1"/>
+    <col min="7939" max="7939" width="9.75" style="46" customWidth="1"/>
+    <col min="7940" max="7940" width="8.125" style="46" customWidth="1"/>
+    <col min="7941" max="7941" width="12.5" style="46" customWidth="1"/>
+    <col min="7942" max="7942" width="16.25" style="46" customWidth="1"/>
+    <col min="7943" max="7943" width="6.125" style="46" customWidth="1"/>
+    <col min="7944" max="7944" width="9.375" style="46" customWidth="1"/>
+    <col min="7945" max="7945" width="13.125" style="46" customWidth="1"/>
+    <col min="7946" max="8193" width="9" style="46"/>
+    <col min="8194" max="8194" width="11.375" style="46" customWidth="1"/>
+    <col min="8195" max="8195" width="9.75" style="46" customWidth="1"/>
+    <col min="8196" max="8196" width="8.125" style="46" customWidth="1"/>
+    <col min="8197" max="8197" width="12.5" style="46" customWidth="1"/>
+    <col min="8198" max="8198" width="16.25" style="46" customWidth="1"/>
+    <col min="8199" max="8199" width="6.125" style="46" customWidth="1"/>
+    <col min="8200" max="8200" width="9.375" style="46" customWidth="1"/>
+    <col min="8201" max="8201" width="13.125" style="46" customWidth="1"/>
+    <col min="8202" max="8449" width="9" style="46"/>
+    <col min="8450" max="8450" width="11.375" style="46" customWidth="1"/>
+    <col min="8451" max="8451" width="9.75" style="46" customWidth="1"/>
+    <col min="8452" max="8452" width="8.125" style="46" customWidth="1"/>
+    <col min="8453" max="8453" width="12.5" style="46" customWidth="1"/>
+    <col min="8454" max="8454" width="16.25" style="46" customWidth="1"/>
+    <col min="8455" max="8455" width="6.125" style="46" customWidth="1"/>
+    <col min="8456" max="8456" width="9.375" style="46" customWidth="1"/>
+    <col min="8457" max="8457" width="13.125" style="46" customWidth="1"/>
+    <col min="8458" max="8705" width="9" style="46"/>
+    <col min="8706" max="8706" width="11.375" style="46" customWidth="1"/>
+    <col min="8707" max="8707" width="9.75" style="46" customWidth="1"/>
+    <col min="8708" max="8708" width="8.125" style="46" customWidth="1"/>
+    <col min="8709" max="8709" width="12.5" style="46" customWidth="1"/>
+    <col min="8710" max="8710" width="16.25" style="46" customWidth="1"/>
+    <col min="8711" max="8711" width="6.125" style="46" customWidth="1"/>
+    <col min="8712" max="8712" width="9.375" style="46" customWidth="1"/>
+    <col min="8713" max="8713" width="13.125" style="46" customWidth="1"/>
+    <col min="8714" max="8961" width="9" style="46"/>
+    <col min="8962" max="8962" width="11.375" style="46" customWidth="1"/>
+    <col min="8963" max="8963" width="9.75" style="46" customWidth="1"/>
+    <col min="8964" max="8964" width="8.125" style="46" customWidth="1"/>
+    <col min="8965" max="8965" width="12.5" style="46" customWidth="1"/>
+    <col min="8966" max="8966" width="16.25" style="46" customWidth="1"/>
+    <col min="8967" max="8967" width="6.125" style="46" customWidth="1"/>
+    <col min="8968" max="8968" width="9.375" style="46" customWidth="1"/>
+    <col min="8969" max="8969" width="13.125" style="46" customWidth="1"/>
+    <col min="8970" max="9217" width="9" style="46"/>
+    <col min="9218" max="9218" width="11.375" style="46" customWidth="1"/>
+    <col min="9219" max="9219" width="9.75" style="46" customWidth="1"/>
+    <col min="9220" max="9220" width="8.125" style="46" customWidth="1"/>
+    <col min="9221" max="9221" width="12.5" style="46" customWidth="1"/>
+    <col min="9222" max="9222" width="16.25" style="46" customWidth="1"/>
+    <col min="9223" max="9223" width="6.125" style="46" customWidth="1"/>
+    <col min="9224" max="9224" width="9.375" style="46" customWidth="1"/>
+    <col min="9225" max="9225" width="13.125" style="46" customWidth="1"/>
+    <col min="9226" max="9473" width="9" style="46"/>
+    <col min="9474" max="9474" width="11.375" style="46" customWidth="1"/>
+    <col min="9475" max="9475" width="9.75" style="46" customWidth="1"/>
+    <col min="9476" max="9476" width="8.125" style="46" customWidth="1"/>
+    <col min="9477" max="9477" width="12.5" style="46" customWidth="1"/>
+    <col min="9478" max="9478" width="16.25" style="46" customWidth="1"/>
+    <col min="9479" max="9479" width="6.125" style="46" customWidth="1"/>
+    <col min="9480" max="9480" width="9.375" style="46" customWidth="1"/>
+    <col min="9481" max="9481" width="13.125" style="46" customWidth="1"/>
+    <col min="9482" max="9729" width="9" style="46"/>
+    <col min="9730" max="9730" width="11.375" style="46" customWidth="1"/>
+    <col min="9731" max="9731" width="9.75" style="46" customWidth="1"/>
+    <col min="9732" max="9732" width="8.125" style="46" customWidth="1"/>
+    <col min="9733" max="9733" width="12.5" style="46" customWidth="1"/>
+    <col min="9734" max="9734" width="16.25" style="46" customWidth="1"/>
+    <col min="9735" max="9735" width="6.125" style="46" customWidth="1"/>
+    <col min="9736" max="9736" width="9.375" style="46" customWidth="1"/>
+    <col min="9737" max="9737" width="13.125" style="46" customWidth="1"/>
+    <col min="9738" max="9985" width="9" style="46"/>
+    <col min="9986" max="9986" width="11.375" style="46" customWidth="1"/>
+    <col min="9987" max="9987" width="9.75" style="46" customWidth="1"/>
+    <col min="9988" max="9988" width="8.125" style="46" customWidth="1"/>
+    <col min="9989" max="9989" width="12.5" style="46" customWidth="1"/>
+    <col min="9990" max="9990" width="16.25" style="46" customWidth="1"/>
+    <col min="9991" max="9991" width="6.125" style="46" customWidth="1"/>
+    <col min="9992" max="9992" width="9.375" style="46" customWidth="1"/>
+    <col min="9993" max="9993" width="13.125" style="46" customWidth="1"/>
+    <col min="9994" max="10241" width="9" style="46"/>
+    <col min="10242" max="10242" width="11.375" style="46" customWidth="1"/>
+    <col min="10243" max="10243" width="9.75" style="46" customWidth="1"/>
+    <col min="10244" max="10244" width="8.125" style="46" customWidth="1"/>
+    <col min="10245" max="10245" width="12.5" style="46" customWidth="1"/>
+    <col min="10246" max="10246" width="16.25" style="46" customWidth="1"/>
+    <col min="10247" max="10247" width="6.125" style="46" customWidth="1"/>
+    <col min="10248" max="10248" width="9.375" style="46" customWidth="1"/>
+    <col min="10249" max="10249" width="13.125" style="46" customWidth="1"/>
+    <col min="10250" max="10497" width="9" style="46"/>
+    <col min="10498" max="10498" width="11.375" style="46" customWidth="1"/>
+    <col min="10499" max="10499" width="9.75" style="46" customWidth="1"/>
+    <col min="10500" max="10500" width="8.125" style="46" customWidth="1"/>
+    <col min="10501" max="10501" width="12.5" style="46" customWidth="1"/>
+    <col min="10502" max="10502" width="16.25" style="46" customWidth="1"/>
+    <col min="10503" max="10503" width="6.125" style="46" customWidth="1"/>
+    <col min="10504" max="10504" width="9.375" style="46" customWidth="1"/>
+    <col min="10505" max="10505" width="13.125" style="46" customWidth="1"/>
+    <col min="10506" max="10753" width="9" style="46"/>
+    <col min="10754" max="10754" width="11.375" style="46" customWidth="1"/>
+    <col min="10755" max="10755" width="9.75" style="46" customWidth="1"/>
+    <col min="10756" max="10756" width="8.125" style="46" customWidth="1"/>
+    <col min="10757" max="10757" width="12.5" style="46" customWidth="1"/>
+    <col min="10758" max="10758" width="16.25" style="46" customWidth="1"/>
+    <col min="10759" max="10759" width="6.125" style="46" customWidth="1"/>
+    <col min="10760" max="10760" width="9.375" style="46" customWidth="1"/>
+    <col min="10761" max="10761" width="13.125" style="46" customWidth="1"/>
+    <col min="10762" max="11009" width="9" style="46"/>
+    <col min="11010" max="11010" width="11.375" style="46" customWidth="1"/>
+    <col min="11011" max="11011" width="9.75" style="46" customWidth="1"/>
+    <col min="11012" max="11012" width="8.125" style="46" customWidth="1"/>
+    <col min="11013" max="11013" width="12.5" style="46" customWidth="1"/>
+    <col min="11014" max="11014" width="16.25" style="46" customWidth="1"/>
+    <col min="11015" max="11015" width="6.125" style="46" customWidth="1"/>
+    <col min="11016" max="11016" width="9.375" style="46" customWidth="1"/>
+    <col min="11017" max="11017" width="13.125" style="46" customWidth="1"/>
+    <col min="11018" max="11265" width="9" style="46"/>
+    <col min="11266" max="11266" width="11.375" style="46" customWidth="1"/>
+    <col min="11267" max="11267" width="9.75" style="46" customWidth="1"/>
+    <col min="11268" max="11268" width="8.125" style="46" customWidth="1"/>
+    <col min="11269" max="11269" width="12.5" style="46" customWidth="1"/>
+    <col min="11270" max="11270" width="16.25" style="46" customWidth="1"/>
+    <col min="11271" max="11271" width="6.125" style="46" customWidth="1"/>
+    <col min="11272" max="11272" width="9.375" style="46" customWidth="1"/>
+    <col min="11273" max="11273" width="13.125" style="46" customWidth="1"/>
+    <col min="11274" max="11521" width="9" style="46"/>
+    <col min="11522" max="11522" width="11.375" style="46" customWidth="1"/>
+    <col min="11523" max="11523" width="9.75" style="46" customWidth="1"/>
+    <col min="11524" max="11524" width="8.125" style="46" customWidth="1"/>
+    <col min="11525" max="11525" width="12.5" style="46" customWidth="1"/>
+    <col min="11526" max="11526" width="16.25" style="46" customWidth="1"/>
+    <col min="11527" max="11527" width="6.125" style="46" customWidth="1"/>
+    <col min="11528" max="11528" width="9.375" style="46" customWidth="1"/>
+    <col min="11529" max="11529" width="13.125" style="46" customWidth="1"/>
+    <col min="11530" max="11777" width="9" style="46"/>
+    <col min="11778" max="11778" width="11.375" style="46" customWidth="1"/>
+    <col min="11779" max="11779" width="9.75" style="46" customWidth="1"/>
+    <col min="11780" max="11780" width="8.125" style="46" customWidth="1"/>
+    <col min="11781" max="11781" width="12.5" style="46" customWidth="1"/>
+    <col min="11782" max="11782" width="16.25" style="46" customWidth="1"/>
+    <col min="11783" max="11783" width="6.125" style="46" customWidth="1"/>
+    <col min="11784" max="11784" width="9.375" style="46" customWidth="1"/>
+    <col min="11785" max="11785" width="13.125" style="46" customWidth="1"/>
+    <col min="11786" max="12033" width="9" style="46"/>
+    <col min="12034" max="12034" width="11.375" style="46" customWidth="1"/>
+    <col min="12035" max="12035" width="9.75" style="46" customWidth="1"/>
+    <col min="12036" max="12036" width="8.125" style="46" customWidth="1"/>
+    <col min="12037" max="12037" width="12.5" style="46" customWidth="1"/>
+    <col min="12038" max="12038" width="16.25" style="46" customWidth="1"/>
+    <col min="12039" max="12039" width="6.125" style="46" customWidth="1"/>
+    <col min="12040" max="12040" width="9.375" style="46" customWidth="1"/>
+    <col min="12041" max="12041" width="13.125" style="46" customWidth="1"/>
+    <col min="12042" max="12289" width="9" style="46"/>
+    <col min="12290" max="12290" width="11.375" style="46" customWidth="1"/>
+    <col min="12291" max="12291" width="9.75" style="46" customWidth="1"/>
+    <col min="12292" max="12292" width="8.125" style="46" customWidth="1"/>
+    <col min="12293" max="12293" width="12.5" style="46" customWidth="1"/>
+    <col min="12294" max="12294" width="16.25" style="46" customWidth="1"/>
+    <col min="12295" max="12295" width="6.125" style="46" customWidth="1"/>
+    <col min="12296" max="12296" width="9.375" style="46" customWidth="1"/>
+    <col min="12297" max="12297" width="13.125" style="46" customWidth="1"/>
+    <col min="12298" max="12545" width="9" style="46"/>
+    <col min="12546" max="12546" width="11.375" style="46" customWidth="1"/>
+    <col min="12547" max="12547" width="9.75" style="46" customWidth="1"/>
+    <col min="12548" max="12548" width="8.125" style="46" customWidth="1"/>
+    <col min="12549" max="12549" width="12.5" style="46" customWidth="1"/>
+    <col min="12550" max="12550" width="16.25" style="46" customWidth="1"/>
+    <col min="12551" max="12551" width="6.125" style="46" customWidth="1"/>
+    <col min="12552" max="12552" width="9.375" style="46" customWidth="1"/>
+    <col min="12553" max="12553" width="13.125" style="46" customWidth="1"/>
+    <col min="12554" max="12801" width="9" style="46"/>
+    <col min="12802" max="12802" width="11.375" style="46" customWidth="1"/>
+    <col min="12803" max="12803" width="9.75" style="46" customWidth="1"/>
+    <col min="12804" max="12804" width="8.125" style="46" customWidth="1"/>
+    <col min="12805" max="12805" width="12.5" style="46" customWidth="1"/>
+    <col min="12806" max="12806" width="16.25" style="46" customWidth="1"/>
+    <col min="12807" max="12807" width="6.125" style="46" customWidth="1"/>
+    <col min="12808" max="12808" width="9.375" style="46" customWidth="1"/>
+    <col min="12809" max="12809" width="13.125" style="46" customWidth="1"/>
+    <col min="12810" max="13057" width="9" style="46"/>
+    <col min="13058" max="13058" width="11.375" style="46" customWidth="1"/>
+    <col min="13059" max="13059" width="9.75" style="46" customWidth="1"/>
+    <col min="13060" max="13060" width="8.125" style="46" customWidth="1"/>
+    <col min="13061" max="13061" width="12.5" style="46" customWidth="1"/>
+    <col min="13062" max="13062" width="16.25" style="46" customWidth="1"/>
+    <col min="13063" max="13063" width="6.125" style="46" customWidth="1"/>
+    <col min="13064" max="13064" width="9.375" style="46" customWidth="1"/>
+    <col min="13065" max="13065" width="13.125" style="46" customWidth="1"/>
+    <col min="13066" max="13313" width="9" style="46"/>
+    <col min="13314" max="13314" width="11.375" style="46" customWidth="1"/>
+    <col min="13315" max="13315" width="9.75" style="46" customWidth="1"/>
+    <col min="13316" max="13316" width="8.125" style="46" customWidth="1"/>
+    <col min="13317" max="13317" width="12.5" style="46" customWidth="1"/>
+    <col min="13318" max="13318" width="16.25" style="46" customWidth="1"/>
+    <col min="13319" max="13319" width="6.125" style="46" customWidth="1"/>
+    <col min="13320" max="13320" width="9.375" style="46" customWidth="1"/>
+    <col min="13321" max="13321" width="13.125" style="46" customWidth="1"/>
+    <col min="13322" max="13569" width="9" style="46"/>
+    <col min="13570" max="13570" width="11.375" style="46" customWidth="1"/>
+    <col min="13571" max="13571" width="9.75" style="46" customWidth="1"/>
+    <col min="13572" max="13572" width="8.125" style="46" customWidth="1"/>
+    <col min="13573" max="13573" width="12.5" style="46" customWidth="1"/>
+    <col min="13574" max="13574" width="16.25" style="46" customWidth="1"/>
+    <col min="13575" max="13575" width="6.125" style="46" customWidth="1"/>
+    <col min="13576" max="13576" width="9.375" style="46" customWidth="1"/>
+    <col min="13577" max="13577" width="13.125" style="46" customWidth="1"/>
+    <col min="13578" max="13825" width="9" style="46"/>
+    <col min="13826" max="13826" width="11.375" style="46" customWidth="1"/>
+    <col min="13827" max="13827" width="9.75" style="46" customWidth="1"/>
+    <col min="13828" max="13828" width="8.125" style="46" customWidth="1"/>
+    <col min="13829" max="13829" width="12.5" style="46" customWidth="1"/>
+    <col min="13830" max="13830" width="16.25" style="46" customWidth="1"/>
+    <col min="13831" max="13831" width="6.125" style="46" customWidth="1"/>
+    <col min="13832" max="13832" width="9.375" style="46" customWidth="1"/>
+    <col min="13833" max="13833" width="13.125" style="46" customWidth="1"/>
+    <col min="13834" max="14081" width="9" style="46"/>
+    <col min="14082" max="14082" width="11.375" style="46" customWidth="1"/>
+    <col min="14083" max="14083" width="9.75" style="46" customWidth="1"/>
+    <col min="14084" max="14084" width="8.125" style="46" customWidth="1"/>
+    <col min="14085" max="14085" width="12.5" style="46" customWidth="1"/>
+    <col min="14086" max="14086" width="16.25" style="46" customWidth="1"/>
+    <col min="14087" max="14087" width="6.125" style="46" customWidth="1"/>
+    <col min="14088" max="14088" width="9.375" style="46" customWidth="1"/>
+    <col min="14089" max="14089" width="13.125" style="46" customWidth="1"/>
+    <col min="14090" max="14337" width="9" style="46"/>
+    <col min="14338" max="14338" width="11.375" style="46" customWidth="1"/>
+    <col min="14339" max="14339" width="9.75" style="46" customWidth="1"/>
+    <col min="14340" max="14340" width="8.125" style="46" customWidth="1"/>
+    <col min="14341" max="14341" width="12.5" style="46" customWidth="1"/>
+    <col min="14342" max="14342" width="16.25" style="46" customWidth="1"/>
+    <col min="14343" max="14343" width="6.125" style="46" customWidth="1"/>
+    <col min="14344" max="14344" width="9.375" style="46" customWidth="1"/>
+    <col min="14345" max="14345" width="13.125" style="46" customWidth="1"/>
+    <col min="14346" max="14593" width="9" style="46"/>
+    <col min="14594" max="14594" width="11.375" style="46" customWidth="1"/>
+    <col min="14595" max="14595" width="9.75" style="46" customWidth="1"/>
+    <col min="14596" max="14596" width="8.125" style="46" customWidth="1"/>
+    <col min="14597" max="14597" width="12.5" style="46" customWidth="1"/>
+    <col min="14598" max="14598" width="16.25" style="46" customWidth="1"/>
+    <col min="14599" max="14599" width="6.125" style="46" customWidth="1"/>
+    <col min="14600" max="14600" width="9.375" style="46" customWidth="1"/>
+    <col min="14601" max="14601" width="13.125" style="46" customWidth="1"/>
+    <col min="14602" max="14849" width="9" style="46"/>
+    <col min="14850" max="14850" width="11.375" style="46" customWidth="1"/>
+    <col min="14851" max="14851" width="9.75" style="46" customWidth="1"/>
+    <col min="14852" max="14852" width="8.125" style="46" customWidth="1"/>
+    <col min="14853" max="14853" width="12.5" style="46" customWidth="1"/>
+    <col min="14854" max="14854" width="16.25" style="46" customWidth="1"/>
+    <col min="14855" max="14855" width="6.125" style="46" customWidth="1"/>
+    <col min="14856" max="14856" width="9.375" style="46" customWidth="1"/>
+    <col min="14857" max="14857" width="13.125" style="46" customWidth="1"/>
+    <col min="14858" max="15105" width="9" style="46"/>
+    <col min="15106" max="15106" width="11.375" style="46" customWidth="1"/>
+    <col min="15107" max="15107" width="9.75" style="46" customWidth="1"/>
+    <col min="15108" max="15108" width="8.125" style="46" customWidth="1"/>
+    <col min="15109" max="15109" width="12.5" style="46" customWidth="1"/>
+    <col min="15110" max="15110" width="16.25" style="46" customWidth="1"/>
+    <col min="15111" max="15111" width="6.125" style="46" customWidth="1"/>
+    <col min="15112" max="15112" width="9.375" style="46" customWidth="1"/>
+    <col min="15113" max="15113" width="13.125" style="46" customWidth="1"/>
+    <col min="15114" max="15361" width="9" style="46"/>
+    <col min="15362" max="15362" width="11.375" style="46" customWidth="1"/>
+    <col min="15363" max="15363" width="9.75" style="46" customWidth="1"/>
+    <col min="15364" max="15364" width="8.125" style="46" customWidth="1"/>
+    <col min="15365" max="15365" width="12.5" style="46" customWidth="1"/>
+    <col min="15366" max="15366" width="16.25" style="46" customWidth="1"/>
+    <col min="15367" max="15367" width="6.125" style="46" customWidth="1"/>
+    <col min="15368" max="15368" width="9.375" style="46" customWidth="1"/>
+    <col min="15369" max="15369" width="13.125" style="46" customWidth="1"/>
+    <col min="15370" max="15617" width="9" style="46"/>
+    <col min="15618" max="15618" width="11.375" style="46" customWidth="1"/>
+    <col min="15619" max="15619" width="9.75" style="46" customWidth="1"/>
+    <col min="15620" max="15620" width="8.125" style="46" customWidth="1"/>
+    <col min="15621" max="15621" width="12.5" style="46" customWidth="1"/>
+    <col min="15622" max="15622" width="16.25" style="46" customWidth="1"/>
+    <col min="15623" max="15623" width="6.125" style="46" customWidth="1"/>
+    <col min="15624" max="15624" width="9.375" style="46" customWidth="1"/>
+    <col min="15625" max="15625" width="13.125" style="46" customWidth="1"/>
+    <col min="15626" max="15873" width="9" style="46"/>
+    <col min="15874" max="15874" width="11.375" style="46" customWidth="1"/>
+    <col min="15875" max="15875" width="9.75" style="46" customWidth="1"/>
+    <col min="15876" max="15876" width="8.125" style="46" customWidth="1"/>
+    <col min="15877" max="15877" width="12.5" style="46" customWidth="1"/>
+    <col min="15878" max="15878" width="16.25" style="46" customWidth="1"/>
+    <col min="15879" max="15879" width="6.125" style="46" customWidth="1"/>
+    <col min="15880" max="15880" width="9.375" style="46" customWidth="1"/>
+    <col min="15881" max="15881" width="13.125" style="46" customWidth="1"/>
+    <col min="15882" max="16129" width="9" style="46"/>
+    <col min="16130" max="16130" width="11.375" style="46" customWidth="1"/>
+    <col min="16131" max="16131" width="9.75" style="46" customWidth="1"/>
+    <col min="16132" max="16132" width="8.125" style="46" customWidth="1"/>
+    <col min="16133" max="16133" width="12.5" style="46" customWidth="1"/>
+    <col min="16134" max="16134" width="16.25" style="46" customWidth="1"/>
+    <col min="16135" max="16135" width="6.125" style="46" customWidth="1"/>
+    <col min="16136" max="16136" width="9.375" style="46" customWidth="1"/>
+    <col min="16137" max="16137" width="13.125" style="46" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A1" s="68"/>
-      <c r="B1" s="120" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-    </row>
-    <row r="3" spans="1:12" s="49" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B3" s="48" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+    </row>
+    <row r="3" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B3" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-    </row>
-    <row r="4" spans="1:12" s="49" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B4" s="48" t="s">
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+    </row>
+    <row r="4" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B4" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-    </row>
-    <row r="5" spans="1:12" s="49" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B5" s="48" t="s">
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+    </row>
+    <row r="5" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B5" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="48" t="s">
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-    </row>
-    <row r="9" spans="1:12" s="49" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="115" t="s">
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+    </row>
+    <row r="9" spans="1:12" s="48" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B9" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="107" t="str">
+      <c r="C9" s="108" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="115" t="s">
+      <c r="D9" s="108"/>
+      <c r="E9" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="107" t="str">
+      <c r="F9" s="108" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="116" t="s">
+      <c r="G9" s="108"/>
+      <c r="H9" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="118" t="str">
+      <c r="I9" s="111" t="str">
         <f>記入!B16</f>
         <v>${pd.deliveryfinshdate}</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="49" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="107"/>
-    </row>
-    <row r="11" spans="1:12" s="49" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="119" t="s">
+    <row r="10" spans="1:12" s="48" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="108"/>
+    </row>
+    <row r="11" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1">
+      <c r="B11" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="107" t="str">
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="108" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="L11" s="52"/>
-    </row>
-    <row r="12" spans="1:12" s="49" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="119" t="s">
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="L11" s="51"/>
+    </row>
+    <row r="12" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1">
+      <c r="B12" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="107" t="str">
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="108" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-    </row>
-    <row r="13" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1">
-      <c r="B13" s="53" t="s">
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+    </row>
+    <row r="13" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1">
+      <c r="B13" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="112" t="str">
+      <c r="C13" s="104" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-    </row>
-    <row r="14" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1">
-      <c r="B14" s="64" t="s">
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+    </row>
+    <row r="14" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1">
+      <c r="B14" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="112" t="str">
+      <c r="C14" s="104" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-    </row>
-    <row r="15" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1">
-      <c r="B15" s="65" t="s">
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1">
+      <c r="B15" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="106" t="str">
+      <c r="C15" s="115" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="66" t="s">
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-    </row>
-    <row r="17" spans="2:9" s="58" customFormat="1" ht="15">
-      <c r="B17" s="55" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+    </row>
+    <row r="17" spans="2:9" s="57" customFormat="1" ht="15">
+      <c r="B17" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-    </row>
-    <row r="18" spans="2:9" s="58" customFormat="1" ht="15">
-      <c r="B18" s="59" t="s">
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="2:9" s="57" customFormat="1" ht="15">
+      <c r="B18" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-    </row>
-    <row r="19" spans="2:9" s="58" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B19" s="61" t="s">
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+    </row>
+    <row r="19" spans="2:9" s="57" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B19" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="61" t="s">
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="108" t="s">
+      <c r="G19" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="108"/>
-      <c r="I19" s="61" t="s">
+      <c r="H19" s="116"/>
+      <c r="I19" s="60" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:9" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="109" t="s">
+    <row r="20" spans="2:9" s="57" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B20" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="110" t="str">
+      <c r="C20" s="118" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="111">
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119">
         <v>1</v>
       </c>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104" t="str">
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
-    <row r="21" spans="2:9" s="58" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-    </row>
-    <row r="22" spans="2:9" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-    </row>
-    <row r="23" spans="2:9" s="58" customFormat="1">
-      <c r="B23" s="101" t="s">
+    <row r="21" spans="2:9" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B21" s="117"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+    </row>
+    <row r="22" spans="2:9" s="57" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+    </row>
+    <row r="23" spans="2:9" s="57" customFormat="1">
+      <c r="B23" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="104">
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="113">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="104">
+      <c r="G23" s="113">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104" t="str">
+      <c r="H23" s="113"/>
+      <c r="I23" s="113" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="58" customFormat="1" ht="15" thickBot="1">
-      <c r="B24" s="101"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-    </row>
-    <row r="25" spans="2:9" s="58" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B25" s="105" t="s">
+    <row r="24" spans="2:9" s="57" customFormat="1" ht="15" thickBot="1">
+      <c r="B24" s="121"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+    </row>
+    <row r="25" spans="2:9" s="57" customFormat="1" ht="24" customHeight="1" thickTop="1">
+      <c r="B25" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-    </row>
-    <row r="26" spans="2:9" s="58" customFormat="1">
-      <c r="B26" s="57" t="s">
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+    </row>
+    <row r="26" spans="2:9" s="57" customFormat="1">
+      <c r="B26" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="2:9" s="58" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-    </row>
-    <row r="28" spans="2:9" s="58" customFormat="1">
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="100" t="s">
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+    </row>
+    <row r="27" spans="2:9" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+    </row>
+    <row r="28" spans="2:9" s="57" customFormat="1">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="57"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="100" t="s">
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="50"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="49"/>
     </row>
     <row r="31" spans="2:9">
       <c r="F31" s="14"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
     </row>
     <row r="32" spans="2:9">
       <c r="F32" s="9"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="I20:I22"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:I8"/>
@@ -3783,23 +3800,12 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="30" windowWidth="15900" windowHeight="12435" tabRatio="570"/>
+    <workbookView xWindow="12750" yWindow="30" windowWidth="15900" windowHeight="12435" tabRatio="570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -479,10 +479,6 @@
     <phoneticPr fontId="21"/>
   </si>
   <si>
-    <t>大连市软件园东路23号15号楼4楼</t>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
     <t>TEL/电话</t>
     <phoneticPr fontId="21"/>
   </si>
@@ -689,6 +685,10 @@
   <si>
     <t>${statime[1]}</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中国辽宁省大连市高新技术产业园区黄浦路900号30号楼</t>
+    <phoneticPr fontId="21"/>
   </si>
 </sst>
 </file>
@@ -1381,177 +1381,177 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1862,7 +1862,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -1877,14 +1877,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="D1" s="70" t="s">
+      <c r="B1" s="71"/>
+      <c r="D1" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="71"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="43" t="s">
@@ -1894,34 +1894,34 @@
       <c r="C2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="44" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="43" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="43" t="s">
@@ -1931,47 +1931,47 @@
       <c r="C5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="45" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="75"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="44" t="s">
@@ -1981,99 +1981,99 @@
       <c r="C9" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="43" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
     </row>
     <row r="11" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="43" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="43" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="124" t="s">
-        <v>115</v>
+      <c r="B14" s="69" t="s">
+        <v>114</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="124" t="s">
-        <v>116</v>
+      <c r="B15" s="69" t="s">
+        <v>115</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="125" t="s">
-        <v>110</v>
+      <c r="B16" s="70" t="s">
+        <v>109</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="43" t="s">
@@ -2083,8 +2083,8 @@
       <c r="C17" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="43" t="s">
@@ -2094,34 +2094,34 @@
       <c r="C18" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="43" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="75"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="43" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="43" t="s">
@@ -2131,8 +2131,8 @@
       <c r="C21" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="43" t="s">
@@ -2142,8 +2142,8 @@
       <c r="C22" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
     </row>
     <row r="23" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="44" t="s">
@@ -2153,8 +2153,8 @@
       <c r="C23" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
     </row>
     <row r="24" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="44" t="s">
@@ -2164,34 +2164,34 @@
       <c r="C24" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
     </row>
     <row r="25" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75"/>
     </row>
     <row r="26" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
     </row>
     <row r="27" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="44" t="s">
@@ -2204,21 +2204,21 @@
       <c r="C27" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
     </row>
     <row r="28" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
     </row>
     <row r="29" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="44" t="s">
@@ -2228,8 +2228,8 @@
       <c r="C29" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="73"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
     </row>
     <row r="30" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="44" t="s">
@@ -2239,8 +2239,8 @@
       <c r="C30" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="11"/>
@@ -2349,14 +2349,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="98" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="98"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="30"/>
       <c r="G3" s="27" t="s">
         <v>2</v>
@@ -2372,19 +2372,19 @@
       <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="93" t="str">
+      <c r="G4" s="79" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="95"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
     </row>
@@ -2392,107 +2392,107 @@
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="96" t="str">
+      <c r="G5" s="82" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="97"/>
+      <c r="H5" s="83"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="93" t="str">
+      <c r="G6" s="79" t="str">
         <f>記入!B7</f>
         <v>${pd.responerglish}</v>
       </c>
-      <c r="H6" s="93"/>
+      <c r="H6" s="79"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
     </row>
     <row r="8" spans="1:11" ht="39" customHeight="1">
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="30"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="B9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="30"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
     </row>
     <row r="10" spans="1:11" ht="31.5" customHeight="1">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="87" t="str">
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="98" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2501,15 +2501,15 @@
       <c r="B13" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="85" t="str">
+      <c r="C13" s="96" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="88"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
       <c r="B14" s="33" t="s">
@@ -2528,31 +2528,31 @@
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="88"/>
+      <c r="H14" s="99"/>
     </row>
     <row r="15" spans="1:11" ht="71.25" customHeight="1">
       <c r="B15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="82" t="str">
+      <c r="C15" s="93" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="89"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="100"/>
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="26">
         <f>SUM(H12:H15)</f>
         <v>0</v>
@@ -2577,58 +2577,58 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="24" customHeight="1">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="2:8">
@@ -2727,20 +2727,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:G11"/>
@@ -2753,6 +2739,20 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H12:H15"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2766,8 +2766,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3354,74 +3354,74 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
       <c r="A1" s="67"/>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
     </row>
     <row r="3" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
     </row>
     <row r="4" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="C4" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
     </row>
     <row r="5" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="D5" s="124"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="47" t="s">
+      <c r="G5" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="101" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="102"/>
-      <c r="I5" s="103"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="125"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="49"/>
@@ -3434,50 +3434,50 @@
       <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1">
+      <c r="B8" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-    </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="106" t="s">
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+    </row>
+    <row r="9" spans="1:12" s="48" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B9" s="116" t="s">
         <v>73</v>
-      </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-    </row>
-    <row r="9" spans="1:12" s="48" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="107" t="s">
-        <v>74</v>
       </c>
       <c r="C9" s="108" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
       <c r="D9" s="108"/>
-      <c r="E9" s="107" t="s">
-        <v>75</v>
+      <c r="E9" s="116" t="s">
+        <v>74</v>
       </c>
       <c r="F9" s="108" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
       <c r="G9" s="108"/>
-      <c r="H9" s="109" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="111" t="str">
+      <c r="H9" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="119" t="str">
         <f>記入!B16</f>
         <v>${pd.deliveryfinshdate}</v>
       </c>
@@ -3489,16 +3489,16 @@
       <c r="E10" s="108"/>
       <c r="F10" s="108"/>
       <c r="G10" s="108"/>
-      <c r="H10" s="110"/>
+      <c r="H10" s="118"/>
       <c r="I10" s="108"/>
     </row>
     <row r="11" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
+      <c r="B11" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="108" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
@@ -3509,12 +3509,12 @@
       <c r="L11" s="51"/>
     </row>
     <row r="12" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="112" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
+      <c r="B12" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="108" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
@@ -3525,46 +3525,46 @@
     </row>
     <row r="13" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="104" t="str">
+        <v>78</v>
+      </c>
+      <c r="C13" s="113" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
     </row>
     <row r="14" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="104" t="str">
+        <v>79</v>
+      </c>
+      <c r="C14" s="113" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
     </row>
     <row r="15" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="115" t="str">
+        <v>80</v>
+      </c>
+      <c r="C15" s="107" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
       <c r="F15" s="65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="108"/>
       <c r="H15" s="108"/>
@@ -3582,10 +3582,10 @@
     </row>
     <row r="17" spans="2:9" s="57" customFormat="1" ht="15">
       <c r="B17" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="55" t="s">
         <v>82</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>83</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
@@ -3596,10 +3596,10 @@
     </row>
     <row r="18" spans="2:9" s="57" customFormat="1" ht="15">
       <c r="B18" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="55" t="s">
         <v>84</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>85</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
@@ -3610,110 +3610,110 @@
     </row>
     <row r="19" spans="2:9" s="57" customFormat="1" ht="45.75" customHeight="1">
       <c r="B19" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="60" t="s">
+      <c r="G19" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="116" t="s">
+      <c r="H19" s="109"/>
+      <c r="I19" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="116"/>
-      <c r="I19" s="60" t="s">
+    </row>
+    <row r="20" spans="2:9" s="57" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B20" s="110" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="118" t="str">
+      <c r="C20" s="111" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119">
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112">
         <v>1</v>
       </c>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113" t="str">
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="117"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="2:9" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="2:9" s="57" customFormat="1">
-      <c r="B23" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="113">
+      <c r="B23" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="105">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="113">
+      <c r="G23" s="105">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113" t="str">
+      <c r="H23" s="105"/>
+      <c r="I23" s="105" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="57" customFormat="1" ht="15" thickBot="1">
-      <c r="B24" s="121"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="2:9" s="57" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B25" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
+      <c r="B25" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
     </row>
     <row r="26" spans="2:9" s="57" customFormat="1">
       <c r="B26" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
@@ -3738,11 +3738,11 @@
       <c r="C28" s="59"/>
       <c r="D28" s="56"/>
       <c r="E28" s="59"/>
-      <c r="F28" s="120" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
+      <c r="F28" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
       <c r="I28" s="56"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3750,11 +3750,11 @@
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
       <c r="E29" s="49"/>
-      <c r="F29" s="120" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
+      <c r="F29" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
       <c r="I29" s="49"/>
     </row>
     <row r="31" spans="2:9">
@@ -3769,23 +3769,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:I8"/>
@@ -3800,12 +3789,23 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:H24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
@@ -471,10 +471,6 @@
     <phoneticPr fontId="21"/>
   </si>
   <si>
-    <t xml:space="preserve">Room 401，15#，No.23 Soft Park East Road  ,Dalian,116023,P.R.China </t>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
     <t>地址</t>
     <phoneticPr fontId="21"/>
   </si>
@@ -688,6 +684,10 @@
   </si>
   <si>
     <t>中国辽宁省大连市高新技术产业园区黄浦路900号30号楼</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30# No.900 Huangpu Road, High-tech Industrial Zone，Dalian，P.R.CHINA&lt;116085&gt;</t>
     <phoneticPr fontId="21"/>
   </si>
 </sst>
@@ -1409,9 +1409,57 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1430,53 +1478,68 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1489,69 +1552,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1902,7 +1902,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>46</v>
@@ -1915,7 +1915,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>45</v>
@@ -1939,7 +1939,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>46</v>
@@ -1952,7 +1952,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>46</v>
@@ -1965,7 +1965,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>46</v>
@@ -1989,7 +1989,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>46</v>
@@ -2002,7 +2002,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>45</v>
@@ -2015,7 +2015,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>46</v>
@@ -2028,7 +2028,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>46</v>
@@ -2041,7 +2041,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>46</v>
@@ -2054,7 +2054,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>46</v>
@@ -2067,7 +2067,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>46</v>
@@ -2102,7 +2102,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>45</v>
@@ -2115,7 +2115,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>46</v>
@@ -2169,10 +2169,10 @@
     </row>
     <row r="25" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>46</v>
@@ -2182,10 +2182,10 @@
     </row>
     <row r="26" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>46</v>
@@ -2209,10 +2209,10 @@
     </row>
     <row r="28" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>45</v>
@@ -2349,14 +2349,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="96"/>
+      <c r="D3" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="84"/>
+      <c r="E3" s="100"/>
       <c r="F3" s="30"/>
       <c r="G3" s="27" t="s">
         <v>2</v>
@@ -2372,19 +2372,19 @@
       <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="79" t="str">
+      <c r="G4" s="95" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="81"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
     </row>
@@ -2392,107 +2392,107 @@
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="82" t="str">
+      <c r="G5" s="98" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="83"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="79" t="str">
+      <c r="G6" s="95" t="str">
         <f>記入!B7</f>
         <v>${pd.responerglish}</v>
       </c>
-      <c r="H6" s="79"/>
+      <c r="H6" s="95"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
     </row>
     <row r="8" spans="1:11" ht="39" customHeight="1">
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="30"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="B9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="30"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
     </row>
     <row r="10" spans="1:11" ht="31.5" customHeight="1">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="98" t="str">
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="89" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2501,15 +2501,15 @@
       <c r="B13" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="96" t="str">
+      <c r="C13" s="87" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="99"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
       <c r="B14" s="33" t="s">
@@ -2528,31 +2528,31 @@
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="99"/>
+      <c r="H14" s="90"/>
     </row>
     <row r="15" spans="1:11" ht="71.25" customHeight="1">
       <c r="B15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="93" t="str">
+      <c r="C15" s="84" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="100"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="91"/>
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
       <c r="H16" s="26">
         <f>SUM(H12:H15)</f>
         <v>0</v>
@@ -2577,58 +2577,58 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="24" customHeight="1">
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="2:8">
@@ -2727,6 +2727,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:G11"/>
@@ -2739,20 +2753,6 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H12:H15"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2767,7 +2767,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2780,7 +2780,7 @@
     <col min="6" max="6" width="16.25" style="46" customWidth="1"/>
     <col min="7" max="7" width="6.125" style="46" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="46" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="46" customWidth="1"/>
+    <col min="9" max="9" width="22.875" style="46" customWidth="1"/>
     <col min="10" max="10" width="2.125" style="46" customWidth="1"/>
     <col min="11" max="257" width="9" style="46"/>
     <col min="258" max="258" width="11.375" style="46" customWidth="1"/>
@@ -3354,74 +3354,74 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
       <c r="A1" s="67"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="122" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
+      <c r="C3" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="122" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
+        <v>65</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="D5" s="104"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="47" t="s">
+      <c r="G5" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="123" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="125"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="105"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="49"/>
@@ -3434,141 +3434,141 @@
       <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1">
+      <c r="B8" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-    </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="115" t="s">
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+    </row>
+    <row r="9" spans="1:12" s="48" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B9" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-    </row>
-    <row r="9" spans="1:12" s="48" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="116" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="108" t="str">
+      <c r="C9" s="110" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="108" t="str">
+      <c r="D9" s="110"/>
+      <c r="E9" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="110" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="119" t="str">
+      <c r="G9" s="110"/>
+      <c r="H9" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="113" t="str">
         <f>記入!B16</f>
         <v>${pd.deliveryfinshdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="48" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="108"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="108" t="str">
+      <c r="B11" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="110" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
       <c r="L11" s="51"/>
     </row>
     <row r="12" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="108" t="str">
+      <c r="B12" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="110" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
     </row>
     <row r="13" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="113" t="str">
+        <v>77</v>
+      </c>
+      <c r="C13" s="106" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
     </row>
     <row r="14" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="113" t="str">
+        <v>78</v>
+      </c>
+      <c r="C14" s="106" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
     </row>
     <row r="15" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="107" t="str">
+        <v>79</v>
+      </c>
+      <c r="C15" s="117" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
       <c r="F15" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
+        <v>68</v>
+      </c>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="49"/>
@@ -3582,10 +3582,10 @@
     </row>
     <row r="17" spans="2:9" s="57" customFormat="1" ht="15">
       <c r="B17" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="55" t="s">
         <v>81</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>82</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
@@ -3596,10 +3596,10 @@
     </row>
     <row r="18" spans="2:9" s="57" customFormat="1" ht="15">
       <c r="B18" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="55" t="s">
         <v>83</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>84</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
@@ -3610,110 +3610,110 @@
     </row>
     <row r="19" spans="2:9" s="57" customFormat="1" ht="45.75" customHeight="1">
       <c r="B19" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="60" t="s">
+      <c r="G19" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="109" t="s">
+      <c r="H19" s="118"/>
+      <c r="I19" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="109"/>
-      <c r="I19" s="60" t="s">
+    </row>
+    <row r="20" spans="2:9" s="57" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B20" s="119" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="111" t="str">
+      <c r="C20" s="120" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112">
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121">
         <v>1</v>
       </c>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105" t="str">
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="110"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
     </row>
     <row r="22" spans="2:9" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
     </row>
     <row r="23" spans="2:9" s="57" customFormat="1">
-      <c r="B23" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="105">
+      <c r="B23" s="123" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="115">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="105">
+      <c r="G23" s="115">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105" t="str">
+      <c r="H23" s="115"/>
+      <c r="I23" s="115" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="57" customFormat="1" ht="15" thickBot="1">
-      <c r="B24" s="102"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
     </row>
     <row r="25" spans="2:9" s="57" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B25" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
+      <c r="B25" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
     </row>
     <row r="26" spans="2:9" s="57" customFormat="1">
       <c r="B26" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
@@ -3738,11 +3738,11 @@
       <c r="C28" s="59"/>
       <c r="D28" s="56"/>
       <c r="E28" s="59"/>
-      <c r="F28" s="101" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
+      <c r="F28" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
       <c r="I28" s="56"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3750,11 +3750,11 @@
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
       <c r="E29" s="49"/>
-      <c r="F29" s="101" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
+      <c r="F29" s="122" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
       <c r="I29" s="49"/>
     </row>
     <row r="31" spans="2:9">
@@ -3769,12 +3769,23 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="I20:I22"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:I8"/>
@@ -3789,23 +3800,12 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="12750" yWindow="30" windowWidth="15900" windowHeight="12435" tabRatio="570" activeTab="2"/>
   </bookViews>
@@ -15,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">海外請求書!$A$1:$I$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">税務局へのINVOICE!$A$1:$J$33</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +55,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +80,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="118">
   <si>
     <t>Issued Date：</t>
   </si>
@@ -689,6 +694,10 @@
   <si>
     <t xml:space="preserve"> 30# No.900 Huangpu Road, High-tech Industrial Zone，Dalian，P.R.CHINA&lt;116085&gt;</t>
     <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>${pd.deliveryfinshdate}</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -705,14 +714,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -748,7 +757,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -756,7 +765,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -796,7 +805,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -809,7 +818,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -831,7 +840,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -861,7 +869,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1409,6 +1416,33 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1451,32 +1485,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1493,65 +1557,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1568,12 +1575,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1615,7 +1625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1650,7 +1660,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1863,7 +1873,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2349,14 +2359,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="100" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="100"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="30"/>
       <c r="G3" s="27" t="s">
         <v>2</v>
@@ -2372,19 +2382,19 @@
       <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="95" t="str">
+      <c r="G4" s="79" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="97"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
     </row>
@@ -2392,107 +2402,107 @@
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="98" t="str">
+      <c r="G5" s="82" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="99"/>
+      <c r="H5" s="83"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="95" t="str">
+      <c r="G6" s="79" t="str">
         <f>記入!B7</f>
         <v>${pd.responerglish}</v>
       </c>
-      <c r="H6" s="95"/>
+      <c r="H6" s="79"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
     </row>
     <row r="8" spans="1:11" ht="39" customHeight="1">
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="30"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="B9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="30"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
     </row>
     <row r="10" spans="1:11" ht="31.5" customHeight="1">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="89" t="str">
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="98" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2501,15 +2511,15 @@
       <c r="B13" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="87" t="str">
+      <c r="C13" s="96" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="90"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
       <c r="B14" s="33" t="s">
@@ -2528,31 +2538,31 @@
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="90"/>
+      <c r="H14" s="99"/>
     </row>
     <row r="15" spans="1:11" ht="71.25" customHeight="1">
       <c r="B15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="84" t="str">
+      <c r="C15" s="93" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="91"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="100"/>
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="26">
         <f>SUM(H12:H15)</f>
         <v>0</v>
@@ -2577,58 +2587,58 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="24" customHeight="1">
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="2:8">
@@ -2727,20 +2737,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:G11"/>
@@ -2753,6 +2749,20 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H12:H15"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2767,7 +2777,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="I9" sqref="I9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3354,74 +3364,74 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
       <c r="A1" s="67"/>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
     </row>
     <row r="3" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="121" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
     </row>
     <row r="4" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
     </row>
     <row r="5" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="124"/>
       <c r="F5" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="105"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="49"/>
@@ -3434,141 +3444,140 @@
       <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
     </row>
     <row r="9" spans="1:12" s="48" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="110" t="str">
+      <c r="C9" s="108" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="109" t="s">
+      <c r="D9" s="108"/>
+      <c r="E9" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="110" t="str">
+      <c r="F9" s="108" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="111" t="s">
+      <c r="G9" s="108"/>
+      <c r="H9" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="113" t="str">
-        <f>記入!B16</f>
-        <v>${pd.deliveryfinshdate}</v>
+      <c r="I9" s="125" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="48" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="110"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="108"/>
     </row>
     <row r="11" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="110" t="str">
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="108" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
       <c r="L11" s="51"/>
     </row>
     <row r="12" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="110" t="str">
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="108" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
     </row>
     <row r="13" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="106" t="str">
+      <c r="C13" s="113" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
     </row>
     <row r="14" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="106" t="str">
+      <c r="C14" s="113" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
     </row>
     <row r="15" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="117" t="str">
+      <c r="C15" s="107" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
       <c r="F15" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="49"/>
@@ -3612,101 +3621,101 @@
       <c r="B19" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
       <c r="F19" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="118" t="s">
+      <c r="G19" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="118"/>
+      <c r="H19" s="109"/>
       <c r="I19" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="120" t="str">
+      <c r="C20" s="111" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121">
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112">
         <v>1</v>
       </c>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115" t="str">
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="2:9" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="119"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="2:9" s="57" customFormat="1">
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="115">
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="105">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="115">
+      <c r="G23" s="105">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115" t="str">
+      <c r="H23" s="105"/>
+      <c r="I23" s="105" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="57" customFormat="1" ht="15" thickBot="1">
-      <c r="B24" s="123"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="2:9" s="57" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
@@ -3738,11 +3747,11 @@
       <c r="C28" s="59"/>
       <c r="D28" s="56"/>
       <c r="E28" s="59"/>
-      <c r="F28" s="122" t="s">
+      <c r="F28" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
       <c r="I28" s="56"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3750,11 +3759,11 @@
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
       <c r="E29" s="49"/>
-      <c r="F29" s="122" t="s">
+      <c r="F29" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
       <c r="I29" s="49"/>
     </row>
     <row r="31" spans="2:9">
@@ -3769,23 +3778,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:I8"/>
@@ -3800,12 +3798,23 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:H24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newtouch\Desktop\合同书\99_帳票\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,6 +32,80 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>newtouch</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:area(lastCell="E30")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>newtouch</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:area(lastCell="H33")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>newtouch</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:area(lastCell="j33")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="120">
   <si>
@@ -594,59 +668,57 @@
   </si>
   <si>
     <t>${pd.custoenglish}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>${pd.custochinese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>${pd.placeenglish}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.pjnamejapanese}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.contractnumber}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.claimnumber}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.pjnamechinese}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>${pd.businesscode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.pjnamejapanese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.pjnamechinese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.claimamount}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.placechinese}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.responphone}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.remarks}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>${statime[0]}</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${statime[1]}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.contractnumber}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.claimnumber}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.responphone}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.placechinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.remarks}</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -658,7 +730,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,6 +951,21 @@
       <color theme="1"/>
       <name val="MS Gothic"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1161,7 +1248,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1218,13 +1305,7 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1361,240 +1442,228 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="40" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2019,12 +2088,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2038,367 +2107,367 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="D1" s="76" t="s">
+      <c r="B1" s="77"/>
+      <c r="D1" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="77"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="59"/>
+      <c r="C7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="146" t="s">
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="21" t="s">
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
+    </row>
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="148" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="35" t="s">
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
-    </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="148" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="35" t="s">
+      <c r="D20" s="80"/>
+      <c r="E20" s="81"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1">
+      <c r="A21" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="73"/>
+      <c r="C21" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="35" t="s">
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81"/>
+    </row>
+    <row r="23" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81"/>
+    </row>
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
+    </row>
+    <row r="25" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="35" t="s">
+      <c r="D25" s="80"/>
+      <c r="E25" s="81"/>
+    </row>
+    <row r="26" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="152" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="35" t="s">
+      <c r="D26" s="80"/>
+      <c r="E26" s="81"/>
+    </row>
+    <row r="27" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="152" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="21" t="s">
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
+    </row>
+    <row r="28" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="21" t="s">
+      <c r="D28" s="80"/>
+      <c r="E28" s="81"/>
+    </row>
+    <row r="29" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="147" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
-      <c r="A21" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
-    </row>
-    <row r="23" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-    </row>
-    <row r="24" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-    </row>
-    <row r="25" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-    </row>
-    <row r="26" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-    </row>
-    <row r="27" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
-    </row>
-    <row r="28" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="78"/>
-      <c r="E28" s="79"/>
-    </row>
-    <row r="29" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="81"/>
     </row>
     <row r="30" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="35" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="83"/>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="10"/>
@@ -2450,20 +2519,21 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E30"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:M37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2476,300 +2546,300 @@
     <col min="6" max="6" width="6.25" customWidth="1"/>
     <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="27.5" customWidth="1"/>
-    <col min="9" max="9" width="1.875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="1.875" customWidth="1"/>
     <col min="11" max="11" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="29.25" customHeight="1">
+    <row r="1" spans="1:13" ht="29.25" customHeight="1">
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="84">
+      <c r="H1" s="86">
         <f>記入!B21</f>
         <v>0</v>
       </c>
-      <c r="I1" s="84"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="2:13" ht="24" customHeight="1">
+      <c r="I1" s="86"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" customHeight="1">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="84" t="str">
+      <c r="H2" s="86" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="65"/>
-    </row>
-    <row r="3" spans="2:13" ht="27" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="I2" s="86"/>
+      <c r="J2" s="63"/>
+    </row>
+    <row r="3" spans="1:13" ht="27" customHeight="1">
+      <c r="B3" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="86"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="84" t="str">
+      <c r="H3" s="86" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="26"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="2"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" ht="60" customHeight="1">
-      <c r="B4" s="25" t="s">
+    <row r="4" spans="1:13" ht="60" customHeight="1">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="27" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="83" t="str">
+      <c r="G4" s="85" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="2"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="53.25" customHeight="1">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="1:13" ht="53.25" customHeight="1">
+      <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="83" t="str">
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="85" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-    </row>
-    <row r="6" spans="2:13" ht="36" customHeight="1">
-      <c r="B6" s="25" t="s">
+      <c r="H5" s="85"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+    </row>
+    <row r="6" spans="1:13" ht="36" customHeight="1">
+      <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-    </row>
-    <row r="7" spans="2:13" ht="27" customHeight="1">
-      <c r="B7" s="25" t="s">
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+    </row>
+    <row r="7" spans="1:13" ht="27" customHeight="1">
+      <c r="B7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-    </row>
-    <row r="8" spans="2:13" ht="39" customHeight="1">
-      <c r="B8" s="25" t="s">
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+    </row>
+    <row r="8" spans="1:13" ht="39" customHeight="1">
+      <c r="B8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-    </row>
-    <row r="9" spans="2:13" ht="24" customHeight="1">
-      <c r="B9" s="25" t="s">
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+    </row>
+    <row r="9" spans="1:13" ht="24" customHeight="1">
+      <c r="B9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-    </row>
-    <row r="10" spans="2:13" ht="31.5" customHeight="1">
-      <c r="B10" s="98" t="s">
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+    </row>
+    <row r="10" spans="1:13" ht="31.5" customHeight="1">
+      <c r="B10" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-    </row>
-    <row r="11" spans="2:13" ht="24" customHeight="1">
-      <c r="B11" s="99" t="s">
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+    </row>
+    <row r="11" spans="1:13" ht="24" customHeight="1">
+      <c r="B11" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
       <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="2:13" ht="21" customHeight="1">
-      <c r="B12" s="100" t="s">
+    <row r="12" spans="1:13" ht="21" customHeight="1">
+      <c r="B12" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="68" t="str">
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="66" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="67"/>
-    </row>
-    <row r="13" spans="2:13" ht="22.15" customHeight="1">
-      <c r="B13" s="28" t="s">
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="65"/>
+    </row>
+    <row r="13" spans="1:13" ht="22.15" customHeight="1">
+      <c r="B13" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="85" t="str">
+      <c r="C13" s="87" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="2:13" ht="24.6" customHeight="1">
-      <c r="B14" s="28" t="s">
+    <row r="14" spans="1:13" ht="24.6" customHeight="1">
+      <c r="B14" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="29" t="str">
+      <c r="C14" s="27" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="29" t="str">
+      <c r="E14" s="27" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="2:13" ht="42.6" customHeight="1">
-      <c r="B15" s="28" t="s">
+    <row r="15" spans="1:13" ht="42.6" customHeight="1">
+      <c r="B15" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="103" t="str">
+      <c r="C15" s="105" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="2:13" ht="40.9" customHeight="1">
-      <c r="B16" s="33" t="s">
+    <row r="16" spans="1:13" ht="40.9" customHeight="1">
+      <c r="B16" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="87" t="str">
+      <c r="C16" s="89" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="2:12" ht="19.149999999999999" customHeight="1">
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="69">
-        <f>SUM(H12:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="67"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="67" t="str">
+        <f>記入!B20</f>
+        <v>${pd.claimamount}</v>
+      </c>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="65"/>
     </row>
     <row r="18" spans="2:12" ht="22.5" customHeight="1">
       <c r="B18" s="5"/>
@@ -2794,66 +2864,66 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:12" ht="24" customHeight="1">
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:12" ht="24" customHeight="1">
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
     </row>
     <row r="22" spans="2:12" ht="23.25" customHeight="1">
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
     </row>
     <row r="23" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="2:12" ht="28.5" customHeight="1">
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
@@ -2866,34 +2936,34 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="2:12" ht="14.45" customHeight="1">
       <c r="B26" s="7"/>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96" t="s">
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="H26" s="96"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="3"/>
-      <c r="C27" s="96" t="s">
+      <c r="C27" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -2901,10 +2971,10 @@
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="3"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -2912,10 +2982,10 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="3"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -2923,10 +2993,10 @@
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="3"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -3041,1013 +3111,1014 @@
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:L32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I10"/>
+      <selection activeCell="C9" sqref="C9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="15" style="39" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="39" customWidth="1"/>
-    <col min="4" max="4" width="9" style="39" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="39" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="39" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="39" customWidth="1"/>
-    <col min="9" max="9" width="17" style="39" customWidth="1"/>
-    <col min="10" max="10" width="2.125" style="39" customWidth="1"/>
-    <col min="11" max="257" width="9" style="39"/>
-    <col min="258" max="258" width="11.375" style="39" customWidth="1"/>
-    <col min="259" max="259" width="9.75" style="39" customWidth="1"/>
-    <col min="260" max="260" width="8.125" style="39" customWidth="1"/>
-    <col min="261" max="261" width="12.5" style="39" customWidth="1"/>
-    <col min="262" max="262" width="16.25" style="39" customWidth="1"/>
-    <col min="263" max="263" width="6.125" style="39" customWidth="1"/>
-    <col min="264" max="264" width="9.375" style="39" customWidth="1"/>
-    <col min="265" max="265" width="13.125" style="39" customWidth="1"/>
-    <col min="266" max="513" width="9" style="39"/>
-    <col min="514" max="514" width="11.375" style="39" customWidth="1"/>
-    <col min="515" max="515" width="9.75" style="39" customWidth="1"/>
-    <col min="516" max="516" width="8.125" style="39" customWidth="1"/>
-    <col min="517" max="517" width="12.5" style="39" customWidth="1"/>
-    <col min="518" max="518" width="16.25" style="39" customWidth="1"/>
-    <col min="519" max="519" width="6.125" style="39" customWidth="1"/>
-    <col min="520" max="520" width="9.375" style="39" customWidth="1"/>
-    <col min="521" max="521" width="13.125" style="39" customWidth="1"/>
-    <col min="522" max="769" width="9" style="39"/>
-    <col min="770" max="770" width="11.375" style="39" customWidth="1"/>
-    <col min="771" max="771" width="9.75" style="39" customWidth="1"/>
-    <col min="772" max="772" width="8.125" style="39" customWidth="1"/>
-    <col min="773" max="773" width="12.5" style="39" customWidth="1"/>
-    <col min="774" max="774" width="16.25" style="39" customWidth="1"/>
-    <col min="775" max="775" width="6.125" style="39" customWidth="1"/>
-    <col min="776" max="776" width="9.375" style="39" customWidth="1"/>
-    <col min="777" max="777" width="13.125" style="39" customWidth="1"/>
-    <col min="778" max="1025" width="9" style="39"/>
-    <col min="1026" max="1026" width="11.375" style="39" customWidth="1"/>
-    <col min="1027" max="1027" width="9.75" style="39" customWidth="1"/>
-    <col min="1028" max="1028" width="8.125" style="39" customWidth="1"/>
-    <col min="1029" max="1029" width="12.5" style="39" customWidth="1"/>
-    <col min="1030" max="1030" width="16.25" style="39" customWidth="1"/>
-    <col min="1031" max="1031" width="6.125" style="39" customWidth="1"/>
-    <col min="1032" max="1032" width="9.375" style="39" customWidth="1"/>
-    <col min="1033" max="1033" width="13.125" style="39" customWidth="1"/>
-    <col min="1034" max="1281" width="9" style="39"/>
-    <col min="1282" max="1282" width="11.375" style="39" customWidth="1"/>
-    <col min="1283" max="1283" width="9.75" style="39" customWidth="1"/>
-    <col min="1284" max="1284" width="8.125" style="39" customWidth="1"/>
-    <col min="1285" max="1285" width="12.5" style="39" customWidth="1"/>
-    <col min="1286" max="1286" width="16.25" style="39" customWidth="1"/>
-    <col min="1287" max="1287" width="6.125" style="39" customWidth="1"/>
-    <col min="1288" max="1288" width="9.375" style="39" customWidth="1"/>
-    <col min="1289" max="1289" width="13.125" style="39" customWidth="1"/>
-    <col min="1290" max="1537" width="9" style="39"/>
-    <col min="1538" max="1538" width="11.375" style="39" customWidth="1"/>
-    <col min="1539" max="1539" width="9.75" style="39" customWidth="1"/>
-    <col min="1540" max="1540" width="8.125" style="39" customWidth="1"/>
-    <col min="1541" max="1541" width="12.5" style="39" customWidth="1"/>
-    <col min="1542" max="1542" width="16.25" style="39" customWidth="1"/>
-    <col min="1543" max="1543" width="6.125" style="39" customWidth="1"/>
-    <col min="1544" max="1544" width="9.375" style="39" customWidth="1"/>
-    <col min="1545" max="1545" width="13.125" style="39" customWidth="1"/>
-    <col min="1546" max="1793" width="9" style="39"/>
-    <col min="1794" max="1794" width="11.375" style="39" customWidth="1"/>
-    <col min="1795" max="1795" width="9.75" style="39" customWidth="1"/>
-    <col min="1796" max="1796" width="8.125" style="39" customWidth="1"/>
-    <col min="1797" max="1797" width="12.5" style="39" customWidth="1"/>
-    <col min="1798" max="1798" width="16.25" style="39" customWidth="1"/>
-    <col min="1799" max="1799" width="6.125" style="39" customWidth="1"/>
-    <col min="1800" max="1800" width="9.375" style="39" customWidth="1"/>
-    <col min="1801" max="1801" width="13.125" style="39" customWidth="1"/>
-    <col min="1802" max="2049" width="9" style="39"/>
-    <col min="2050" max="2050" width="11.375" style="39" customWidth="1"/>
-    <col min="2051" max="2051" width="9.75" style="39" customWidth="1"/>
-    <col min="2052" max="2052" width="8.125" style="39" customWidth="1"/>
-    <col min="2053" max="2053" width="12.5" style="39" customWidth="1"/>
-    <col min="2054" max="2054" width="16.25" style="39" customWidth="1"/>
-    <col min="2055" max="2055" width="6.125" style="39" customWidth="1"/>
-    <col min="2056" max="2056" width="9.375" style="39" customWidth="1"/>
-    <col min="2057" max="2057" width="13.125" style="39" customWidth="1"/>
-    <col min="2058" max="2305" width="9" style="39"/>
-    <col min="2306" max="2306" width="11.375" style="39" customWidth="1"/>
-    <col min="2307" max="2307" width="9.75" style="39" customWidth="1"/>
-    <col min="2308" max="2308" width="8.125" style="39" customWidth="1"/>
-    <col min="2309" max="2309" width="12.5" style="39" customWidth="1"/>
-    <col min="2310" max="2310" width="16.25" style="39" customWidth="1"/>
-    <col min="2311" max="2311" width="6.125" style="39" customWidth="1"/>
-    <col min="2312" max="2312" width="9.375" style="39" customWidth="1"/>
-    <col min="2313" max="2313" width="13.125" style="39" customWidth="1"/>
-    <col min="2314" max="2561" width="9" style="39"/>
-    <col min="2562" max="2562" width="11.375" style="39" customWidth="1"/>
-    <col min="2563" max="2563" width="9.75" style="39" customWidth="1"/>
-    <col min="2564" max="2564" width="8.125" style="39" customWidth="1"/>
-    <col min="2565" max="2565" width="12.5" style="39" customWidth="1"/>
-    <col min="2566" max="2566" width="16.25" style="39" customWidth="1"/>
-    <col min="2567" max="2567" width="6.125" style="39" customWidth="1"/>
-    <col min="2568" max="2568" width="9.375" style="39" customWidth="1"/>
-    <col min="2569" max="2569" width="13.125" style="39" customWidth="1"/>
-    <col min="2570" max="2817" width="9" style="39"/>
-    <col min="2818" max="2818" width="11.375" style="39" customWidth="1"/>
-    <col min="2819" max="2819" width="9.75" style="39" customWidth="1"/>
-    <col min="2820" max="2820" width="8.125" style="39" customWidth="1"/>
-    <col min="2821" max="2821" width="12.5" style="39" customWidth="1"/>
-    <col min="2822" max="2822" width="16.25" style="39" customWidth="1"/>
-    <col min="2823" max="2823" width="6.125" style="39" customWidth="1"/>
-    <col min="2824" max="2824" width="9.375" style="39" customWidth="1"/>
-    <col min="2825" max="2825" width="13.125" style="39" customWidth="1"/>
-    <col min="2826" max="3073" width="9" style="39"/>
-    <col min="3074" max="3074" width="11.375" style="39" customWidth="1"/>
-    <col min="3075" max="3075" width="9.75" style="39" customWidth="1"/>
-    <col min="3076" max="3076" width="8.125" style="39" customWidth="1"/>
-    <col min="3077" max="3077" width="12.5" style="39" customWidth="1"/>
-    <col min="3078" max="3078" width="16.25" style="39" customWidth="1"/>
-    <col min="3079" max="3079" width="6.125" style="39" customWidth="1"/>
-    <col min="3080" max="3080" width="9.375" style="39" customWidth="1"/>
-    <col min="3081" max="3081" width="13.125" style="39" customWidth="1"/>
-    <col min="3082" max="3329" width="9" style="39"/>
-    <col min="3330" max="3330" width="11.375" style="39" customWidth="1"/>
-    <col min="3331" max="3331" width="9.75" style="39" customWidth="1"/>
-    <col min="3332" max="3332" width="8.125" style="39" customWidth="1"/>
-    <col min="3333" max="3333" width="12.5" style="39" customWidth="1"/>
-    <col min="3334" max="3334" width="16.25" style="39" customWidth="1"/>
-    <col min="3335" max="3335" width="6.125" style="39" customWidth="1"/>
-    <col min="3336" max="3336" width="9.375" style="39" customWidth="1"/>
-    <col min="3337" max="3337" width="13.125" style="39" customWidth="1"/>
-    <col min="3338" max="3585" width="9" style="39"/>
-    <col min="3586" max="3586" width="11.375" style="39" customWidth="1"/>
-    <col min="3587" max="3587" width="9.75" style="39" customWidth="1"/>
-    <col min="3588" max="3588" width="8.125" style="39" customWidth="1"/>
-    <col min="3589" max="3589" width="12.5" style="39" customWidth="1"/>
-    <col min="3590" max="3590" width="16.25" style="39" customWidth="1"/>
-    <col min="3591" max="3591" width="6.125" style="39" customWidth="1"/>
-    <col min="3592" max="3592" width="9.375" style="39" customWidth="1"/>
-    <col min="3593" max="3593" width="13.125" style="39" customWidth="1"/>
-    <col min="3594" max="3841" width="9" style="39"/>
-    <col min="3842" max="3842" width="11.375" style="39" customWidth="1"/>
-    <col min="3843" max="3843" width="9.75" style="39" customWidth="1"/>
-    <col min="3844" max="3844" width="8.125" style="39" customWidth="1"/>
-    <col min="3845" max="3845" width="12.5" style="39" customWidth="1"/>
-    <col min="3846" max="3846" width="16.25" style="39" customWidth="1"/>
-    <col min="3847" max="3847" width="6.125" style="39" customWidth="1"/>
-    <col min="3848" max="3848" width="9.375" style="39" customWidth="1"/>
-    <col min="3849" max="3849" width="13.125" style="39" customWidth="1"/>
-    <col min="3850" max="4097" width="9" style="39"/>
-    <col min="4098" max="4098" width="11.375" style="39" customWidth="1"/>
-    <col min="4099" max="4099" width="9.75" style="39" customWidth="1"/>
-    <col min="4100" max="4100" width="8.125" style="39" customWidth="1"/>
-    <col min="4101" max="4101" width="12.5" style="39" customWidth="1"/>
-    <col min="4102" max="4102" width="16.25" style="39" customWidth="1"/>
-    <col min="4103" max="4103" width="6.125" style="39" customWidth="1"/>
-    <col min="4104" max="4104" width="9.375" style="39" customWidth="1"/>
-    <col min="4105" max="4105" width="13.125" style="39" customWidth="1"/>
-    <col min="4106" max="4353" width="9" style="39"/>
-    <col min="4354" max="4354" width="11.375" style="39" customWidth="1"/>
-    <col min="4355" max="4355" width="9.75" style="39" customWidth="1"/>
-    <col min="4356" max="4356" width="8.125" style="39" customWidth="1"/>
-    <col min="4357" max="4357" width="12.5" style="39" customWidth="1"/>
-    <col min="4358" max="4358" width="16.25" style="39" customWidth="1"/>
-    <col min="4359" max="4359" width="6.125" style="39" customWidth="1"/>
-    <col min="4360" max="4360" width="9.375" style="39" customWidth="1"/>
-    <col min="4361" max="4361" width="13.125" style="39" customWidth="1"/>
-    <col min="4362" max="4609" width="9" style="39"/>
-    <col min="4610" max="4610" width="11.375" style="39" customWidth="1"/>
-    <col min="4611" max="4611" width="9.75" style="39" customWidth="1"/>
-    <col min="4612" max="4612" width="8.125" style="39" customWidth="1"/>
-    <col min="4613" max="4613" width="12.5" style="39" customWidth="1"/>
-    <col min="4614" max="4614" width="16.25" style="39" customWidth="1"/>
-    <col min="4615" max="4615" width="6.125" style="39" customWidth="1"/>
-    <col min="4616" max="4616" width="9.375" style="39" customWidth="1"/>
-    <col min="4617" max="4617" width="13.125" style="39" customWidth="1"/>
-    <col min="4618" max="4865" width="9" style="39"/>
-    <col min="4866" max="4866" width="11.375" style="39" customWidth="1"/>
-    <col min="4867" max="4867" width="9.75" style="39" customWidth="1"/>
-    <col min="4868" max="4868" width="8.125" style="39" customWidth="1"/>
-    <col min="4869" max="4869" width="12.5" style="39" customWidth="1"/>
-    <col min="4870" max="4870" width="16.25" style="39" customWidth="1"/>
-    <col min="4871" max="4871" width="6.125" style="39" customWidth="1"/>
-    <col min="4872" max="4872" width="9.375" style="39" customWidth="1"/>
-    <col min="4873" max="4873" width="13.125" style="39" customWidth="1"/>
-    <col min="4874" max="5121" width="9" style="39"/>
-    <col min="5122" max="5122" width="11.375" style="39" customWidth="1"/>
-    <col min="5123" max="5123" width="9.75" style="39" customWidth="1"/>
-    <col min="5124" max="5124" width="8.125" style="39" customWidth="1"/>
-    <col min="5125" max="5125" width="12.5" style="39" customWidth="1"/>
-    <col min="5126" max="5126" width="16.25" style="39" customWidth="1"/>
-    <col min="5127" max="5127" width="6.125" style="39" customWidth="1"/>
-    <col min="5128" max="5128" width="9.375" style="39" customWidth="1"/>
-    <col min="5129" max="5129" width="13.125" style="39" customWidth="1"/>
-    <col min="5130" max="5377" width="9" style="39"/>
-    <col min="5378" max="5378" width="11.375" style="39" customWidth="1"/>
-    <col min="5379" max="5379" width="9.75" style="39" customWidth="1"/>
-    <col min="5380" max="5380" width="8.125" style="39" customWidth="1"/>
-    <col min="5381" max="5381" width="12.5" style="39" customWidth="1"/>
-    <col min="5382" max="5382" width="16.25" style="39" customWidth="1"/>
-    <col min="5383" max="5383" width="6.125" style="39" customWidth="1"/>
-    <col min="5384" max="5384" width="9.375" style="39" customWidth="1"/>
-    <col min="5385" max="5385" width="13.125" style="39" customWidth="1"/>
-    <col min="5386" max="5633" width="9" style="39"/>
-    <col min="5634" max="5634" width="11.375" style="39" customWidth="1"/>
-    <col min="5635" max="5635" width="9.75" style="39" customWidth="1"/>
-    <col min="5636" max="5636" width="8.125" style="39" customWidth="1"/>
-    <col min="5637" max="5637" width="12.5" style="39" customWidth="1"/>
-    <col min="5638" max="5638" width="16.25" style="39" customWidth="1"/>
-    <col min="5639" max="5639" width="6.125" style="39" customWidth="1"/>
-    <col min="5640" max="5640" width="9.375" style="39" customWidth="1"/>
-    <col min="5641" max="5641" width="13.125" style="39" customWidth="1"/>
-    <col min="5642" max="5889" width="9" style="39"/>
-    <col min="5890" max="5890" width="11.375" style="39" customWidth="1"/>
-    <col min="5891" max="5891" width="9.75" style="39" customWidth="1"/>
-    <col min="5892" max="5892" width="8.125" style="39" customWidth="1"/>
-    <col min="5893" max="5893" width="12.5" style="39" customWidth="1"/>
-    <col min="5894" max="5894" width="16.25" style="39" customWidth="1"/>
-    <col min="5895" max="5895" width="6.125" style="39" customWidth="1"/>
-    <col min="5896" max="5896" width="9.375" style="39" customWidth="1"/>
-    <col min="5897" max="5897" width="13.125" style="39" customWidth="1"/>
-    <col min="5898" max="6145" width="9" style="39"/>
-    <col min="6146" max="6146" width="11.375" style="39" customWidth="1"/>
-    <col min="6147" max="6147" width="9.75" style="39" customWidth="1"/>
-    <col min="6148" max="6148" width="8.125" style="39" customWidth="1"/>
-    <col min="6149" max="6149" width="12.5" style="39" customWidth="1"/>
-    <col min="6150" max="6150" width="16.25" style="39" customWidth="1"/>
-    <col min="6151" max="6151" width="6.125" style="39" customWidth="1"/>
-    <col min="6152" max="6152" width="9.375" style="39" customWidth="1"/>
-    <col min="6153" max="6153" width="13.125" style="39" customWidth="1"/>
-    <col min="6154" max="6401" width="9" style="39"/>
-    <col min="6402" max="6402" width="11.375" style="39" customWidth="1"/>
-    <col min="6403" max="6403" width="9.75" style="39" customWidth="1"/>
-    <col min="6404" max="6404" width="8.125" style="39" customWidth="1"/>
-    <col min="6405" max="6405" width="12.5" style="39" customWidth="1"/>
-    <col min="6406" max="6406" width="16.25" style="39" customWidth="1"/>
-    <col min="6407" max="6407" width="6.125" style="39" customWidth="1"/>
-    <col min="6408" max="6408" width="9.375" style="39" customWidth="1"/>
-    <col min="6409" max="6409" width="13.125" style="39" customWidth="1"/>
-    <col min="6410" max="6657" width="9" style="39"/>
-    <col min="6658" max="6658" width="11.375" style="39" customWidth="1"/>
-    <col min="6659" max="6659" width="9.75" style="39" customWidth="1"/>
-    <col min="6660" max="6660" width="8.125" style="39" customWidth="1"/>
-    <col min="6661" max="6661" width="12.5" style="39" customWidth="1"/>
-    <col min="6662" max="6662" width="16.25" style="39" customWidth="1"/>
-    <col min="6663" max="6663" width="6.125" style="39" customWidth="1"/>
-    <col min="6664" max="6664" width="9.375" style="39" customWidth="1"/>
-    <col min="6665" max="6665" width="13.125" style="39" customWidth="1"/>
-    <col min="6666" max="6913" width="9" style="39"/>
-    <col min="6914" max="6914" width="11.375" style="39" customWidth="1"/>
-    <col min="6915" max="6915" width="9.75" style="39" customWidth="1"/>
-    <col min="6916" max="6916" width="8.125" style="39" customWidth="1"/>
-    <col min="6917" max="6917" width="12.5" style="39" customWidth="1"/>
-    <col min="6918" max="6918" width="16.25" style="39" customWidth="1"/>
-    <col min="6919" max="6919" width="6.125" style="39" customWidth="1"/>
-    <col min="6920" max="6920" width="9.375" style="39" customWidth="1"/>
-    <col min="6921" max="6921" width="13.125" style="39" customWidth="1"/>
-    <col min="6922" max="7169" width="9" style="39"/>
-    <col min="7170" max="7170" width="11.375" style="39" customWidth="1"/>
-    <col min="7171" max="7171" width="9.75" style="39" customWidth="1"/>
-    <col min="7172" max="7172" width="8.125" style="39" customWidth="1"/>
-    <col min="7173" max="7173" width="12.5" style="39" customWidth="1"/>
-    <col min="7174" max="7174" width="16.25" style="39" customWidth="1"/>
-    <col min="7175" max="7175" width="6.125" style="39" customWidth="1"/>
-    <col min="7176" max="7176" width="9.375" style="39" customWidth="1"/>
-    <col min="7177" max="7177" width="13.125" style="39" customWidth="1"/>
-    <col min="7178" max="7425" width="9" style="39"/>
-    <col min="7426" max="7426" width="11.375" style="39" customWidth="1"/>
-    <col min="7427" max="7427" width="9.75" style="39" customWidth="1"/>
-    <col min="7428" max="7428" width="8.125" style="39" customWidth="1"/>
-    <col min="7429" max="7429" width="12.5" style="39" customWidth="1"/>
-    <col min="7430" max="7430" width="16.25" style="39" customWidth="1"/>
-    <col min="7431" max="7431" width="6.125" style="39" customWidth="1"/>
-    <col min="7432" max="7432" width="9.375" style="39" customWidth="1"/>
-    <col min="7433" max="7433" width="13.125" style="39" customWidth="1"/>
-    <col min="7434" max="7681" width="9" style="39"/>
-    <col min="7682" max="7682" width="11.375" style="39" customWidth="1"/>
-    <col min="7683" max="7683" width="9.75" style="39" customWidth="1"/>
-    <col min="7684" max="7684" width="8.125" style="39" customWidth="1"/>
-    <col min="7685" max="7685" width="12.5" style="39" customWidth="1"/>
-    <col min="7686" max="7686" width="16.25" style="39" customWidth="1"/>
-    <col min="7687" max="7687" width="6.125" style="39" customWidth="1"/>
-    <col min="7688" max="7688" width="9.375" style="39" customWidth="1"/>
-    <col min="7689" max="7689" width="13.125" style="39" customWidth="1"/>
-    <col min="7690" max="7937" width="9" style="39"/>
-    <col min="7938" max="7938" width="11.375" style="39" customWidth="1"/>
-    <col min="7939" max="7939" width="9.75" style="39" customWidth="1"/>
-    <col min="7940" max="7940" width="8.125" style="39" customWidth="1"/>
-    <col min="7941" max="7941" width="12.5" style="39" customWidth="1"/>
-    <col min="7942" max="7942" width="16.25" style="39" customWidth="1"/>
-    <col min="7943" max="7943" width="6.125" style="39" customWidth="1"/>
-    <col min="7944" max="7944" width="9.375" style="39" customWidth="1"/>
-    <col min="7945" max="7945" width="13.125" style="39" customWidth="1"/>
-    <col min="7946" max="8193" width="9" style="39"/>
-    <col min="8194" max="8194" width="11.375" style="39" customWidth="1"/>
-    <col min="8195" max="8195" width="9.75" style="39" customWidth="1"/>
-    <col min="8196" max="8196" width="8.125" style="39" customWidth="1"/>
-    <col min="8197" max="8197" width="12.5" style="39" customWidth="1"/>
-    <col min="8198" max="8198" width="16.25" style="39" customWidth="1"/>
-    <col min="8199" max="8199" width="6.125" style="39" customWidth="1"/>
-    <col min="8200" max="8200" width="9.375" style="39" customWidth="1"/>
-    <col min="8201" max="8201" width="13.125" style="39" customWidth="1"/>
-    <col min="8202" max="8449" width="9" style="39"/>
-    <col min="8450" max="8450" width="11.375" style="39" customWidth="1"/>
-    <col min="8451" max="8451" width="9.75" style="39" customWidth="1"/>
-    <col min="8452" max="8452" width="8.125" style="39" customWidth="1"/>
-    <col min="8453" max="8453" width="12.5" style="39" customWidth="1"/>
-    <col min="8454" max="8454" width="16.25" style="39" customWidth="1"/>
-    <col min="8455" max="8455" width="6.125" style="39" customWidth="1"/>
-    <col min="8456" max="8456" width="9.375" style="39" customWidth="1"/>
-    <col min="8457" max="8457" width="13.125" style="39" customWidth="1"/>
-    <col min="8458" max="8705" width="9" style="39"/>
-    <col min="8706" max="8706" width="11.375" style="39" customWidth="1"/>
-    <col min="8707" max="8707" width="9.75" style="39" customWidth="1"/>
-    <col min="8708" max="8708" width="8.125" style="39" customWidth="1"/>
-    <col min="8709" max="8709" width="12.5" style="39" customWidth="1"/>
-    <col min="8710" max="8710" width="16.25" style="39" customWidth="1"/>
-    <col min="8711" max="8711" width="6.125" style="39" customWidth="1"/>
-    <col min="8712" max="8712" width="9.375" style="39" customWidth="1"/>
-    <col min="8713" max="8713" width="13.125" style="39" customWidth="1"/>
-    <col min="8714" max="8961" width="9" style="39"/>
-    <col min="8962" max="8962" width="11.375" style="39" customWidth="1"/>
-    <col min="8963" max="8963" width="9.75" style="39" customWidth="1"/>
-    <col min="8964" max="8964" width="8.125" style="39" customWidth="1"/>
-    <col min="8965" max="8965" width="12.5" style="39" customWidth="1"/>
-    <col min="8966" max="8966" width="16.25" style="39" customWidth="1"/>
-    <col min="8967" max="8967" width="6.125" style="39" customWidth="1"/>
-    <col min="8968" max="8968" width="9.375" style="39" customWidth="1"/>
-    <col min="8969" max="8969" width="13.125" style="39" customWidth="1"/>
-    <col min="8970" max="9217" width="9" style="39"/>
-    <col min="9218" max="9218" width="11.375" style="39" customWidth="1"/>
-    <col min="9219" max="9219" width="9.75" style="39" customWidth="1"/>
-    <col min="9220" max="9220" width="8.125" style="39" customWidth="1"/>
-    <col min="9221" max="9221" width="12.5" style="39" customWidth="1"/>
-    <col min="9222" max="9222" width="16.25" style="39" customWidth="1"/>
-    <col min="9223" max="9223" width="6.125" style="39" customWidth="1"/>
-    <col min="9224" max="9224" width="9.375" style="39" customWidth="1"/>
-    <col min="9225" max="9225" width="13.125" style="39" customWidth="1"/>
-    <col min="9226" max="9473" width="9" style="39"/>
-    <col min="9474" max="9474" width="11.375" style="39" customWidth="1"/>
-    <col min="9475" max="9475" width="9.75" style="39" customWidth="1"/>
-    <col min="9476" max="9476" width="8.125" style="39" customWidth="1"/>
-    <col min="9477" max="9477" width="12.5" style="39" customWidth="1"/>
-    <col min="9478" max="9478" width="16.25" style="39" customWidth="1"/>
-    <col min="9479" max="9479" width="6.125" style="39" customWidth="1"/>
-    <col min="9480" max="9480" width="9.375" style="39" customWidth="1"/>
-    <col min="9481" max="9481" width="13.125" style="39" customWidth="1"/>
-    <col min="9482" max="9729" width="9" style="39"/>
-    <col min="9730" max="9730" width="11.375" style="39" customWidth="1"/>
-    <col min="9731" max="9731" width="9.75" style="39" customWidth="1"/>
-    <col min="9732" max="9732" width="8.125" style="39" customWidth="1"/>
-    <col min="9733" max="9733" width="12.5" style="39" customWidth="1"/>
-    <col min="9734" max="9734" width="16.25" style="39" customWidth="1"/>
-    <col min="9735" max="9735" width="6.125" style="39" customWidth="1"/>
-    <col min="9736" max="9736" width="9.375" style="39" customWidth="1"/>
-    <col min="9737" max="9737" width="13.125" style="39" customWidth="1"/>
-    <col min="9738" max="9985" width="9" style="39"/>
-    <col min="9986" max="9986" width="11.375" style="39" customWidth="1"/>
-    <col min="9987" max="9987" width="9.75" style="39" customWidth="1"/>
-    <col min="9988" max="9988" width="8.125" style="39" customWidth="1"/>
-    <col min="9989" max="9989" width="12.5" style="39" customWidth="1"/>
-    <col min="9990" max="9990" width="16.25" style="39" customWidth="1"/>
-    <col min="9991" max="9991" width="6.125" style="39" customWidth="1"/>
-    <col min="9992" max="9992" width="9.375" style="39" customWidth="1"/>
-    <col min="9993" max="9993" width="13.125" style="39" customWidth="1"/>
-    <col min="9994" max="10241" width="9" style="39"/>
-    <col min="10242" max="10242" width="11.375" style="39" customWidth="1"/>
-    <col min="10243" max="10243" width="9.75" style="39" customWidth="1"/>
-    <col min="10244" max="10244" width="8.125" style="39" customWidth="1"/>
-    <col min="10245" max="10245" width="12.5" style="39" customWidth="1"/>
-    <col min="10246" max="10246" width="16.25" style="39" customWidth="1"/>
-    <col min="10247" max="10247" width="6.125" style="39" customWidth="1"/>
-    <col min="10248" max="10248" width="9.375" style="39" customWidth="1"/>
-    <col min="10249" max="10249" width="13.125" style="39" customWidth="1"/>
-    <col min="10250" max="10497" width="9" style="39"/>
-    <col min="10498" max="10498" width="11.375" style="39" customWidth="1"/>
-    <col min="10499" max="10499" width="9.75" style="39" customWidth="1"/>
-    <col min="10500" max="10500" width="8.125" style="39" customWidth="1"/>
-    <col min="10501" max="10501" width="12.5" style="39" customWidth="1"/>
-    <col min="10502" max="10502" width="16.25" style="39" customWidth="1"/>
-    <col min="10503" max="10503" width="6.125" style="39" customWidth="1"/>
-    <col min="10504" max="10504" width="9.375" style="39" customWidth="1"/>
-    <col min="10505" max="10505" width="13.125" style="39" customWidth="1"/>
-    <col min="10506" max="10753" width="9" style="39"/>
-    <col min="10754" max="10754" width="11.375" style="39" customWidth="1"/>
-    <col min="10755" max="10755" width="9.75" style="39" customWidth="1"/>
-    <col min="10756" max="10756" width="8.125" style="39" customWidth="1"/>
-    <col min="10757" max="10757" width="12.5" style="39" customWidth="1"/>
-    <col min="10758" max="10758" width="16.25" style="39" customWidth="1"/>
-    <col min="10759" max="10759" width="6.125" style="39" customWidth="1"/>
-    <col min="10760" max="10760" width="9.375" style="39" customWidth="1"/>
-    <col min="10761" max="10761" width="13.125" style="39" customWidth="1"/>
-    <col min="10762" max="11009" width="9" style="39"/>
-    <col min="11010" max="11010" width="11.375" style="39" customWidth="1"/>
-    <col min="11011" max="11011" width="9.75" style="39" customWidth="1"/>
-    <col min="11012" max="11012" width="8.125" style="39" customWidth="1"/>
-    <col min="11013" max="11013" width="12.5" style="39" customWidth="1"/>
-    <col min="11014" max="11014" width="16.25" style="39" customWidth="1"/>
-    <col min="11015" max="11015" width="6.125" style="39" customWidth="1"/>
-    <col min="11016" max="11016" width="9.375" style="39" customWidth="1"/>
-    <col min="11017" max="11017" width="13.125" style="39" customWidth="1"/>
-    <col min="11018" max="11265" width="9" style="39"/>
-    <col min="11266" max="11266" width="11.375" style="39" customWidth="1"/>
-    <col min="11267" max="11267" width="9.75" style="39" customWidth="1"/>
-    <col min="11268" max="11268" width="8.125" style="39" customWidth="1"/>
-    <col min="11269" max="11269" width="12.5" style="39" customWidth="1"/>
-    <col min="11270" max="11270" width="16.25" style="39" customWidth="1"/>
-    <col min="11271" max="11271" width="6.125" style="39" customWidth="1"/>
-    <col min="11272" max="11272" width="9.375" style="39" customWidth="1"/>
-    <col min="11273" max="11273" width="13.125" style="39" customWidth="1"/>
-    <col min="11274" max="11521" width="9" style="39"/>
-    <col min="11522" max="11522" width="11.375" style="39" customWidth="1"/>
-    <col min="11523" max="11523" width="9.75" style="39" customWidth="1"/>
-    <col min="11524" max="11524" width="8.125" style="39" customWidth="1"/>
-    <col min="11525" max="11525" width="12.5" style="39" customWidth="1"/>
-    <col min="11526" max="11526" width="16.25" style="39" customWidth="1"/>
-    <col min="11527" max="11527" width="6.125" style="39" customWidth="1"/>
-    <col min="11528" max="11528" width="9.375" style="39" customWidth="1"/>
-    <col min="11529" max="11529" width="13.125" style="39" customWidth="1"/>
-    <col min="11530" max="11777" width="9" style="39"/>
-    <col min="11778" max="11778" width="11.375" style="39" customWidth="1"/>
-    <col min="11779" max="11779" width="9.75" style="39" customWidth="1"/>
-    <col min="11780" max="11780" width="8.125" style="39" customWidth="1"/>
-    <col min="11781" max="11781" width="12.5" style="39" customWidth="1"/>
-    <col min="11782" max="11782" width="16.25" style="39" customWidth="1"/>
-    <col min="11783" max="11783" width="6.125" style="39" customWidth="1"/>
-    <col min="11784" max="11784" width="9.375" style="39" customWidth="1"/>
-    <col min="11785" max="11785" width="13.125" style="39" customWidth="1"/>
-    <col min="11786" max="12033" width="9" style="39"/>
-    <col min="12034" max="12034" width="11.375" style="39" customWidth="1"/>
-    <col min="12035" max="12035" width="9.75" style="39" customWidth="1"/>
-    <col min="12036" max="12036" width="8.125" style="39" customWidth="1"/>
-    <col min="12037" max="12037" width="12.5" style="39" customWidth="1"/>
-    <col min="12038" max="12038" width="16.25" style="39" customWidth="1"/>
-    <col min="12039" max="12039" width="6.125" style="39" customWidth="1"/>
-    <col min="12040" max="12040" width="9.375" style="39" customWidth="1"/>
-    <col min="12041" max="12041" width="13.125" style="39" customWidth="1"/>
-    <col min="12042" max="12289" width="9" style="39"/>
-    <col min="12290" max="12290" width="11.375" style="39" customWidth="1"/>
-    <col min="12291" max="12291" width="9.75" style="39" customWidth="1"/>
-    <col min="12292" max="12292" width="8.125" style="39" customWidth="1"/>
-    <col min="12293" max="12293" width="12.5" style="39" customWidth="1"/>
-    <col min="12294" max="12294" width="16.25" style="39" customWidth="1"/>
-    <col min="12295" max="12295" width="6.125" style="39" customWidth="1"/>
-    <col min="12296" max="12296" width="9.375" style="39" customWidth="1"/>
-    <col min="12297" max="12297" width="13.125" style="39" customWidth="1"/>
-    <col min="12298" max="12545" width="9" style="39"/>
-    <col min="12546" max="12546" width="11.375" style="39" customWidth="1"/>
-    <col min="12547" max="12547" width="9.75" style="39" customWidth="1"/>
-    <col min="12548" max="12548" width="8.125" style="39" customWidth="1"/>
-    <col min="12549" max="12549" width="12.5" style="39" customWidth="1"/>
-    <col min="12550" max="12550" width="16.25" style="39" customWidth="1"/>
-    <col min="12551" max="12551" width="6.125" style="39" customWidth="1"/>
-    <col min="12552" max="12552" width="9.375" style="39" customWidth="1"/>
-    <col min="12553" max="12553" width="13.125" style="39" customWidth="1"/>
-    <col min="12554" max="12801" width="9" style="39"/>
-    <col min="12802" max="12802" width="11.375" style="39" customWidth="1"/>
-    <col min="12803" max="12803" width="9.75" style="39" customWidth="1"/>
-    <col min="12804" max="12804" width="8.125" style="39" customWidth="1"/>
-    <col min="12805" max="12805" width="12.5" style="39" customWidth="1"/>
-    <col min="12806" max="12806" width="16.25" style="39" customWidth="1"/>
-    <col min="12807" max="12807" width="6.125" style="39" customWidth="1"/>
-    <col min="12808" max="12808" width="9.375" style="39" customWidth="1"/>
-    <col min="12809" max="12809" width="13.125" style="39" customWidth="1"/>
-    <col min="12810" max="13057" width="9" style="39"/>
-    <col min="13058" max="13058" width="11.375" style="39" customWidth="1"/>
-    <col min="13059" max="13059" width="9.75" style="39" customWidth="1"/>
-    <col min="13060" max="13060" width="8.125" style="39" customWidth="1"/>
-    <col min="13061" max="13061" width="12.5" style="39" customWidth="1"/>
-    <col min="13062" max="13062" width="16.25" style="39" customWidth="1"/>
-    <col min="13063" max="13063" width="6.125" style="39" customWidth="1"/>
-    <col min="13064" max="13064" width="9.375" style="39" customWidth="1"/>
-    <col min="13065" max="13065" width="13.125" style="39" customWidth="1"/>
-    <col min="13066" max="13313" width="9" style="39"/>
-    <col min="13314" max="13314" width="11.375" style="39" customWidth="1"/>
-    <col min="13315" max="13315" width="9.75" style="39" customWidth="1"/>
-    <col min="13316" max="13316" width="8.125" style="39" customWidth="1"/>
-    <col min="13317" max="13317" width="12.5" style="39" customWidth="1"/>
-    <col min="13318" max="13318" width="16.25" style="39" customWidth="1"/>
-    <col min="13319" max="13319" width="6.125" style="39" customWidth="1"/>
-    <col min="13320" max="13320" width="9.375" style="39" customWidth="1"/>
-    <col min="13321" max="13321" width="13.125" style="39" customWidth="1"/>
-    <col min="13322" max="13569" width="9" style="39"/>
-    <col min="13570" max="13570" width="11.375" style="39" customWidth="1"/>
-    <col min="13571" max="13571" width="9.75" style="39" customWidth="1"/>
-    <col min="13572" max="13572" width="8.125" style="39" customWidth="1"/>
-    <col min="13573" max="13573" width="12.5" style="39" customWidth="1"/>
-    <col min="13574" max="13574" width="16.25" style="39" customWidth="1"/>
-    <col min="13575" max="13575" width="6.125" style="39" customWidth="1"/>
-    <col min="13576" max="13576" width="9.375" style="39" customWidth="1"/>
-    <col min="13577" max="13577" width="13.125" style="39" customWidth="1"/>
-    <col min="13578" max="13825" width="9" style="39"/>
-    <col min="13826" max="13826" width="11.375" style="39" customWidth="1"/>
-    <col min="13827" max="13827" width="9.75" style="39" customWidth="1"/>
-    <col min="13828" max="13828" width="8.125" style="39" customWidth="1"/>
-    <col min="13829" max="13829" width="12.5" style="39" customWidth="1"/>
-    <col min="13830" max="13830" width="16.25" style="39" customWidth="1"/>
-    <col min="13831" max="13831" width="6.125" style="39" customWidth="1"/>
-    <col min="13832" max="13832" width="9.375" style="39" customWidth="1"/>
-    <col min="13833" max="13833" width="13.125" style="39" customWidth="1"/>
-    <col min="13834" max="14081" width="9" style="39"/>
-    <col min="14082" max="14082" width="11.375" style="39" customWidth="1"/>
-    <col min="14083" max="14083" width="9.75" style="39" customWidth="1"/>
-    <col min="14084" max="14084" width="8.125" style="39" customWidth="1"/>
-    <col min="14085" max="14085" width="12.5" style="39" customWidth="1"/>
-    <col min="14086" max="14086" width="16.25" style="39" customWidth="1"/>
-    <col min="14087" max="14087" width="6.125" style="39" customWidth="1"/>
-    <col min="14088" max="14088" width="9.375" style="39" customWidth="1"/>
-    <col min="14089" max="14089" width="13.125" style="39" customWidth="1"/>
-    <col min="14090" max="14337" width="9" style="39"/>
-    <col min="14338" max="14338" width="11.375" style="39" customWidth="1"/>
-    <col min="14339" max="14339" width="9.75" style="39" customWidth="1"/>
-    <col min="14340" max="14340" width="8.125" style="39" customWidth="1"/>
-    <col min="14341" max="14341" width="12.5" style="39" customWidth="1"/>
-    <col min="14342" max="14342" width="16.25" style="39" customWidth="1"/>
-    <col min="14343" max="14343" width="6.125" style="39" customWidth="1"/>
-    <col min="14344" max="14344" width="9.375" style="39" customWidth="1"/>
-    <col min="14345" max="14345" width="13.125" style="39" customWidth="1"/>
-    <col min="14346" max="14593" width="9" style="39"/>
-    <col min="14594" max="14594" width="11.375" style="39" customWidth="1"/>
-    <col min="14595" max="14595" width="9.75" style="39" customWidth="1"/>
-    <col min="14596" max="14596" width="8.125" style="39" customWidth="1"/>
-    <col min="14597" max="14597" width="12.5" style="39" customWidth="1"/>
-    <col min="14598" max="14598" width="16.25" style="39" customWidth="1"/>
-    <col min="14599" max="14599" width="6.125" style="39" customWidth="1"/>
-    <col min="14600" max="14600" width="9.375" style="39" customWidth="1"/>
-    <col min="14601" max="14601" width="13.125" style="39" customWidth="1"/>
-    <col min="14602" max="14849" width="9" style="39"/>
-    <col min="14850" max="14850" width="11.375" style="39" customWidth="1"/>
-    <col min="14851" max="14851" width="9.75" style="39" customWidth="1"/>
-    <col min="14852" max="14852" width="8.125" style="39" customWidth="1"/>
-    <col min="14853" max="14853" width="12.5" style="39" customWidth="1"/>
-    <col min="14854" max="14854" width="16.25" style="39" customWidth="1"/>
-    <col min="14855" max="14855" width="6.125" style="39" customWidth="1"/>
-    <col min="14856" max="14856" width="9.375" style="39" customWidth="1"/>
-    <col min="14857" max="14857" width="13.125" style="39" customWidth="1"/>
-    <col min="14858" max="15105" width="9" style="39"/>
-    <col min="15106" max="15106" width="11.375" style="39" customWidth="1"/>
-    <col min="15107" max="15107" width="9.75" style="39" customWidth="1"/>
-    <col min="15108" max="15108" width="8.125" style="39" customWidth="1"/>
-    <col min="15109" max="15109" width="12.5" style="39" customWidth="1"/>
-    <col min="15110" max="15110" width="16.25" style="39" customWidth="1"/>
-    <col min="15111" max="15111" width="6.125" style="39" customWidth="1"/>
-    <col min="15112" max="15112" width="9.375" style="39" customWidth="1"/>
-    <col min="15113" max="15113" width="13.125" style="39" customWidth="1"/>
-    <col min="15114" max="15361" width="9" style="39"/>
-    <col min="15362" max="15362" width="11.375" style="39" customWidth="1"/>
-    <col min="15363" max="15363" width="9.75" style="39" customWidth="1"/>
-    <col min="15364" max="15364" width="8.125" style="39" customWidth="1"/>
-    <col min="15365" max="15365" width="12.5" style="39" customWidth="1"/>
-    <col min="15366" max="15366" width="16.25" style="39" customWidth="1"/>
-    <col min="15367" max="15367" width="6.125" style="39" customWidth="1"/>
-    <col min="15368" max="15368" width="9.375" style="39" customWidth="1"/>
-    <col min="15369" max="15369" width="13.125" style="39" customWidth="1"/>
-    <col min="15370" max="15617" width="9" style="39"/>
-    <col min="15618" max="15618" width="11.375" style="39" customWidth="1"/>
-    <col min="15619" max="15619" width="9.75" style="39" customWidth="1"/>
-    <col min="15620" max="15620" width="8.125" style="39" customWidth="1"/>
-    <col min="15621" max="15621" width="12.5" style="39" customWidth="1"/>
-    <col min="15622" max="15622" width="16.25" style="39" customWidth="1"/>
-    <col min="15623" max="15623" width="6.125" style="39" customWidth="1"/>
-    <col min="15624" max="15624" width="9.375" style="39" customWidth="1"/>
-    <col min="15625" max="15625" width="13.125" style="39" customWidth="1"/>
-    <col min="15626" max="15873" width="9" style="39"/>
-    <col min="15874" max="15874" width="11.375" style="39" customWidth="1"/>
-    <col min="15875" max="15875" width="9.75" style="39" customWidth="1"/>
-    <col min="15876" max="15876" width="8.125" style="39" customWidth="1"/>
-    <col min="15877" max="15877" width="12.5" style="39" customWidth="1"/>
-    <col min="15878" max="15878" width="16.25" style="39" customWidth="1"/>
-    <col min="15879" max="15879" width="6.125" style="39" customWidth="1"/>
-    <col min="15880" max="15880" width="9.375" style="39" customWidth="1"/>
-    <col min="15881" max="15881" width="13.125" style="39" customWidth="1"/>
-    <col min="15882" max="16129" width="9" style="39"/>
-    <col min="16130" max="16130" width="11.375" style="39" customWidth="1"/>
-    <col min="16131" max="16131" width="9.75" style="39" customWidth="1"/>
-    <col min="16132" max="16132" width="8.125" style="39" customWidth="1"/>
-    <col min="16133" max="16133" width="12.5" style="39" customWidth="1"/>
-    <col min="16134" max="16134" width="16.25" style="39" customWidth="1"/>
-    <col min="16135" max="16135" width="6.125" style="39" customWidth="1"/>
-    <col min="16136" max="16136" width="9.375" style="39" customWidth="1"/>
-    <col min="16137" max="16137" width="13.125" style="39" customWidth="1"/>
-    <col min="16138" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="2.625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="15" style="37" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="37" customWidth="1"/>
+    <col min="4" max="4" width="9" style="37" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="37" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="37" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="37" customWidth="1"/>
+    <col min="9" max="9" width="17" style="37" customWidth="1"/>
+    <col min="10" max="10" width="2.125" style="37" customWidth="1"/>
+    <col min="11" max="257" width="9" style="37"/>
+    <col min="258" max="258" width="11.375" style="37" customWidth="1"/>
+    <col min="259" max="259" width="9.75" style="37" customWidth="1"/>
+    <col min="260" max="260" width="8.125" style="37" customWidth="1"/>
+    <col min="261" max="261" width="12.5" style="37" customWidth="1"/>
+    <col min="262" max="262" width="16.25" style="37" customWidth="1"/>
+    <col min="263" max="263" width="6.125" style="37" customWidth="1"/>
+    <col min="264" max="264" width="9.375" style="37" customWidth="1"/>
+    <col min="265" max="265" width="13.125" style="37" customWidth="1"/>
+    <col min="266" max="513" width="9" style="37"/>
+    <col min="514" max="514" width="11.375" style="37" customWidth="1"/>
+    <col min="515" max="515" width="9.75" style="37" customWidth="1"/>
+    <col min="516" max="516" width="8.125" style="37" customWidth="1"/>
+    <col min="517" max="517" width="12.5" style="37" customWidth="1"/>
+    <col min="518" max="518" width="16.25" style="37" customWidth="1"/>
+    <col min="519" max="519" width="6.125" style="37" customWidth="1"/>
+    <col min="520" max="520" width="9.375" style="37" customWidth="1"/>
+    <col min="521" max="521" width="13.125" style="37" customWidth="1"/>
+    <col min="522" max="769" width="9" style="37"/>
+    <col min="770" max="770" width="11.375" style="37" customWidth="1"/>
+    <col min="771" max="771" width="9.75" style="37" customWidth="1"/>
+    <col min="772" max="772" width="8.125" style="37" customWidth="1"/>
+    <col min="773" max="773" width="12.5" style="37" customWidth="1"/>
+    <col min="774" max="774" width="16.25" style="37" customWidth="1"/>
+    <col min="775" max="775" width="6.125" style="37" customWidth="1"/>
+    <col min="776" max="776" width="9.375" style="37" customWidth="1"/>
+    <col min="777" max="777" width="13.125" style="37" customWidth="1"/>
+    <col min="778" max="1025" width="9" style="37"/>
+    <col min="1026" max="1026" width="11.375" style="37" customWidth="1"/>
+    <col min="1027" max="1027" width="9.75" style="37" customWidth="1"/>
+    <col min="1028" max="1028" width="8.125" style="37" customWidth="1"/>
+    <col min="1029" max="1029" width="12.5" style="37" customWidth="1"/>
+    <col min="1030" max="1030" width="16.25" style="37" customWidth="1"/>
+    <col min="1031" max="1031" width="6.125" style="37" customWidth="1"/>
+    <col min="1032" max="1032" width="9.375" style="37" customWidth="1"/>
+    <col min="1033" max="1033" width="13.125" style="37" customWidth="1"/>
+    <col min="1034" max="1281" width="9" style="37"/>
+    <col min="1282" max="1282" width="11.375" style="37" customWidth="1"/>
+    <col min="1283" max="1283" width="9.75" style="37" customWidth="1"/>
+    <col min="1284" max="1284" width="8.125" style="37" customWidth="1"/>
+    <col min="1285" max="1285" width="12.5" style="37" customWidth="1"/>
+    <col min="1286" max="1286" width="16.25" style="37" customWidth="1"/>
+    <col min="1287" max="1287" width="6.125" style="37" customWidth="1"/>
+    <col min="1288" max="1288" width="9.375" style="37" customWidth="1"/>
+    <col min="1289" max="1289" width="13.125" style="37" customWidth="1"/>
+    <col min="1290" max="1537" width="9" style="37"/>
+    <col min="1538" max="1538" width="11.375" style="37" customWidth="1"/>
+    <col min="1539" max="1539" width="9.75" style="37" customWidth="1"/>
+    <col min="1540" max="1540" width="8.125" style="37" customWidth="1"/>
+    <col min="1541" max="1541" width="12.5" style="37" customWidth="1"/>
+    <col min="1542" max="1542" width="16.25" style="37" customWidth="1"/>
+    <col min="1543" max="1543" width="6.125" style="37" customWidth="1"/>
+    <col min="1544" max="1544" width="9.375" style="37" customWidth="1"/>
+    <col min="1545" max="1545" width="13.125" style="37" customWidth="1"/>
+    <col min="1546" max="1793" width="9" style="37"/>
+    <col min="1794" max="1794" width="11.375" style="37" customWidth="1"/>
+    <col min="1795" max="1795" width="9.75" style="37" customWidth="1"/>
+    <col min="1796" max="1796" width="8.125" style="37" customWidth="1"/>
+    <col min="1797" max="1797" width="12.5" style="37" customWidth="1"/>
+    <col min="1798" max="1798" width="16.25" style="37" customWidth="1"/>
+    <col min="1799" max="1799" width="6.125" style="37" customWidth="1"/>
+    <col min="1800" max="1800" width="9.375" style="37" customWidth="1"/>
+    <col min="1801" max="1801" width="13.125" style="37" customWidth="1"/>
+    <col min="1802" max="2049" width="9" style="37"/>
+    <col min="2050" max="2050" width="11.375" style="37" customWidth="1"/>
+    <col min="2051" max="2051" width="9.75" style="37" customWidth="1"/>
+    <col min="2052" max="2052" width="8.125" style="37" customWidth="1"/>
+    <col min="2053" max="2053" width="12.5" style="37" customWidth="1"/>
+    <col min="2054" max="2054" width="16.25" style="37" customWidth="1"/>
+    <col min="2055" max="2055" width="6.125" style="37" customWidth="1"/>
+    <col min="2056" max="2056" width="9.375" style="37" customWidth="1"/>
+    <col min="2057" max="2057" width="13.125" style="37" customWidth="1"/>
+    <col min="2058" max="2305" width="9" style="37"/>
+    <col min="2306" max="2306" width="11.375" style="37" customWidth="1"/>
+    <col min="2307" max="2307" width="9.75" style="37" customWidth="1"/>
+    <col min="2308" max="2308" width="8.125" style="37" customWidth="1"/>
+    <col min="2309" max="2309" width="12.5" style="37" customWidth="1"/>
+    <col min="2310" max="2310" width="16.25" style="37" customWidth="1"/>
+    <col min="2311" max="2311" width="6.125" style="37" customWidth="1"/>
+    <col min="2312" max="2312" width="9.375" style="37" customWidth="1"/>
+    <col min="2313" max="2313" width="13.125" style="37" customWidth="1"/>
+    <col min="2314" max="2561" width="9" style="37"/>
+    <col min="2562" max="2562" width="11.375" style="37" customWidth="1"/>
+    <col min="2563" max="2563" width="9.75" style="37" customWidth="1"/>
+    <col min="2564" max="2564" width="8.125" style="37" customWidth="1"/>
+    <col min="2565" max="2565" width="12.5" style="37" customWidth="1"/>
+    <col min="2566" max="2566" width="16.25" style="37" customWidth="1"/>
+    <col min="2567" max="2567" width="6.125" style="37" customWidth="1"/>
+    <col min="2568" max="2568" width="9.375" style="37" customWidth="1"/>
+    <col min="2569" max="2569" width="13.125" style="37" customWidth="1"/>
+    <col min="2570" max="2817" width="9" style="37"/>
+    <col min="2818" max="2818" width="11.375" style="37" customWidth="1"/>
+    <col min="2819" max="2819" width="9.75" style="37" customWidth="1"/>
+    <col min="2820" max="2820" width="8.125" style="37" customWidth="1"/>
+    <col min="2821" max="2821" width="12.5" style="37" customWidth="1"/>
+    <col min="2822" max="2822" width="16.25" style="37" customWidth="1"/>
+    <col min="2823" max="2823" width="6.125" style="37" customWidth="1"/>
+    <col min="2824" max="2824" width="9.375" style="37" customWidth="1"/>
+    <col min="2825" max="2825" width="13.125" style="37" customWidth="1"/>
+    <col min="2826" max="3073" width="9" style="37"/>
+    <col min="3074" max="3074" width="11.375" style="37" customWidth="1"/>
+    <col min="3075" max="3075" width="9.75" style="37" customWidth="1"/>
+    <col min="3076" max="3076" width="8.125" style="37" customWidth="1"/>
+    <col min="3077" max="3077" width="12.5" style="37" customWidth="1"/>
+    <col min="3078" max="3078" width="16.25" style="37" customWidth="1"/>
+    <col min="3079" max="3079" width="6.125" style="37" customWidth="1"/>
+    <col min="3080" max="3080" width="9.375" style="37" customWidth="1"/>
+    <col min="3081" max="3081" width="13.125" style="37" customWidth="1"/>
+    <col min="3082" max="3329" width="9" style="37"/>
+    <col min="3330" max="3330" width="11.375" style="37" customWidth="1"/>
+    <col min="3331" max="3331" width="9.75" style="37" customWidth="1"/>
+    <col min="3332" max="3332" width="8.125" style="37" customWidth="1"/>
+    <col min="3333" max="3333" width="12.5" style="37" customWidth="1"/>
+    <col min="3334" max="3334" width="16.25" style="37" customWidth="1"/>
+    <col min="3335" max="3335" width="6.125" style="37" customWidth="1"/>
+    <col min="3336" max="3336" width="9.375" style="37" customWidth="1"/>
+    <col min="3337" max="3337" width="13.125" style="37" customWidth="1"/>
+    <col min="3338" max="3585" width="9" style="37"/>
+    <col min="3586" max="3586" width="11.375" style="37" customWidth="1"/>
+    <col min="3587" max="3587" width="9.75" style="37" customWidth="1"/>
+    <col min="3588" max="3588" width="8.125" style="37" customWidth="1"/>
+    <col min="3589" max="3589" width="12.5" style="37" customWidth="1"/>
+    <col min="3590" max="3590" width="16.25" style="37" customWidth="1"/>
+    <col min="3591" max="3591" width="6.125" style="37" customWidth="1"/>
+    <col min="3592" max="3592" width="9.375" style="37" customWidth="1"/>
+    <col min="3593" max="3593" width="13.125" style="37" customWidth="1"/>
+    <col min="3594" max="3841" width="9" style="37"/>
+    <col min="3842" max="3842" width="11.375" style="37" customWidth="1"/>
+    <col min="3843" max="3843" width="9.75" style="37" customWidth="1"/>
+    <col min="3844" max="3844" width="8.125" style="37" customWidth="1"/>
+    <col min="3845" max="3845" width="12.5" style="37" customWidth="1"/>
+    <col min="3846" max="3846" width="16.25" style="37" customWidth="1"/>
+    <col min="3847" max="3847" width="6.125" style="37" customWidth="1"/>
+    <col min="3848" max="3848" width="9.375" style="37" customWidth="1"/>
+    <col min="3849" max="3849" width="13.125" style="37" customWidth="1"/>
+    <col min="3850" max="4097" width="9" style="37"/>
+    <col min="4098" max="4098" width="11.375" style="37" customWidth="1"/>
+    <col min="4099" max="4099" width="9.75" style="37" customWidth="1"/>
+    <col min="4100" max="4100" width="8.125" style="37" customWidth="1"/>
+    <col min="4101" max="4101" width="12.5" style="37" customWidth="1"/>
+    <col min="4102" max="4102" width="16.25" style="37" customWidth="1"/>
+    <col min="4103" max="4103" width="6.125" style="37" customWidth="1"/>
+    <col min="4104" max="4104" width="9.375" style="37" customWidth="1"/>
+    <col min="4105" max="4105" width="13.125" style="37" customWidth="1"/>
+    <col min="4106" max="4353" width="9" style="37"/>
+    <col min="4354" max="4354" width="11.375" style="37" customWidth="1"/>
+    <col min="4355" max="4355" width="9.75" style="37" customWidth="1"/>
+    <col min="4356" max="4356" width="8.125" style="37" customWidth="1"/>
+    <col min="4357" max="4357" width="12.5" style="37" customWidth="1"/>
+    <col min="4358" max="4358" width="16.25" style="37" customWidth="1"/>
+    <col min="4359" max="4359" width="6.125" style="37" customWidth="1"/>
+    <col min="4360" max="4360" width="9.375" style="37" customWidth="1"/>
+    <col min="4361" max="4361" width="13.125" style="37" customWidth="1"/>
+    <col min="4362" max="4609" width="9" style="37"/>
+    <col min="4610" max="4610" width="11.375" style="37" customWidth="1"/>
+    <col min="4611" max="4611" width="9.75" style="37" customWidth="1"/>
+    <col min="4612" max="4612" width="8.125" style="37" customWidth="1"/>
+    <col min="4613" max="4613" width="12.5" style="37" customWidth="1"/>
+    <col min="4614" max="4614" width="16.25" style="37" customWidth="1"/>
+    <col min="4615" max="4615" width="6.125" style="37" customWidth="1"/>
+    <col min="4616" max="4616" width="9.375" style="37" customWidth="1"/>
+    <col min="4617" max="4617" width="13.125" style="37" customWidth="1"/>
+    <col min="4618" max="4865" width="9" style="37"/>
+    <col min="4866" max="4866" width="11.375" style="37" customWidth="1"/>
+    <col min="4867" max="4867" width="9.75" style="37" customWidth="1"/>
+    <col min="4868" max="4868" width="8.125" style="37" customWidth="1"/>
+    <col min="4869" max="4869" width="12.5" style="37" customWidth="1"/>
+    <col min="4870" max="4870" width="16.25" style="37" customWidth="1"/>
+    <col min="4871" max="4871" width="6.125" style="37" customWidth="1"/>
+    <col min="4872" max="4872" width="9.375" style="37" customWidth="1"/>
+    <col min="4873" max="4873" width="13.125" style="37" customWidth="1"/>
+    <col min="4874" max="5121" width="9" style="37"/>
+    <col min="5122" max="5122" width="11.375" style="37" customWidth="1"/>
+    <col min="5123" max="5123" width="9.75" style="37" customWidth="1"/>
+    <col min="5124" max="5124" width="8.125" style="37" customWidth="1"/>
+    <col min="5125" max="5125" width="12.5" style="37" customWidth="1"/>
+    <col min="5126" max="5126" width="16.25" style="37" customWidth="1"/>
+    <col min="5127" max="5127" width="6.125" style="37" customWidth="1"/>
+    <col min="5128" max="5128" width="9.375" style="37" customWidth="1"/>
+    <col min="5129" max="5129" width="13.125" style="37" customWidth="1"/>
+    <col min="5130" max="5377" width="9" style="37"/>
+    <col min="5378" max="5378" width="11.375" style="37" customWidth="1"/>
+    <col min="5379" max="5379" width="9.75" style="37" customWidth="1"/>
+    <col min="5380" max="5380" width="8.125" style="37" customWidth="1"/>
+    <col min="5381" max="5381" width="12.5" style="37" customWidth="1"/>
+    <col min="5382" max="5382" width="16.25" style="37" customWidth="1"/>
+    <col min="5383" max="5383" width="6.125" style="37" customWidth="1"/>
+    <col min="5384" max="5384" width="9.375" style="37" customWidth="1"/>
+    <col min="5385" max="5385" width="13.125" style="37" customWidth="1"/>
+    <col min="5386" max="5633" width="9" style="37"/>
+    <col min="5634" max="5634" width="11.375" style="37" customWidth="1"/>
+    <col min="5635" max="5635" width="9.75" style="37" customWidth="1"/>
+    <col min="5636" max="5636" width="8.125" style="37" customWidth="1"/>
+    <col min="5637" max="5637" width="12.5" style="37" customWidth="1"/>
+    <col min="5638" max="5638" width="16.25" style="37" customWidth="1"/>
+    <col min="5639" max="5639" width="6.125" style="37" customWidth="1"/>
+    <col min="5640" max="5640" width="9.375" style="37" customWidth="1"/>
+    <col min="5641" max="5641" width="13.125" style="37" customWidth="1"/>
+    <col min="5642" max="5889" width="9" style="37"/>
+    <col min="5890" max="5890" width="11.375" style="37" customWidth="1"/>
+    <col min="5891" max="5891" width="9.75" style="37" customWidth="1"/>
+    <col min="5892" max="5892" width="8.125" style="37" customWidth="1"/>
+    <col min="5893" max="5893" width="12.5" style="37" customWidth="1"/>
+    <col min="5894" max="5894" width="16.25" style="37" customWidth="1"/>
+    <col min="5895" max="5895" width="6.125" style="37" customWidth="1"/>
+    <col min="5896" max="5896" width="9.375" style="37" customWidth="1"/>
+    <col min="5897" max="5897" width="13.125" style="37" customWidth="1"/>
+    <col min="5898" max="6145" width="9" style="37"/>
+    <col min="6146" max="6146" width="11.375" style="37" customWidth="1"/>
+    <col min="6147" max="6147" width="9.75" style="37" customWidth="1"/>
+    <col min="6148" max="6148" width="8.125" style="37" customWidth="1"/>
+    <col min="6149" max="6149" width="12.5" style="37" customWidth="1"/>
+    <col min="6150" max="6150" width="16.25" style="37" customWidth="1"/>
+    <col min="6151" max="6151" width="6.125" style="37" customWidth="1"/>
+    <col min="6152" max="6152" width="9.375" style="37" customWidth="1"/>
+    <col min="6153" max="6153" width="13.125" style="37" customWidth="1"/>
+    <col min="6154" max="6401" width="9" style="37"/>
+    <col min="6402" max="6402" width="11.375" style="37" customWidth="1"/>
+    <col min="6403" max="6403" width="9.75" style="37" customWidth="1"/>
+    <col min="6404" max="6404" width="8.125" style="37" customWidth="1"/>
+    <col min="6405" max="6405" width="12.5" style="37" customWidth="1"/>
+    <col min="6406" max="6406" width="16.25" style="37" customWidth="1"/>
+    <col min="6407" max="6407" width="6.125" style="37" customWidth="1"/>
+    <col min="6408" max="6408" width="9.375" style="37" customWidth="1"/>
+    <col min="6409" max="6409" width="13.125" style="37" customWidth="1"/>
+    <col min="6410" max="6657" width="9" style="37"/>
+    <col min="6658" max="6658" width="11.375" style="37" customWidth="1"/>
+    <col min="6659" max="6659" width="9.75" style="37" customWidth="1"/>
+    <col min="6660" max="6660" width="8.125" style="37" customWidth="1"/>
+    <col min="6661" max="6661" width="12.5" style="37" customWidth="1"/>
+    <col min="6662" max="6662" width="16.25" style="37" customWidth="1"/>
+    <col min="6663" max="6663" width="6.125" style="37" customWidth="1"/>
+    <col min="6664" max="6664" width="9.375" style="37" customWidth="1"/>
+    <col min="6665" max="6665" width="13.125" style="37" customWidth="1"/>
+    <col min="6666" max="6913" width="9" style="37"/>
+    <col min="6914" max="6914" width="11.375" style="37" customWidth="1"/>
+    <col min="6915" max="6915" width="9.75" style="37" customWidth="1"/>
+    <col min="6916" max="6916" width="8.125" style="37" customWidth="1"/>
+    <col min="6917" max="6917" width="12.5" style="37" customWidth="1"/>
+    <col min="6918" max="6918" width="16.25" style="37" customWidth="1"/>
+    <col min="6919" max="6919" width="6.125" style="37" customWidth="1"/>
+    <col min="6920" max="6920" width="9.375" style="37" customWidth="1"/>
+    <col min="6921" max="6921" width="13.125" style="37" customWidth="1"/>
+    <col min="6922" max="7169" width="9" style="37"/>
+    <col min="7170" max="7170" width="11.375" style="37" customWidth="1"/>
+    <col min="7171" max="7171" width="9.75" style="37" customWidth="1"/>
+    <col min="7172" max="7172" width="8.125" style="37" customWidth="1"/>
+    <col min="7173" max="7173" width="12.5" style="37" customWidth="1"/>
+    <col min="7174" max="7174" width="16.25" style="37" customWidth="1"/>
+    <col min="7175" max="7175" width="6.125" style="37" customWidth="1"/>
+    <col min="7176" max="7176" width="9.375" style="37" customWidth="1"/>
+    <col min="7177" max="7177" width="13.125" style="37" customWidth="1"/>
+    <col min="7178" max="7425" width="9" style="37"/>
+    <col min="7426" max="7426" width="11.375" style="37" customWidth="1"/>
+    <col min="7427" max="7427" width="9.75" style="37" customWidth="1"/>
+    <col min="7428" max="7428" width="8.125" style="37" customWidth="1"/>
+    <col min="7429" max="7429" width="12.5" style="37" customWidth="1"/>
+    <col min="7430" max="7430" width="16.25" style="37" customWidth="1"/>
+    <col min="7431" max="7431" width="6.125" style="37" customWidth="1"/>
+    <col min="7432" max="7432" width="9.375" style="37" customWidth="1"/>
+    <col min="7433" max="7433" width="13.125" style="37" customWidth="1"/>
+    <col min="7434" max="7681" width="9" style="37"/>
+    <col min="7682" max="7682" width="11.375" style="37" customWidth="1"/>
+    <col min="7683" max="7683" width="9.75" style="37" customWidth="1"/>
+    <col min="7684" max="7684" width="8.125" style="37" customWidth="1"/>
+    <col min="7685" max="7685" width="12.5" style="37" customWidth="1"/>
+    <col min="7686" max="7686" width="16.25" style="37" customWidth="1"/>
+    <col min="7687" max="7687" width="6.125" style="37" customWidth="1"/>
+    <col min="7688" max="7688" width="9.375" style="37" customWidth="1"/>
+    <col min="7689" max="7689" width="13.125" style="37" customWidth="1"/>
+    <col min="7690" max="7937" width="9" style="37"/>
+    <col min="7938" max="7938" width="11.375" style="37" customWidth="1"/>
+    <col min="7939" max="7939" width="9.75" style="37" customWidth="1"/>
+    <col min="7940" max="7940" width="8.125" style="37" customWidth="1"/>
+    <col min="7941" max="7941" width="12.5" style="37" customWidth="1"/>
+    <col min="7942" max="7942" width="16.25" style="37" customWidth="1"/>
+    <col min="7943" max="7943" width="6.125" style="37" customWidth="1"/>
+    <col min="7944" max="7944" width="9.375" style="37" customWidth="1"/>
+    <col min="7945" max="7945" width="13.125" style="37" customWidth="1"/>
+    <col min="7946" max="8193" width="9" style="37"/>
+    <col min="8194" max="8194" width="11.375" style="37" customWidth="1"/>
+    <col min="8195" max="8195" width="9.75" style="37" customWidth="1"/>
+    <col min="8196" max="8196" width="8.125" style="37" customWidth="1"/>
+    <col min="8197" max="8197" width="12.5" style="37" customWidth="1"/>
+    <col min="8198" max="8198" width="16.25" style="37" customWidth="1"/>
+    <col min="8199" max="8199" width="6.125" style="37" customWidth="1"/>
+    <col min="8200" max="8200" width="9.375" style="37" customWidth="1"/>
+    <col min="8201" max="8201" width="13.125" style="37" customWidth="1"/>
+    <col min="8202" max="8449" width="9" style="37"/>
+    <col min="8450" max="8450" width="11.375" style="37" customWidth="1"/>
+    <col min="8451" max="8451" width="9.75" style="37" customWidth="1"/>
+    <col min="8452" max="8452" width="8.125" style="37" customWidth="1"/>
+    <col min="8453" max="8453" width="12.5" style="37" customWidth="1"/>
+    <col min="8454" max="8454" width="16.25" style="37" customWidth="1"/>
+    <col min="8455" max="8455" width="6.125" style="37" customWidth="1"/>
+    <col min="8456" max="8456" width="9.375" style="37" customWidth="1"/>
+    <col min="8457" max="8457" width="13.125" style="37" customWidth="1"/>
+    <col min="8458" max="8705" width="9" style="37"/>
+    <col min="8706" max="8706" width="11.375" style="37" customWidth="1"/>
+    <col min="8707" max="8707" width="9.75" style="37" customWidth="1"/>
+    <col min="8708" max="8708" width="8.125" style="37" customWidth="1"/>
+    <col min="8709" max="8709" width="12.5" style="37" customWidth="1"/>
+    <col min="8710" max="8710" width="16.25" style="37" customWidth="1"/>
+    <col min="8711" max="8711" width="6.125" style="37" customWidth="1"/>
+    <col min="8712" max="8712" width="9.375" style="37" customWidth="1"/>
+    <col min="8713" max="8713" width="13.125" style="37" customWidth="1"/>
+    <col min="8714" max="8961" width="9" style="37"/>
+    <col min="8962" max="8962" width="11.375" style="37" customWidth="1"/>
+    <col min="8963" max="8963" width="9.75" style="37" customWidth="1"/>
+    <col min="8964" max="8964" width="8.125" style="37" customWidth="1"/>
+    <col min="8965" max="8965" width="12.5" style="37" customWidth="1"/>
+    <col min="8966" max="8966" width="16.25" style="37" customWidth="1"/>
+    <col min="8967" max="8967" width="6.125" style="37" customWidth="1"/>
+    <col min="8968" max="8968" width="9.375" style="37" customWidth="1"/>
+    <col min="8969" max="8969" width="13.125" style="37" customWidth="1"/>
+    <col min="8970" max="9217" width="9" style="37"/>
+    <col min="9218" max="9218" width="11.375" style="37" customWidth="1"/>
+    <col min="9219" max="9219" width="9.75" style="37" customWidth="1"/>
+    <col min="9220" max="9220" width="8.125" style="37" customWidth="1"/>
+    <col min="9221" max="9221" width="12.5" style="37" customWidth="1"/>
+    <col min="9222" max="9222" width="16.25" style="37" customWidth="1"/>
+    <col min="9223" max="9223" width="6.125" style="37" customWidth="1"/>
+    <col min="9224" max="9224" width="9.375" style="37" customWidth="1"/>
+    <col min="9225" max="9225" width="13.125" style="37" customWidth="1"/>
+    <col min="9226" max="9473" width="9" style="37"/>
+    <col min="9474" max="9474" width="11.375" style="37" customWidth="1"/>
+    <col min="9475" max="9475" width="9.75" style="37" customWidth="1"/>
+    <col min="9476" max="9476" width="8.125" style="37" customWidth="1"/>
+    <col min="9477" max="9477" width="12.5" style="37" customWidth="1"/>
+    <col min="9478" max="9478" width="16.25" style="37" customWidth="1"/>
+    <col min="9479" max="9479" width="6.125" style="37" customWidth="1"/>
+    <col min="9480" max="9480" width="9.375" style="37" customWidth="1"/>
+    <col min="9481" max="9481" width="13.125" style="37" customWidth="1"/>
+    <col min="9482" max="9729" width="9" style="37"/>
+    <col min="9730" max="9730" width="11.375" style="37" customWidth="1"/>
+    <col min="9731" max="9731" width="9.75" style="37" customWidth="1"/>
+    <col min="9732" max="9732" width="8.125" style="37" customWidth="1"/>
+    <col min="9733" max="9733" width="12.5" style="37" customWidth="1"/>
+    <col min="9734" max="9734" width="16.25" style="37" customWidth="1"/>
+    <col min="9735" max="9735" width="6.125" style="37" customWidth="1"/>
+    <col min="9736" max="9736" width="9.375" style="37" customWidth="1"/>
+    <col min="9737" max="9737" width="13.125" style="37" customWidth="1"/>
+    <col min="9738" max="9985" width="9" style="37"/>
+    <col min="9986" max="9986" width="11.375" style="37" customWidth="1"/>
+    <col min="9987" max="9987" width="9.75" style="37" customWidth="1"/>
+    <col min="9988" max="9988" width="8.125" style="37" customWidth="1"/>
+    <col min="9989" max="9989" width="12.5" style="37" customWidth="1"/>
+    <col min="9990" max="9990" width="16.25" style="37" customWidth="1"/>
+    <col min="9991" max="9991" width="6.125" style="37" customWidth="1"/>
+    <col min="9992" max="9992" width="9.375" style="37" customWidth="1"/>
+    <col min="9993" max="9993" width="13.125" style="37" customWidth="1"/>
+    <col min="9994" max="10241" width="9" style="37"/>
+    <col min="10242" max="10242" width="11.375" style="37" customWidth="1"/>
+    <col min="10243" max="10243" width="9.75" style="37" customWidth="1"/>
+    <col min="10244" max="10244" width="8.125" style="37" customWidth="1"/>
+    <col min="10245" max="10245" width="12.5" style="37" customWidth="1"/>
+    <col min="10246" max="10246" width="16.25" style="37" customWidth="1"/>
+    <col min="10247" max="10247" width="6.125" style="37" customWidth="1"/>
+    <col min="10248" max="10248" width="9.375" style="37" customWidth="1"/>
+    <col min="10249" max="10249" width="13.125" style="37" customWidth="1"/>
+    <col min="10250" max="10497" width="9" style="37"/>
+    <col min="10498" max="10498" width="11.375" style="37" customWidth="1"/>
+    <col min="10499" max="10499" width="9.75" style="37" customWidth="1"/>
+    <col min="10500" max="10500" width="8.125" style="37" customWidth="1"/>
+    <col min="10501" max="10501" width="12.5" style="37" customWidth="1"/>
+    <col min="10502" max="10502" width="16.25" style="37" customWidth="1"/>
+    <col min="10503" max="10503" width="6.125" style="37" customWidth="1"/>
+    <col min="10504" max="10504" width="9.375" style="37" customWidth="1"/>
+    <col min="10505" max="10505" width="13.125" style="37" customWidth="1"/>
+    <col min="10506" max="10753" width="9" style="37"/>
+    <col min="10754" max="10754" width="11.375" style="37" customWidth="1"/>
+    <col min="10755" max="10755" width="9.75" style="37" customWidth="1"/>
+    <col min="10756" max="10756" width="8.125" style="37" customWidth="1"/>
+    <col min="10757" max="10757" width="12.5" style="37" customWidth="1"/>
+    <col min="10758" max="10758" width="16.25" style="37" customWidth="1"/>
+    <col min="10759" max="10759" width="6.125" style="37" customWidth="1"/>
+    <col min="10760" max="10760" width="9.375" style="37" customWidth="1"/>
+    <col min="10761" max="10761" width="13.125" style="37" customWidth="1"/>
+    <col min="10762" max="11009" width="9" style="37"/>
+    <col min="11010" max="11010" width="11.375" style="37" customWidth="1"/>
+    <col min="11011" max="11011" width="9.75" style="37" customWidth="1"/>
+    <col min="11012" max="11012" width="8.125" style="37" customWidth="1"/>
+    <col min="11013" max="11013" width="12.5" style="37" customWidth="1"/>
+    <col min="11014" max="11014" width="16.25" style="37" customWidth="1"/>
+    <col min="11015" max="11015" width="6.125" style="37" customWidth="1"/>
+    <col min="11016" max="11016" width="9.375" style="37" customWidth="1"/>
+    <col min="11017" max="11017" width="13.125" style="37" customWidth="1"/>
+    <col min="11018" max="11265" width="9" style="37"/>
+    <col min="11266" max="11266" width="11.375" style="37" customWidth="1"/>
+    <col min="11267" max="11267" width="9.75" style="37" customWidth="1"/>
+    <col min="11268" max="11268" width="8.125" style="37" customWidth="1"/>
+    <col min="11269" max="11269" width="12.5" style="37" customWidth="1"/>
+    <col min="11270" max="11270" width="16.25" style="37" customWidth="1"/>
+    <col min="11271" max="11271" width="6.125" style="37" customWidth="1"/>
+    <col min="11272" max="11272" width="9.375" style="37" customWidth="1"/>
+    <col min="11273" max="11273" width="13.125" style="37" customWidth="1"/>
+    <col min="11274" max="11521" width="9" style="37"/>
+    <col min="11522" max="11522" width="11.375" style="37" customWidth="1"/>
+    <col min="11523" max="11523" width="9.75" style="37" customWidth="1"/>
+    <col min="11524" max="11524" width="8.125" style="37" customWidth="1"/>
+    <col min="11525" max="11525" width="12.5" style="37" customWidth="1"/>
+    <col min="11526" max="11526" width="16.25" style="37" customWidth="1"/>
+    <col min="11527" max="11527" width="6.125" style="37" customWidth="1"/>
+    <col min="11528" max="11528" width="9.375" style="37" customWidth="1"/>
+    <col min="11529" max="11529" width="13.125" style="37" customWidth="1"/>
+    <col min="11530" max="11777" width="9" style="37"/>
+    <col min="11778" max="11778" width="11.375" style="37" customWidth="1"/>
+    <col min="11779" max="11779" width="9.75" style="37" customWidth="1"/>
+    <col min="11780" max="11780" width="8.125" style="37" customWidth="1"/>
+    <col min="11781" max="11781" width="12.5" style="37" customWidth="1"/>
+    <col min="11782" max="11782" width="16.25" style="37" customWidth="1"/>
+    <col min="11783" max="11783" width="6.125" style="37" customWidth="1"/>
+    <col min="11784" max="11784" width="9.375" style="37" customWidth="1"/>
+    <col min="11785" max="11785" width="13.125" style="37" customWidth="1"/>
+    <col min="11786" max="12033" width="9" style="37"/>
+    <col min="12034" max="12034" width="11.375" style="37" customWidth="1"/>
+    <col min="12035" max="12035" width="9.75" style="37" customWidth="1"/>
+    <col min="12036" max="12036" width="8.125" style="37" customWidth="1"/>
+    <col min="12037" max="12037" width="12.5" style="37" customWidth="1"/>
+    <col min="12038" max="12038" width="16.25" style="37" customWidth="1"/>
+    <col min="12039" max="12039" width="6.125" style="37" customWidth="1"/>
+    <col min="12040" max="12040" width="9.375" style="37" customWidth="1"/>
+    <col min="12041" max="12041" width="13.125" style="37" customWidth="1"/>
+    <col min="12042" max="12289" width="9" style="37"/>
+    <col min="12290" max="12290" width="11.375" style="37" customWidth="1"/>
+    <col min="12291" max="12291" width="9.75" style="37" customWidth="1"/>
+    <col min="12292" max="12292" width="8.125" style="37" customWidth="1"/>
+    <col min="12293" max="12293" width="12.5" style="37" customWidth="1"/>
+    <col min="12294" max="12294" width="16.25" style="37" customWidth="1"/>
+    <col min="12295" max="12295" width="6.125" style="37" customWidth="1"/>
+    <col min="12296" max="12296" width="9.375" style="37" customWidth="1"/>
+    <col min="12297" max="12297" width="13.125" style="37" customWidth="1"/>
+    <col min="12298" max="12545" width="9" style="37"/>
+    <col min="12546" max="12546" width="11.375" style="37" customWidth="1"/>
+    <col min="12547" max="12547" width="9.75" style="37" customWidth="1"/>
+    <col min="12548" max="12548" width="8.125" style="37" customWidth="1"/>
+    <col min="12549" max="12549" width="12.5" style="37" customWidth="1"/>
+    <col min="12550" max="12550" width="16.25" style="37" customWidth="1"/>
+    <col min="12551" max="12551" width="6.125" style="37" customWidth="1"/>
+    <col min="12552" max="12552" width="9.375" style="37" customWidth="1"/>
+    <col min="12553" max="12553" width="13.125" style="37" customWidth="1"/>
+    <col min="12554" max="12801" width="9" style="37"/>
+    <col min="12802" max="12802" width="11.375" style="37" customWidth="1"/>
+    <col min="12803" max="12803" width="9.75" style="37" customWidth="1"/>
+    <col min="12804" max="12804" width="8.125" style="37" customWidth="1"/>
+    <col min="12805" max="12805" width="12.5" style="37" customWidth="1"/>
+    <col min="12806" max="12806" width="16.25" style="37" customWidth="1"/>
+    <col min="12807" max="12807" width="6.125" style="37" customWidth="1"/>
+    <col min="12808" max="12808" width="9.375" style="37" customWidth="1"/>
+    <col min="12809" max="12809" width="13.125" style="37" customWidth="1"/>
+    <col min="12810" max="13057" width="9" style="37"/>
+    <col min="13058" max="13058" width="11.375" style="37" customWidth="1"/>
+    <col min="13059" max="13059" width="9.75" style="37" customWidth="1"/>
+    <col min="13060" max="13060" width="8.125" style="37" customWidth="1"/>
+    <col min="13061" max="13061" width="12.5" style="37" customWidth="1"/>
+    <col min="13062" max="13062" width="16.25" style="37" customWidth="1"/>
+    <col min="13063" max="13063" width="6.125" style="37" customWidth="1"/>
+    <col min="13064" max="13064" width="9.375" style="37" customWidth="1"/>
+    <col min="13065" max="13065" width="13.125" style="37" customWidth="1"/>
+    <col min="13066" max="13313" width="9" style="37"/>
+    <col min="13314" max="13314" width="11.375" style="37" customWidth="1"/>
+    <col min="13315" max="13315" width="9.75" style="37" customWidth="1"/>
+    <col min="13316" max="13316" width="8.125" style="37" customWidth="1"/>
+    <col min="13317" max="13317" width="12.5" style="37" customWidth="1"/>
+    <col min="13318" max="13318" width="16.25" style="37" customWidth="1"/>
+    <col min="13319" max="13319" width="6.125" style="37" customWidth="1"/>
+    <col min="13320" max="13320" width="9.375" style="37" customWidth="1"/>
+    <col min="13321" max="13321" width="13.125" style="37" customWidth="1"/>
+    <col min="13322" max="13569" width="9" style="37"/>
+    <col min="13570" max="13570" width="11.375" style="37" customWidth="1"/>
+    <col min="13571" max="13571" width="9.75" style="37" customWidth="1"/>
+    <col min="13572" max="13572" width="8.125" style="37" customWidth="1"/>
+    <col min="13573" max="13573" width="12.5" style="37" customWidth="1"/>
+    <col min="13574" max="13574" width="16.25" style="37" customWidth="1"/>
+    <col min="13575" max="13575" width="6.125" style="37" customWidth="1"/>
+    <col min="13576" max="13576" width="9.375" style="37" customWidth="1"/>
+    <col min="13577" max="13577" width="13.125" style="37" customWidth="1"/>
+    <col min="13578" max="13825" width="9" style="37"/>
+    <col min="13826" max="13826" width="11.375" style="37" customWidth="1"/>
+    <col min="13827" max="13827" width="9.75" style="37" customWidth="1"/>
+    <col min="13828" max="13828" width="8.125" style="37" customWidth="1"/>
+    <col min="13829" max="13829" width="12.5" style="37" customWidth="1"/>
+    <col min="13830" max="13830" width="16.25" style="37" customWidth="1"/>
+    <col min="13831" max="13831" width="6.125" style="37" customWidth="1"/>
+    <col min="13832" max="13832" width="9.375" style="37" customWidth="1"/>
+    <col min="13833" max="13833" width="13.125" style="37" customWidth="1"/>
+    <col min="13834" max="14081" width="9" style="37"/>
+    <col min="14082" max="14082" width="11.375" style="37" customWidth="1"/>
+    <col min="14083" max="14083" width="9.75" style="37" customWidth="1"/>
+    <col min="14084" max="14084" width="8.125" style="37" customWidth="1"/>
+    <col min="14085" max="14085" width="12.5" style="37" customWidth="1"/>
+    <col min="14086" max="14086" width="16.25" style="37" customWidth="1"/>
+    <col min="14087" max="14087" width="6.125" style="37" customWidth="1"/>
+    <col min="14088" max="14088" width="9.375" style="37" customWidth="1"/>
+    <col min="14089" max="14089" width="13.125" style="37" customWidth="1"/>
+    <col min="14090" max="14337" width="9" style="37"/>
+    <col min="14338" max="14338" width="11.375" style="37" customWidth="1"/>
+    <col min="14339" max="14339" width="9.75" style="37" customWidth="1"/>
+    <col min="14340" max="14340" width="8.125" style="37" customWidth="1"/>
+    <col min="14341" max="14341" width="12.5" style="37" customWidth="1"/>
+    <col min="14342" max="14342" width="16.25" style="37" customWidth="1"/>
+    <col min="14343" max="14343" width="6.125" style="37" customWidth="1"/>
+    <col min="14344" max="14344" width="9.375" style="37" customWidth="1"/>
+    <col min="14345" max="14345" width="13.125" style="37" customWidth="1"/>
+    <col min="14346" max="14593" width="9" style="37"/>
+    <col min="14594" max="14594" width="11.375" style="37" customWidth="1"/>
+    <col min="14595" max="14595" width="9.75" style="37" customWidth="1"/>
+    <col min="14596" max="14596" width="8.125" style="37" customWidth="1"/>
+    <col min="14597" max="14597" width="12.5" style="37" customWidth="1"/>
+    <col min="14598" max="14598" width="16.25" style="37" customWidth="1"/>
+    <col min="14599" max="14599" width="6.125" style="37" customWidth="1"/>
+    <col min="14600" max="14600" width="9.375" style="37" customWidth="1"/>
+    <col min="14601" max="14601" width="13.125" style="37" customWidth="1"/>
+    <col min="14602" max="14849" width="9" style="37"/>
+    <col min="14850" max="14850" width="11.375" style="37" customWidth="1"/>
+    <col min="14851" max="14851" width="9.75" style="37" customWidth="1"/>
+    <col min="14852" max="14852" width="8.125" style="37" customWidth="1"/>
+    <col min="14853" max="14853" width="12.5" style="37" customWidth="1"/>
+    <col min="14854" max="14854" width="16.25" style="37" customWidth="1"/>
+    <col min="14855" max="14855" width="6.125" style="37" customWidth="1"/>
+    <col min="14856" max="14856" width="9.375" style="37" customWidth="1"/>
+    <col min="14857" max="14857" width="13.125" style="37" customWidth="1"/>
+    <col min="14858" max="15105" width="9" style="37"/>
+    <col min="15106" max="15106" width="11.375" style="37" customWidth="1"/>
+    <col min="15107" max="15107" width="9.75" style="37" customWidth="1"/>
+    <col min="15108" max="15108" width="8.125" style="37" customWidth="1"/>
+    <col min="15109" max="15109" width="12.5" style="37" customWidth="1"/>
+    <col min="15110" max="15110" width="16.25" style="37" customWidth="1"/>
+    <col min="15111" max="15111" width="6.125" style="37" customWidth="1"/>
+    <col min="15112" max="15112" width="9.375" style="37" customWidth="1"/>
+    <col min="15113" max="15113" width="13.125" style="37" customWidth="1"/>
+    <col min="15114" max="15361" width="9" style="37"/>
+    <col min="15362" max="15362" width="11.375" style="37" customWidth="1"/>
+    <col min="15363" max="15363" width="9.75" style="37" customWidth="1"/>
+    <col min="15364" max="15364" width="8.125" style="37" customWidth="1"/>
+    <col min="15365" max="15365" width="12.5" style="37" customWidth="1"/>
+    <col min="15366" max="15366" width="16.25" style="37" customWidth="1"/>
+    <col min="15367" max="15367" width="6.125" style="37" customWidth="1"/>
+    <col min="15368" max="15368" width="9.375" style="37" customWidth="1"/>
+    <col min="15369" max="15369" width="13.125" style="37" customWidth="1"/>
+    <col min="15370" max="15617" width="9" style="37"/>
+    <col min="15618" max="15618" width="11.375" style="37" customWidth="1"/>
+    <col min="15619" max="15619" width="9.75" style="37" customWidth="1"/>
+    <col min="15620" max="15620" width="8.125" style="37" customWidth="1"/>
+    <col min="15621" max="15621" width="12.5" style="37" customWidth="1"/>
+    <col min="15622" max="15622" width="16.25" style="37" customWidth="1"/>
+    <col min="15623" max="15623" width="6.125" style="37" customWidth="1"/>
+    <col min="15624" max="15624" width="9.375" style="37" customWidth="1"/>
+    <col min="15625" max="15625" width="13.125" style="37" customWidth="1"/>
+    <col min="15626" max="15873" width="9" style="37"/>
+    <col min="15874" max="15874" width="11.375" style="37" customWidth="1"/>
+    <col min="15875" max="15875" width="9.75" style="37" customWidth="1"/>
+    <col min="15876" max="15876" width="8.125" style="37" customWidth="1"/>
+    <col min="15877" max="15877" width="12.5" style="37" customWidth="1"/>
+    <col min="15878" max="15878" width="16.25" style="37" customWidth="1"/>
+    <col min="15879" max="15879" width="6.125" style="37" customWidth="1"/>
+    <col min="15880" max="15880" width="9.375" style="37" customWidth="1"/>
+    <col min="15881" max="15881" width="13.125" style="37" customWidth="1"/>
+    <col min="15882" max="16129" width="9" style="37"/>
+    <col min="16130" max="16130" width="11.375" style="37" customWidth="1"/>
+    <col min="16131" max="16131" width="9.75" style="37" customWidth="1"/>
+    <col min="16132" max="16132" width="8.125" style="37" customWidth="1"/>
+    <col min="16133" max="16133" width="12.5" style="37" customWidth="1"/>
+    <col min="16134" max="16134" width="16.25" style="37" customWidth="1"/>
+    <col min="16135" max="16135" width="6.125" style="37" customWidth="1"/>
+    <col min="16136" max="16136" width="9.375" style="37" customWidth="1"/>
+    <col min="16137" max="16137" width="13.125" style="37" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B1" s="139" t="s">
+    <row r="1" spans="1:12" ht="32.25" customHeight="1">
+      <c r="B1" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-    </row>
-    <row r="2" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B2" s="139" t="s">
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+    </row>
+    <row r="2" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B2" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-    </row>
-    <row r="3" spans="2:12" s="41" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+    </row>
+    <row r="3" spans="1:12" s="39" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B3" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-    </row>
-    <row r="4" spans="2:12" s="41" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B4" s="40" t="s">
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+    </row>
+    <row r="4" spans="1:12" s="39" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B4" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-    </row>
-    <row r="5" spans="2:12" s="41" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B5" s="40" t="s">
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+    </row>
+    <row r="5" spans="1:12" s="39" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B5" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="40" t="s">
+      <c r="D5" s="145"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="142" t="s">
+      <c r="G5" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="143"/>
-      <c r="I5" s="144"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7" spans="2:12" ht="21" customHeight="1">
-      <c r="B7" s="128" t="s">
+      <c r="H5" s="145"/>
+      <c r="I5" s="146"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1">
+      <c r="B7" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-    </row>
-    <row r="8" spans="2:12" ht="21" customHeight="1">
-      <c r="B8" s="129" t="s">
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1">
+      <c r="B8" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-    </row>
-    <row r="9" spans="2:12" s="41" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="130" t="s">
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+    </row>
+    <row r="9" spans="1:12" s="39" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B9" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="113" t="str">
+      <c r="C9" s="115" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="130" t="s">
+      <c r="D9" s="115"/>
+      <c r="E9" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="113" t="str">
+      <c r="F9" s="115" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="113"/>
-      <c r="H9" s="131" t="s">
+      <c r="G9" s="115"/>
+      <c r="H9" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="133">
+      <c r="I9" s="135">
         <f>記入!B21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" s="41" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="134"/>
-    </row>
-    <row r="11" spans="2:12" s="41" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="135" t="s">
+    <row r="10" spans="1:12" s="39" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="136"/>
+    </row>
+    <row r="11" spans="1:12" s="39" customFormat="1" ht="45" customHeight="1">
+      <c r="B11" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="136" t="str">
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="138" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="138"/>
-      <c r="L11" s="44"/>
-    </row>
-    <row r="12" spans="2:12" s="41" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="135" t="s">
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="140"/>
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="1:12" s="39" customFormat="1" ht="45" customHeight="1">
+      <c r="B12" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="136" t="str">
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="138" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="138"/>
-    </row>
-    <row r="13" spans="2:12" s="46" customFormat="1" ht="45" customHeight="1">
-      <c r="B13" s="45" t="s">
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="140"/>
+    </row>
+    <row r="13" spans="1:12" s="44" customFormat="1" ht="45" customHeight="1">
+      <c r="B13" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="127" t="str">
+      <c r="C13" s="129" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-    </row>
-    <row r="14" spans="2:12" s="46" customFormat="1" ht="45" customHeight="1">
-      <c r="B14" s="56" t="s">
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+    </row>
+    <row r="14" spans="1:12" s="44" customFormat="1" ht="45" customHeight="1">
+      <c r="B14" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="126" t="str">
+      <c r="C14" s="128" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-    </row>
-    <row r="15" spans="2:12" s="46" customFormat="1" ht="45" customHeight="1">
-      <c r="B15" s="57" t="s">
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+    </row>
+    <row r="15" spans="1:12" s="44" customFormat="1" ht="45" customHeight="1">
+      <c r="B15" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="111" t="str">
+      <c r="C15" s="113" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="58" t="s">
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="2:9" s="50" customFormat="1" ht="15">
-      <c r="B17" s="47" t="s">
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="2:9" s="48" customFormat="1" ht="15">
+      <c r="B17" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-    </row>
-    <row r="18" spans="2:9" s="50" customFormat="1" ht="15">
-      <c r="B18" s="51" t="s">
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+    </row>
+    <row r="18" spans="2:9" s="48" customFormat="1" ht="15">
+      <c r="B18" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-    </row>
-    <row r="19" spans="2:9" s="50" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B19" s="53" t="s">
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+    </row>
+    <row r="19" spans="2:9" s="48" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B19" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="114" t="s">
+      <c r="C19" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="53" t="s">
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="114" t="s">
+      <c r="G19" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="114"/>
-      <c r="I19" s="53" t="s">
+      <c r="H19" s="116"/>
+      <c r="I19" s="51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="2:9" s="50" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="115" t="s">
+    <row r="20" spans="2:9" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B20" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="116" t="str">
+      <c r="C20" s="118" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="125">
+      <c r="D20" s="119"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="127">
         <v>1</v>
       </c>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109" t="str">
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
-    <row r="21" spans="2:9" s="50" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="115"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-    </row>
-    <row r="22" spans="2:9" s="50" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="115"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-    </row>
-    <row r="23" spans="2:9" s="50" customFormat="1">
-      <c r="B23" s="107" t="s">
+    <row r="21" spans="2:9" s="48" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B21" s="117"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+    </row>
+    <row r="22" spans="2:9" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B22" s="117"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+    </row>
+    <row r="23" spans="2:9" s="48" customFormat="1">
+      <c r="B23" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="109">
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="111">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="109">
+      <c r="G23" s="111">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109" t="str">
+      <c r="H23" s="111"/>
+      <c r="I23" s="111" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="50" customFormat="1">
-      <c r="B24" s="107"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-    </row>
-    <row r="25" spans="2:9" s="50" customFormat="1" ht="24" customHeight="1">
-      <c r="B25" s="110" t="s">
+    <row r="24" spans="2:9" s="48" customFormat="1">
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+    </row>
+    <row r="25" spans="2:9" s="48" customFormat="1" ht="24" customHeight="1">
+      <c r="B25" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-    </row>
-    <row r="26" spans="2:9" s="50" customFormat="1">
-      <c r="B26" s="49" t="s">
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+    </row>
+    <row r="26" spans="2:9" s="48" customFormat="1">
+      <c r="B26" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-    </row>
-    <row r="27" spans="2:9" s="50" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-    </row>
-    <row r="28" spans="2:9" s="50" customFormat="1">
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="106" t="s">
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+    </row>
+    <row r="27" spans="2:9" s="48" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+    </row>
+    <row r="28" spans="2:9" s="48" customFormat="1">
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="49"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="47"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="106" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="42"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="40"/>
     </row>
     <row r="31" spans="2:9">
       <c r="F31" s="13"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
     </row>
     <row r="32" spans="2:9">
       <c r="F32" s="8"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -4092,5 +4163,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
   <si>
     <t>Issued Date：</t>
   </si>
@@ -719,6 +719,10 @@
   </si>
   <si>
     <t>${statime[1]}</t>
+  </si>
+  <si>
+    <t>${pd.claimdate}</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -730,7 +734,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,6 +970,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1248,7 +1258,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1442,9 +1452,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1455,6 +1462,10 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1664,6 +1675,19 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2092,8 +2116,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2131,7 +2155,7 @@
       <c r="A3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="73" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -2144,7 +2168,7 @@
       <c r="A4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="73" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -2168,7 +2192,7 @@
       <c r="A6" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="73" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -2192,7 +2216,7 @@
       <c r="A8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="73" t="s">
         <v>113</v>
       </c>
       <c r="C8" s="33" t="s">
@@ -2216,7 +2240,7 @@
       <c r="A10" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="73" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="33" t="s">
@@ -2229,7 +2253,7 @@
       <c r="A11" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="33" t="s">
@@ -2242,7 +2266,7 @@
       <c r="A12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="73" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -2255,7 +2279,7 @@
       <c r="A13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="73" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="33" t="s">
@@ -2268,7 +2292,7 @@
       <c r="A14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="75" t="s">
         <v>118</v>
       </c>
       <c r="C14" s="33" t="s">
@@ -2281,7 +2305,7 @@
       <c r="A15" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="75" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="33" t="s">
@@ -2340,7 +2364,7 @@
       <c r="A20" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="73" t="s">
         <v>114</v>
       </c>
       <c r="C20" s="33" t="s">
@@ -2353,7 +2377,9 @@
       <c r="A21" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="73"/>
+      <c r="B21" s="76" t="s">
+        <v>120</v>
+      </c>
       <c r="C21" s="33" t="s">
         <v>38</v>
       </c>
@@ -2397,7 +2423,7 @@
       <c r="A25" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="74" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="33" t="s">
@@ -2410,7 +2436,7 @@
       <c r="A26" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="73" t="s">
         <v>116</v>
       </c>
       <c r="C26" s="33" t="s">
@@ -2423,7 +2449,7 @@
       <c r="A27" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="73" t="s">
         <v>117</v>
       </c>
       <c r="C27" s="33" t="s">
@@ -2532,8 +2558,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2560,11 +2586,11 @@
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="86">
+      <c r="H1" s="147" t="str">
         <f>記入!B21</f>
-        <v>0</v>
-      </c>
-      <c r="I1" s="86"/>
+        <v>${pd.claimdate}</v>
+      </c>
+      <c r="I1" s="75"/>
       <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1">
@@ -3071,8 +3097,7 @@
       <c r="J37" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="H1:I1"/>
+  <mergeCells count="33">
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="C27:F27"/>
@@ -3120,8 +3145,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3830,9 +3855,9 @@
       <c r="H9" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="135">
+      <c r="I9" s="135" t="str">
         <f>記入!B21</f>
-        <v>0</v>
+        <v>${pd.claimdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="39" customFormat="1" ht="20.25" customHeight="1">
@@ -3852,13 +3877,13 @@
       <c r="C11" s="137"/>
       <c r="D11" s="137"/>
       <c r="E11" s="137"/>
-      <c r="F11" s="138" t="str">
+      <c r="F11" s="148" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="140"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
       <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:12" s="39" customFormat="1" ht="45" customHeight="1">

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -729,7 +729,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;US$&quot;#,##0;\-&quot;US$&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
@@ -1258,7 +1259,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1431,12 +1432,6 @@
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1466,220 +1461,193 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1688,6 +1656,45 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="21" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2116,8 +2123,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2131,14 +2138,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="D1" s="78" t="s">
+      <c r="B1" s="76"/>
+      <c r="D1" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="34" t="s">
@@ -2148,34 +2155,34 @@
       <c r="C2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="71" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="71" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="34" t="s">
@@ -2185,21 +2192,21 @@
       <c r="C5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="71" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="36" t="s">
@@ -2209,21 +2216,21 @@
       <c r="C7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="71" t="s">
         <v>113</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="35" t="s">
@@ -2233,86 +2240,86 @@
       <c r="C9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="71" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
     </row>
     <row r="11" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="71" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="71" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="71" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="73" t="s">
         <v>118</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="73" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="34" t="s">
@@ -2322,8 +2329,8 @@
       <c r="C16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="34" t="s">
@@ -2333,8 +2340,8 @@
       <c r="C17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="34" t="s">
@@ -2344,8 +2351,8 @@
       <c r="C18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="34" t="s">
@@ -2357,34 +2364,34 @@
       <c r="C19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="152" t="s">
         <v>114</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="74" t="s">
         <v>120</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="34" t="s">
@@ -2394,8 +2401,8 @@
       <c r="C22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
     </row>
     <row r="23" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="35" t="s">
@@ -2405,8 +2412,8 @@
       <c r="C23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
     </row>
     <row r="24" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="35" t="s">
@@ -2416,47 +2423,47 @@
       <c r="C24" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="72" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="71" t="s">
         <v>116</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
     </row>
     <row r="27" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="71" t="s">
         <v>117</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
     </row>
     <row r="28" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="35" t="s">
@@ -2466,8 +2473,8 @@
       <c r="C28" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
     </row>
     <row r="29" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="35" t="s">
@@ -2479,8 +2486,8 @@
       <c r="C29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
     </row>
     <row r="30" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="35" t="s">
@@ -2492,8 +2499,8 @@
       <c r="C30" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="10"/>
@@ -2558,8 +2565,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2586,11 +2593,11 @@
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="147" t="str">
+      <c r="H1" s="75" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
-      <c r="I1" s="75"/>
+      <c r="I1" s="73"/>
       <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1">
@@ -2602,31 +2609,31 @@
       <c r="G2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="86" t="str">
+      <c r="H2" s="85" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="86"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:13" ht="27" customHeight="1">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="23"/>
       <c r="G3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="86" t="str">
+      <c r="H3" s="85" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="86"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="24"/>
       <c r="K3" s="2"/>
       <c r="M3" s="1"/>
@@ -2635,19 +2642,19 @@
       <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="85" t="str">
+      <c r="G4" s="84" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="85"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="64"/>
       <c r="J4" s="64"/>
       <c r="K4" s="2"/>
@@ -2657,17 +2664,17 @@
       <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="85" t="str">
+      <c r="G5" s="84" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="85"/>
+      <c r="H5" s="84"/>
       <c r="I5" s="64"/>
       <c r="J5" s="64"/>
     </row>
@@ -2675,14 +2682,14 @@
       <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
       <c r="I6" s="63"/>
       <c r="J6" s="63"/>
     </row>
@@ -2690,14 +2697,14 @@
       <c r="B7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
       <c r="I7" s="62"/>
       <c r="J7" s="62"/>
     </row>
@@ -2705,14 +2712,14 @@
       <c r="B8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
     </row>
@@ -2720,78 +2727,78 @@
       <c r="B9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:13" ht="31.5" customHeight="1">
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
       <c r="I10" s="61"/>
       <c r="J10" s="61"/>
     </row>
     <row r="11" spans="1:13" ht="24" customHeight="1">
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
       <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="66" t="str">
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="150" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
       <c r="K12" s="65"/>
     </row>
     <row r="13" spans="1:13" ht="22.15" customHeight="1">
       <c r="B13" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="87" t="str">
+      <c r="C13" s="86" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="24.6" customHeight="1">
@@ -2811,60 +2818,60 @@
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="42.6" customHeight="1">
       <c r="B15" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="105" t="str">
+      <c r="C15" s="104" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:13" ht="40.9" customHeight="1">
       <c r="B16" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="89" t="str">
+      <c r="C16" s="88" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="2:12" ht="19.149999999999999" customHeight="1">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="67" t="str">
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="151" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
       <c r="K17" s="65"/>
     </row>
     <row r="18" spans="2:12" ht="22.5" customHeight="1">
@@ -2890,66 +2897,66 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:12" ht="24" customHeight="1">
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:12" ht="24" customHeight="1">
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
       <c r="H21" s="7"/>
       <c r="I21" s="60"/>
       <c r="J21" s="60"/>
     </row>
     <row r="22" spans="2:12" ht="23.25" customHeight="1">
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
     </row>
     <row r="23" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="2:12" ht="28.5" customHeight="1">
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
@@ -2967,29 +2974,29 @@
     </row>
     <row r="26" spans="2:12" ht="14.45" customHeight="1">
       <c r="B26" s="7"/>
-      <c r="C26" s="98" t="s">
+      <c r="C26" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98" t="s">
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="H26" s="98"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
       <c r="K26" s="58"/>
       <c r="L26" s="58"/>
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="3"/>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -3145,8 +3152,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:I11"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3732,74 +3739,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
     </row>
     <row r="4" spans="1:12" s="39" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
     </row>
     <row r="5" spans="1:12" s="39" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="146"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="148"/>
       <c r="F5" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="144" t="s">
+      <c r="G5" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="145"/>
-      <c r="I5" s="146"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="148"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="40"/>
@@ -3812,141 +3819,141 @@
       <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
     </row>
     <row r="9" spans="1:12" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="115" t="str">
+      <c r="C9" s="114" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="132" t="s">
+      <c r="D9" s="114"/>
+      <c r="E9" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="115" t="str">
+      <c r="F9" s="114" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="133" t="s">
+      <c r="G9" s="114"/>
+      <c r="H9" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="135" t="str">
+      <c r="I9" s="134" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="39" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="136"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="135"/>
     </row>
     <row r="11" spans="1:12" s="39" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="148" t="str">
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="137" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="139"/>
       <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:12" s="39" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138" t="str">
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="140" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="142"/>
     </row>
     <row r="13" spans="1:12" s="44" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="129" t="str">
+      <c r="C13" s="128" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="128" t="str">
+      <c r="C14" s="127" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="113" t="str">
+      <c r="C15" s="112" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="40"/>
@@ -3990,101 +3997,101 @@
       <c r="B19" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
       <c r="F19" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="116" t="s">
+      <c r="G19" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="116"/>
+      <c r="H19" s="115"/>
       <c r="I19" s="51" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="48" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="118" t="str">
+      <c r="C20" s="117" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="127">
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="126">
         <v>1</v>
       </c>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111" t="str">
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="149" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="48" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="117"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="149"/>
     </row>
     <row r="22" spans="2:9" s="48" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="117"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="149"/>
     </row>
     <row r="23" spans="2:9" s="48" customFormat="1">
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="111">
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="110">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="111">
+      <c r="G23" s="110">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111" t="str">
+      <c r="H23" s="110"/>
+      <c r="I23" s="149" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="48" customFormat="1">
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="149"/>
     </row>
     <row r="25" spans="2:9" s="48" customFormat="1" ht="24" customHeight="1">
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
       <c r="G25" s="47"/>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -4116,11 +4123,11 @@
       <c r="C28" s="50"/>
       <c r="D28" s="47"/>
       <c r="E28" s="50"/>
-      <c r="F28" s="108" t="s">
+      <c r="F28" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
       <c r="I28" s="47"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -4128,11 +4135,11 @@
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
-      <c r="F29" s="108" t="s">
+      <c r="F29" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
       <c r="I29" s="40"/>
     </row>
     <row r="31" spans="2:9">

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Newtouch\SVN\07_P_FANS\05Dev\01Source\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -453,17 +453,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="&quot;US$&quot;#,##0;\-&quot;US$&quot;#,##0"/>
+    <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -594,7 +595,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -602,7 +603,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -626,7 +627,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -943,7 +944,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,9 +1092,6 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1139,11 +1137,17 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1785,7 +1789,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1799,14 +1803,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="D1" s="76" t="s">
+      <c r="B1" s="76"/>
+      <c r="D1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="77"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="44" t="s">
@@ -1816,21 +1820,21 @@
       <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="75" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="44" t="s">
@@ -1842,8 +1846,8 @@
       <c r="C4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="44" t="s">
@@ -1853,8 +1857,8 @@
       <c r="C5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="51" t="s">
@@ -1866,8 +1870,8 @@
       <c r="C6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="51" t="s">
@@ -1877,8 +1881,8 @@
       <c r="C7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="44" t="s">
@@ -1890,8 +1894,8 @@
       <c r="C8" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="47" t="s">
@@ -1901,8 +1905,8 @@
       <c r="C9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="44" t="s">
@@ -1914,8 +1918,8 @@
       <c r="C10" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
     </row>
     <row r="11" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="44" t="s">
@@ -1927,8 +1931,8 @@
       <c r="C11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="44" t="s">
@@ -1940,8 +1944,8 @@
       <c r="C12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="44" t="s">
@@ -1953,8 +1957,8 @@
       <c r="C13" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="44" t="s">
@@ -1966,8 +1970,8 @@
       <c r="C14" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="44" t="s">
@@ -1979,8 +1983,8 @@
       <c r="C15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="44" t="s">
@@ -1990,8 +1994,8 @@
       <c r="C16" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="44" t="s">
@@ -2001,8 +2005,8 @@
       <c r="C17" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="44" t="s">
@@ -2012,8 +2016,8 @@
       <c r="C18" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="44" t="s">
@@ -2025,8 +2029,8 @@
       <c r="C19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="44" t="s">
@@ -2038,8 +2042,8 @@
       <c r="C20" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="44" t="s">
@@ -2051,8 +2055,8 @@
       <c r="C21" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="44" t="s">
@@ -2062,8 +2066,8 @@
       <c r="C22" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
     </row>
     <row r="23" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="47" t="s">
@@ -2073,8 +2077,8 @@
       <c r="C23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
     </row>
     <row r="24" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="47" t="s">
@@ -2084,21 +2088,21 @@
       <c r="C24" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-    </row>
-    <row r="25" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+    </row>
+    <row r="25" spans="1:5" s="41" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A25" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="75" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
     </row>
     <row r="26" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="47" t="s">
@@ -2110,8 +2114,8 @@
       <c r="C26" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
     </row>
     <row r="27" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="47" t="s">
@@ -2123,8 +2127,8 @@
       <c r="C27" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
     </row>
     <row r="28" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="47" t="s">
@@ -2134,8 +2138,8 @@
       <c r="C28" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="78"/>
-      <c r="E28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
     </row>
     <row r="29" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="47" t="s">
@@ -2147,8 +2151,8 @@
       <c r="C29" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
     </row>
     <row r="30" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="47" t="s">
@@ -2160,8 +2164,8 @@
       <c r="C30" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="43"/>
@@ -2170,34 +2174,34 @@
       <c r="B32" s="43"/>
     </row>
     <row r="33" spans="1:3" ht="13.5">
-      <c r="A33" s="58"/>
+      <c r="A33" s="57"/>
     </row>
     <row r="34" spans="1:3" ht="13.5">
-      <c r="A34" s="58"/>
+      <c r="A34" s="57"/>
     </row>
     <row r="35" spans="1:3" ht="13.5">
-      <c r="A35" s="58"/>
+      <c r="A35" s="57"/>
     </row>
     <row r="36" spans="1:3" ht="13.5">
-      <c r="A36" s="58"/>
+      <c r="A36" s="57"/>
     </row>
     <row r="37" spans="1:3" ht="13.5">
-      <c r="A37" s="58"/>
+      <c r="A37" s="57"/>
     </row>
     <row r="38" spans="1:3" s="42" customFormat="1" ht="13.5">
-      <c r="A38" s="58"/>
+      <c r="A38" s="57"/>
       <c r="C38" s="43"/>
     </row>
     <row r="39" spans="1:3" s="42" customFormat="1" ht="13.5">
-      <c r="A39" s="58"/>
+      <c r="A39" s="57"/>
       <c r="C39" s="43"/>
     </row>
     <row r="40" spans="1:3" s="42" customFormat="1" ht="13.5">
-      <c r="A40" s="58"/>
+      <c r="A40" s="57"/>
       <c r="C40" s="43"/>
     </row>
     <row r="41" spans="1:3" s="42" customFormat="1" ht="13.5">
-      <c r="A41" s="58"/>
+      <c r="A41" s="57"/>
       <c r="C41" s="43"/>
     </row>
     <row r="42" spans="1:3" s="42" customFormat="1">
@@ -2231,70 +2235,70 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="59" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="59" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="59" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="59" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="59" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="59" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="59" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="59" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="1.875" style="59" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="59" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="59"/>
+    <col min="1" max="1" width="2.625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="58" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="58" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="58" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="58" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="58" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="58" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="58" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="1.875" style="58" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="58" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" customHeight="1">
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="105" t="str">
+      <c r="H1" s="106" t="str">
         <f>記入!B21</f>
         <v>${claimdate}</v>
       </c>
-      <c r="I1" s="105"/>
-      <c r="J1" s="62"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1">
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="106" t="str">
+      <c r="H2" s="107" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="J2" s="63"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="27" customHeight="1">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="100"/>
+      <c r="D3" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="99"/>
+      <c r="E3" s="100"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="106" t="str">
+      <c r="H3" s="107" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="99"/>
+      <c r="I3" s="100"/>
       <c r="J3" s="22"/>
       <c r="K3" s="37"/>
       <c r="M3" s="37"/>
@@ -2303,19 +2307,19 @@
       <c r="B4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
       <c r="F4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="102" t="str">
+      <c r="G4" s="103" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="102"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="37"/>
@@ -2325,17 +2329,17 @@
       <c r="B5" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="103" t="str">
+      <c r="G5" s="104" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="103"/>
+      <c r="H5" s="104"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
@@ -2343,101 +2347,101 @@
       <c r="B6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1">
       <c r="B7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:13" ht="39" customHeight="1">
       <c r="B8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:13" ht="24" customHeight="1">
       <c r="B9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:13" ht="31.5" customHeight="1">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:13" ht="24" customHeight="1">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
       <c r="H11" s="27" t="s">
         <v>65</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="65"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1">
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="90" t="str">
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="91" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2449,18 +2453,18 @@
       <c r="B13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="87" t="str">
+      <c r="C13" s="88" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="65"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:13" ht="24.6" customHeight="1">
       <c r="B14" s="28" t="s">
@@ -2479,55 +2483,55 @@
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="32"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="65"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:13" ht="42.6" customHeight="1">
       <c r="B15" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="87" t="str">
+      <c r="C15" s="88" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="65"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:13" ht="40.9" customHeight="1">
       <c r="B16" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="95" t="str">
+      <c r="C16" s="96" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="65"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="64"/>
     </row>
     <row r="17" spans="2:12" ht="19.149999999999999" customHeight="1">
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="74" t="str">
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="72" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2542,9 +2546,9 @@
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="2:12" ht="22.5" customHeight="1">
       <c r="B19" s="34"/>
@@ -2553,71 +2557,71 @@
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="2:12" ht="24" customHeight="1">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
     </row>
     <row r="21" spans="2:12" ht="24" customHeight="1">
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
     </row>
     <row r="22" spans="2:12" ht="23.25" customHeight="1">
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
     </row>
     <row r="23" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
     </row>
     <row r="24" spans="2:12" ht="28.5" customHeight="1">
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
@@ -2635,134 +2639,134 @@
     </row>
     <row r="26" spans="2:12" ht="14.45" customHeight="1">
       <c r="B26" s="35"/>
-      <c r="C26" s="94" t="s">
+      <c r="C26" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="89" t="s">
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="89"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="71"/>
-      <c r="C27" s="89" t="s">
+      <c r="B27" s="70"/>
+      <c r="C27" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="71"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="71"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -3399,74 +3403,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="150"/>
       <c r="F5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="147" t="s">
+      <c r="G5" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="148"/>
-      <c r="I5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="150"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="6"/>
@@ -3479,141 +3483,141 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="108" t="str">
+      <c r="C9" s="109" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="122" t="s">
+      <c r="D9" s="109"/>
+      <c r="E9" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="108" t="str">
+      <c r="F9" s="109" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="126" t="s">
+      <c r="G9" s="109"/>
+      <c r="H9" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="142" t="str">
+      <c r="I9" s="143" t="str">
         <f>記入!B21</f>
         <v>${claimdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="143"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="144"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="136" t="str">
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="137" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="139"/>
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="139" t="str">
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="140" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="142"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="128" t="str">
+      <c r="C13" s="129" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="129" t="str">
+      <c r="C14" s="130" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="130" t="str">
+      <c r="C15" s="131" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
       <c r="F15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="6"/>
@@ -3657,101 +3661,101 @@
       <c r="B19" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
       <c r="F19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="132" t="s">
+      <c r="G19" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="132"/>
+      <c r="H19" s="133"/>
       <c r="I19" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="109" t="str">
+      <c r="C20" s="110" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="125">
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="126">
         <v>1</v>
       </c>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="107" t="str">
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="108" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="123"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="107"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="108"/>
     </row>
     <row r="22" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="123"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="107"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="108"/>
     </row>
     <row r="23" spans="2:9" s="3" customFormat="1">
-      <c r="B23" s="124" t="s">
+      <c r="B23" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="118">
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="119">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="118">
+      <c r="G23" s="119">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="118"/>
-      <c r="I23" s="107" t="str">
+      <c r="H23" s="119"/>
+      <c r="I23" s="108" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="3" customFormat="1">
-      <c r="B24" s="124"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="107"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="108"/>
     </row>
     <row r="25" spans="2:9" s="3" customFormat="1" ht="24" customHeight="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="121" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -3783,11 +3787,11 @@
       <c r="C28" s="16"/>
       <c r="D28" s="13"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="121" t="s">
+      <c r="F28" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3795,11 +3799,11 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="121" t="s">
+      <c r="F29" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
       <c r="I29" s="6"/>
     </row>
     <row r="31" spans="2:9">

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6870" tabRatio="570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6870" tabRatio="570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -453,12 +453,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="&quot;US$&quot;#,##0;\-&quot;US$&quot;#,##0"/>
     <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1014,9 +1015,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1078,300 +1076,303 @@
     <xf numFmtId="14" fontId="19" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="19" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="19" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1788,429 +1789,429 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" activeCellId="2" sqref="B14 B15 B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="43" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="9" style="43"/>
-    <col min="4" max="4" width="4.625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="43" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="14.375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="9" style="42"/>
+    <col min="4" max="4" width="4.625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="D1" s="77" t="s">
+      <c r="B1" s="73"/>
+      <c r="D1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="78"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="77"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="80"/>
-    </row>
-    <row r="11" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="44" t="s">
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+    </row>
+    <row r="11" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="46" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="46" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="46" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
-    </row>
-    <row r="23" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="47" t="s">
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+    </row>
+    <row r="23" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="46" t="s">
+      <c r="B23" s="52"/>
+      <c r="C23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
-    </row>
-    <row r="24" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="47" t="s">
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+    </row>
+    <row r="24" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="46" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
-    </row>
-    <row r="25" spans="1:5" s="41" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="74" t="s">
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
+    </row>
+    <row r="25" spans="1:5" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A25" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
-    </row>
-    <row r="26" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="47" t="s">
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+    </row>
+    <row r="26" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
-    </row>
-    <row r="27" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="47" t="s">
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
+    </row>
+    <row r="27" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80"/>
-    </row>
-    <row r="28" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="47" t="s">
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
+    </row>
+    <row r="28" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="46" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
-    </row>
-    <row r="29" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="47" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
+    </row>
+    <row r="29" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-    </row>
-    <row r="30" spans="1:5" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="47" t="s">
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
+    </row>
+    <row r="30" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="82"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="79"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="B31" s="43"/>
+      <c r="B31" s="42"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="B32" s="43"/>
+      <c r="B32" s="42"/>
     </row>
     <row r="33" spans="1:3" ht="13.5">
-      <c r="A33" s="57"/>
+      <c r="A33" s="54"/>
     </row>
     <row r="34" spans="1:3" ht="13.5">
-      <c r="A34" s="57"/>
+      <c r="A34" s="54"/>
     </row>
     <row r="35" spans="1:3" ht="13.5">
-      <c r="A35" s="57"/>
+      <c r="A35" s="54"/>
     </row>
     <row r="36" spans="1:3" ht="13.5">
-      <c r="A36" s="57"/>
+      <c r="A36" s="54"/>
     </row>
     <row r="37" spans="1:3" ht="13.5">
-      <c r="A37" s="57"/>
-    </row>
-    <row r="38" spans="1:3" s="42" customFormat="1" ht="13.5">
-      <c r="A38" s="57"/>
-      <c r="C38" s="43"/>
-    </row>
-    <row r="39" spans="1:3" s="42" customFormat="1" ht="13.5">
-      <c r="A39" s="57"/>
-      <c r="C39" s="43"/>
-    </row>
-    <row r="40" spans="1:3" s="42" customFormat="1" ht="13.5">
-      <c r="A40" s="57"/>
-      <c r="C40" s="43"/>
-    </row>
-    <row r="41" spans="1:3" s="42" customFormat="1" ht="13.5">
-      <c r="A41" s="57"/>
-      <c r="C41" s="43"/>
-    </row>
-    <row r="42" spans="1:3" s="42" customFormat="1">
-      <c r="A42" s="43"/>
-      <c r="C42" s="43"/>
-    </row>
-    <row r="43" spans="1:3" s="42" customFormat="1">
-      <c r="A43" s="43"/>
-      <c r="C43" s="43"/>
+      <c r="A37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" s="41" customFormat="1" ht="13.5">
+      <c r="A38" s="54"/>
+      <c r="C38" s="42"/>
+    </row>
+    <row r="39" spans="1:3" s="41" customFormat="1" ht="13.5">
+      <c r="A39" s="54"/>
+      <c r="C39" s="42"/>
+    </row>
+    <row r="40" spans="1:3" s="41" customFormat="1" ht="13.5">
+      <c r="A40" s="54"/>
+      <c r="C40" s="42"/>
+    </row>
+    <row r="41" spans="1:3" s="41" customFormat="1" ht="13.5">
+      <c r="A41" s="54"/>
+      <c r="C41" s="42"/>
+    </row>
+    <row r="42" spans="1:3" s="41" customFormat="1">
+      <c r="A42" s="42"/>
+      <c r="C42" s="42"/>
+    </row>
+    <row r="43" spans="1:3" s="41" customFormat="1">
+      <c r="A43" s="42"/>
+      <c r="C43" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2219,9 +2220,9 @@
   </mergeCells>
   <phoneticPr fontId="26"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2229,117 +2230,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H16"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" activeCellId="2" sqref="H1:I1 C14 E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="58" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="58" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="58" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="58" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="58" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="58" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="58" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="1.875" style="58" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="58" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="58"/>
+    <col min="1" max="1" width="2.625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="55" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="55" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="55" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="55" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="55" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="55" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="55" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="55" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="1.875" style="55" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="55" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" customHeight="1">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="106" t="str">
+      <c r="H1" s="147" t="str">
         <f>記入!B21</f>
         <v>${claimdate}</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="61"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1">
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="107" t="str">
+      <c r="H2" s="80" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="62"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:13" ht="27" customHeight="1">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="107" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="100"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="107" t="str">
+      <c r="H3" s="80" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="100"/>
+      <c r="I3" s="81"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="37"/>
-      <c r="M3" s="37"/>
+      <c r="K3" s="36"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1">
       <c r="B4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="103" t="str">
+      <c r="G4" s="82" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="K4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="53.25" customHeight="1">
       <c r="B5" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="104" t="str">
+      <c r="G5" s="83" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="104"/>
+      <c r="H5" s="83"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
@@ -2347,446 +2348,429 @@
       <c r="B6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1">
       <c r="B7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:13" ht="39" customHeight="1">
       <c r="B8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="24" customHeight="1">
       <c r="B9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="31.5" customHeight="1">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:13" ht="24" customHeight="1">
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="64"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1">
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="91" t="str">
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="95" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:13" ht="22.15" customHeight="1">
       <c r="B13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="88" t="str">
+      <c r="C13" s="92" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="1:13" ht="24.6" customHeight="1">
       <c r="B14" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="29" t="str">
+      <c r="C14" s="148" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="29" t="str">
+      <c r="E14" s="148" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="64"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="61"/>
     </row>
     <row r="15" spans="1:13" ht="42.6" customHeight="1">
       <c r="B15" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="88" t="str">
+      <c r="C15" s="92" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="64"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="61"/>
     </row>
     <row r="16" spans="1:13" ht="40.9" customHeight="1">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="96" t="str">
+      <c r="C16" s="100" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="64"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="61"/>
     </row>
     <row r="17" spans="2:12" ht="19.149999999999999" customHeight="1">
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="72" t="str">
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="69" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="40"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
     </row>
     <row r="18" spans="2:12" ht="22.5" customHeight="1">
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="2:12" ht="22.5" customHeight="1">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="2:12" ht="24" customHeight="1">
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="2:12" ht="24" customHeight="1">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="2:12" ht="23.25" customHeight="1">
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
     </row>
     <row r="23" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="2:12" ht="28.5" customHeight="1">
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="2:12" ht="14.45" customHeight="1">
-      <c r="B26" s="35"/>
-      <c r="C26" s="95" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="90" t="s">
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="90"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="70"/>
-      <c r="C27" s="90" t="s">
+      <c r="B27" s="67"/>
+      <c r="C27" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="70"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="70"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="70"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
@@ -2803,6 +2787,23 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="26"/>
   <pageMargins left="0.511811023622047" right="0.511811023622047" top="0.55118110236220497" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
@@ -2816,7 +2817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I9" sqref="I9:I10"/>
     </sheetView>
   </sheetViews>
@@ -3403,74 +3404,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="149"/>
-      <c r="E5" s="150"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="148" t="s">
+      <c r="G5" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="149"/>
-      <c r="I5" s="150"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="109"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="6"/>
@@ -3483,94 +3484,94 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="109" t="str">
+      <c r="C9" s="122" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="123" t="s">
+      <c r="D9" s="122"/>
+      <c r="E9" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="109" t="str">
+      <c r="F9" s="122" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="109"/>
+      <c r="G9" s="122"/>
       <c r="H9" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="143" t="str">
+      <c r="I9" s="149" t="str">
         <f>記入!B21</f>
         <v>${claimdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
       <c r="H10" s="128"/>
-      <c r="I10" s="144"/>
+      <c r="I10" s="150"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="137" t="str">
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="113" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="139"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="115"/>
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="140" t="str">
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="116" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="142"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="118"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="8" t="s">
@@ -3615,9 +3616,9 @@
       <c r="F15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="6"/>
@@ -3678,84 +3679,84 @@
       </c>
     </row>
     <row r="20" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="110" t="str">
+      <c r="C20" s="135" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="126">
+      <c r="D20" s="136"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="125">
         <v>1</v>
       </c>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="108" t="str">
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="134" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="124"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="108"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="134"/>
     </row>
     <row r="22" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="124"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="108"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="134"/>
     </row>
     <row r="23" spans="2:9" s="3" customFormat="1">
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="119">
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="126">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="119">
+      <c r="G23" s="126">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="119"/>
-      <c r="I23" s="108" t="str">
+      <c r="H23" s="126"/>
+      <c r="I23" s="134" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="3" customFormat="1">
-      <c r="B24" s="125"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="108"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="134"/>
     </row>
     <row r="25" spans="2:9" s="3" customFormat="1" ht="24" customHeight="1">
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -3787,11 +3788,11 @@
       <c r="C28" s="16"/>
       <c r="D28" s="13"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="122" t="s">
+      <c r="F28" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3799,11 +3800,11 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="122" t="s">
+      <c r="F29" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
       <c r="I29" s="6"/>
     </row>
     <row r="31" spans="2:9">
@@ -3818,19 +3819,14 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="G23:H24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F29:H29"/>
@@ -3847,14 +3843,19 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="26"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6870" tabRatio="570" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6870" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -459,7 +459,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="&quot;US$&quot;#,##0;\-&quot;US$&quot;#,##0"/>
     <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -472,6 +472,8 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -945,7 +947,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1139,6 +1141,17 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="19" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1160,6 +1173,9 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1167,14 +1183,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1277,6 +1296,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1355,34 +1380,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="19" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2"/>
     <cellStyle name="標準 3" xfId="1"/>
     <cellStyle name="標準 4" xfId="3"/>
     <cellStyle name="標準 5" xfId="4"/>
     <cellStyle name="標準 6" xfId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1501,7 +1509,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1789,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" activeCellId="2" sqref="B14 B15 B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1804,14 +1812,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="D1" s="74" t="s">
+      <c r="B1" s="76"/>
+      <c r="D1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="75"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="43" t="s">
@@ -1821,8 +1829,8 @@
       <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1">
       <c r="A3" s="71" t="s">
@@ -1834,21 +1842,21 @@
       <c r="C3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="43" t="s">
@@ -1858,21 +1866,21 @@
       <c r="C5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="152" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="50" t="s">
@@ -1882,8 +1890,8 @@
       <c r="C7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="43" t="s">
@@ -1895,8 +1903,8 @@
       <c r="C8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -1906,8 +1914,8 @@
       <c r="C9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="43" t="s">
@@ -1919,8 +1927,8 @@
       <c r="C10" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
     </row>
     <row r="11" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="43" t="s">
@@ -1932,8 +1940,8 @@
       <c r="C11" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="43" t="s">
@@ -1945,8 +1953,8 @@
       <c r="C12" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="43" t="s">
@@ -1958,34 +1966,34 @@
       <c r="C13" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="73" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="73" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -1995,8 +2003,8 @@
       <c r="C16" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="43" t="s">
@@ -2006,8 +2014,8 @@
       <c r="C17" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="43" t="s">
@@ -2017,8 +2025,8 @@
       <c r="C18" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="43" t="s">
@@ -2030,8 +2038,8 @@
       <c r="C19" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="43" t="s">
@@ -2043,21 +2051,21 @@
       <c r="C20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="146" t="s">
+      <c r="B21" s="74" t="s">
         <v>112</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="43" t="s">
@@ -2067,8 +2075,8 @@
       <c r="C22" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
     </row>
     <row r="23" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="46" t="s">
@@ -2078,8 +2086,8 @@
       <c r="C23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
     </row>
     <row r="24" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="46" t="s">
@@ -2089,8 +2097,8 @@
       <c r="C24" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
     </row>
     <row r="25" spans="1:5" s="40" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="71" t="s">
@@ -2102,8 +2110,8 @@
       <c r="C25" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
     </row>
     <row r="26" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="46" t="s">
@@ -2115,8 +2123,8 @@
       <c r="C26" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
     </row>
     <row r="27" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="46" t="s">
@@ -2128,8 +2136,8 @@
       <c r="C27" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
     </row>
     <row r="28" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="46" t="s">
@@ -2139,8 +2147,8 @@
       <c r="C28" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
     </row>
     <row r="29" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="46" t="s">
@@ -2152,8 +2160,8 @@
       <c r="C29" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
     </row>
     <row r="30" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="46" t="s">
@@ -2165,8 +2173,8 @@
       <c r="C30" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="78"/>
-      <c r="E30" s="79"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="42"/>
@@ -2174,34 +2182,34 @@
     <row r="32" spans="1:5">
       <c r="B32" s="42"/>
     </row>
-    <row r="33" spans="1:3" ht="13.5">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" s="54"/>
     </row>
-    <row r="34" spans="1:3" ht="13.5">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="54"/>
     </row>
-    <row r="35" spans="1:3" ht="13.5">
+    <row r="35" spans="1:3" ht="15">
       <c r="A35" s="54"/>
     </row>
-    <row r="36" spans="1:3" ht="13.5">
+    <row r="36" spans="1:3" ht="15">
       <c r="A36" s="54"/>
     </row>
-    <row r="37" spans="1:3" ht="13.5">
+    <row r="37" spans="1:3" ht="15">
       <c r="A37" s="54"/>
     </row>
-    <row r="38" spans="1:3" s="41" customFormat="1" ht="13.5">
+    <row r="38" spans="1:3" s="41" customFormat="1" ht="15">
       <c r="A38" s="54"/>
       <c r="C38" s="42"/>
     </row>
-    <row r="39" spans="1:3" s="41" customFormat="1" ht="13.5">
+    <row r="39" spans="1:3" s="41" customFormat="1" ht="15">
       <c r="A39" s="54"/>
       <c r="C39" s="42"/>
     </row>
-    <row r="40" spans="1:3" s="41" customFormat="1" ht="13.5">
+    <row r="40" spans="1:3" s="41" customFormat="1" ht="15">
       <c r="A40" s="54"/>
       <c r="C40" s="42"/>
     </row>
-    <row r="41" spans="1:3" s="41" customFormat="1" ht="13.5">
+    <row r="41" spans="1:3" s="41" customFormat="1" ht="15">
       <c r="A41" s="54"/>
       <c r="C41" s="42"/>
     </row>
@@ -2230,9 +2238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" activeCellId="2" sqref="H1:I1 C14 E14"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -2259,11 +2265,11 @@
       <c r="G1" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="147" t="str">
+      <c r="H1" s="83" t="str">
         <f>記入!B21</f>
         <v>${claimdate}</v>
       </c>
-      <c r="I1" s="147"/>
+      <c r="I1" s="83"/>
       <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1">
@@ -2275,31 +2281,31 @@
       <c r="G2" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="80" t="str">
+      <c r="H2" s="84" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:13" ht="27" customHeight="1">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="23"/>
       <c r="G3" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="80" t="str">
+      <c r="H3" s="84" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="81"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="22"/>
       <c r="K3" s="36"/>
       <c r="M3" s="36"/>
@@ -2308,19 +2314,19 @@
       <c r="B4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="82" t="str">
+      <c r="G4" s="86" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="82"/>
+      <c r="H4" s="86"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="36"/>
@@ -2330,17 +2336,17 @@
       <c r="B5" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="83" t="str">
+      <c r="G5" s="87" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="83"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
@@ -2348,14 +2354,14 @@
       <c r="B6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
       <c r="I6" s="59"/>
       <c r="J6" s="59"/>
     </row>
@@ -2363,14 +2369,14 @@
       <c r="B7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="60"/>
       <c r="J7" s="60"/>
     </row>
@@ -2378,14 +2384,14 @@
       <c r="B8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="60"/>
       <c r="J8" s="60"/>
     </row>
@@ -2393,39 +2399,39 @@
       <c r="B9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
       <c r="I9" s="60"/>
       <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="31.5" customHeight="1">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:13" ht="24" customHeight="1">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
       <c r="H11" s="27" t="s">
         <v>65</v>
       </c>
@@ -2434,15 +2440,15 @@
       <c r="K11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="95" t="str">
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="100" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2454,15 +2460,15 @@
       <c r="B13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="92" t="str">
+      <c r="C13" s="97" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="96"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="101"/>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="61"/>
@@ -2471,20 +2477,20 @@
       <c r="B14" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="148" t="str">
+      <c r="C14" s="75" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="148" t="str">
+      <c r="E14" s="75" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="96"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="61"/>
@@ -2493,15 +2499,15 @@
       <c r="B15" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="92" t="str">
+      <c r="C15" s="97" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="96"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="101"/>
       <c r="I15" s="62"/>
       <c r="J15" s="62"/>
       <c r="K15" s="61"/>
@@ -2510,28 +2516,28 @@
       <c r="B16" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="100" t="str">
+      <c r="C16" s="105" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="97"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="102"/>
       <c r="I16" s="63"/>
       <c r="J16" s="63"/>
       <c r="K16" s="61"/>
     </row>
     <row r="17" spans="2:12" ht="19.149999999999999" customHeight="1">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
       <c r="H17" s="69" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
@@ -2563,66 +2569,66 @@
       <c r="J19" s="64"/>
     </row>
     <row r="20" spans="2:12" ht="24" customHeight="1">
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
     </row>
     <row r="21" spans="2:12" ht="24" customHeight="1">
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
     </row>
     <row r="22" spans="2:12" ht="23.25" customHeight="1">
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
     </row>
     <row r="23" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
     </row>
     <row r="24" spans="2:12" ht="28.5" customHeight="1">
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
@@ -2640,16 +2646,16 @@
     </row>
     <row r="26" spans="2:12" ht="14.45" customHeight="1">
       <c r="B26" s="34"/>
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="94" t="s">
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="94"/>
+      <c r="H26" s="99"/>
       <c r="I26" s="65"/>
       <c r="J26" s="65"/>
       <c r="K26" s="66"/>
@@ -2657,12 +2663,12 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="67"/>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
       <c r="G27" s="67"/>
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
@@ -2817,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I10"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3404,74 +3410,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="109"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="108"/>
-      <c r="I5" s="109"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="6"/>
@@ -3484,141 +3490,141 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="122" t="str">
+      <c r="C9" s="129" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="121" t="s">
+      <c r="D9" s="129"/>
+      <c r="E9" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="122" t="str">
+      <c r="F9" s="129" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="127" t="s">
+      <c r="G9" s="129"/>
+      <c r="H9" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="149" t="str">
+      <c r="I9" s="124" t="str">
         <f>記入!B21</f>
         <v>${claimdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="150"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="125"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113" t="str">
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="115"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="120"/>
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="116" t="str">
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="121" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="129" t="str">
+      <c r="C13" s="136" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="130" t="str">
+      <c r="C14" s="137" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="131" t="str">
+      <c r="C15" s="138" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
       <c r="F15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="6"/>
@@ -3662,101 +3668,101 @@
       <c r="B19" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
       <c r="F19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="133" t="s">
+      <c r="G19" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="133"/>
+      <c r="H19" s="140"/>
       <c r="I19" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="135" t="str">
+      <c r="C20" s="142" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="D20" s="136"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="125">
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="132">
         <v>1</v>
       </c>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="134" t="str">
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="141" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="123"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="134"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="141"/>
     </row>
     <row r="22" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="123"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="134"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="141"/>
     </row>
     <row r="23" spans="2:9" s="3" customFormat="1">
-      <c r="B23" s="124" t="s">
+      <c r="B23" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="126">
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="133">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="126">
+      <c r="G23" s="133">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="126"/>
-      <c r="I23" s="134" t="str">
+      <c r="H23" s="133"/>
+      <c r="I23" s="141" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="3" customFormat="1">
-      <c r="B24" s="124"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="134"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="141"/>
     </row>
     <row r="25" spans="2:9" s="3" customFormat="1" ht="24" customHeight="1">
-      <c r="B25" s="119" t="s">
+      <c r="B25" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -3788,11 +3794,11 @@
       <c r="C28" s="16"/>
       <c r="D28" s="13"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="120" t="s">
+      <c r="F28" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3800,11 +3806,11 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="120" t="s">
+      <c r="F29" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
       <c r="I29" s="6"/>
     </row>
     <row r="31" spans="2:9">

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6870" tabRatio="570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6870" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -1152,6 +1152,9 @@
     <xf numFmtId="180" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1173,13 +1176,55 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,62 +1239,122 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,119 +1374,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1797,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1812,14 +1812,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="D1" s="77" t="s">
+      <c r="B1" s="77"/>
+      <c r="D1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="78"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="43" t="s">
@@ -1829,8 +1829,8 @@
       <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1">
       <c r="A3" s="71" t="s">
@@ -1842,21 +1842,21 @@
       <c r="C3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="43" t="s">
@@ -1866,21 +1866,21 @@
       <c r="C5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="76" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="50" t="s">
@@ -1890,8 +1890,8 @@
       <c r="C7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="43" t="s">
@@ -1903,8 +1903,8 @@
       <c r="C8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -1914,8 +1914,8 @@
       <c r="C9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="43" t="s">
@@ -1927,8 +1927,8 @@
       <c r="C10" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
     </row>
     <row r="11" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="43" t="s">
@@ -1940,8 +1940,8 @@
       <c r="C11" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="43" t="s">
@@ -1953,8 +1953,8 @@
       <c r="C12" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="43" t="s">
@@ -1966,8 +1966,8 @@
       <c r="C13" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="43" t="s">
@@ -1979,8 +1979,8 @@
       <c r="C14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="43" t="s">
@@ -1992,8 +1992,8 @@
       <c r="C15" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -2003,8 +2003,8 @@
       <c r="C16" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="43" t="s">
@@ -2014,8 +2014,8 @@
       <c r="C17" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="43" t="s">
@@ -2025,8 +2025,8 @@
       <c r="C18" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="43" t="s">
@@ -2038,8 +2038,8 @@
       <c r="C19" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="43" t="s">
@@ -2051,8 +2051,8 @@
       <c r="C20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="81"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="43" t="s">
@@ -2064,8 +2064,8 @@
       <c r="C21" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="43" t="s">
@@ -2075,8 +2075,8 @@
       <c r="C22" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81"/>
     </row>
     <row r="23" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="46" t="s">
@@ -2086,8 +2086,8 @@
       <c r="C23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="46" t="s">
@@ -2097,8 +2097,8 @@
       <c r="C24" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
     </row>
     <row r="25" spans="1:5" s="40" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="71" t="s">
@@ -2110,8 +2110,8 @@
       <c r="C25" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81"/>
     </row>
     <row r="26" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="46" t="s">
@@ -2123,8 +2123,8 @@
       <c r="C26" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81"/>
     </row>
     <row r="27" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="46" t="s">
@@ -2136,8 +2136,8 @@
       <c r="C27" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="46" t="s">
@@ -2147,8 +2147,8 @@
       <c r="C28" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="46" t="s">
@@ -2160,8 +2160,8 @@
       <c r="C29" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="81"/>
     </row>
     <row r="30" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="46" t="s">
@@ -2173,8 +2173,8 @@
       <c r="C30" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="83"/>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="42"/>
@@ -2182,34 +2182,34 @@
     <row r="32" spans="1:5">
       <c r="B32" s="42"/>
     </row>
-    <row r="33" spans="1:3" ht="15">
+    <row r="33" spans="1:3" ht="13.5">
       <c r="A33" s="54"/>
     </row>
-    <row r="34" spans="1:3" ht="15">
+    <row r="34" spans="1:3" ht="13.5">
       <c r="A34" s="54"/>
     </row>
-    <row r="35" spans="1:3" ht="15">
+    <row r="35" spans="1:3" ht="13.5">
       <c r="A35" s="54"/>
     </row>
-    <row r="36" spans="1:3" ht="15">
+    <row r="36" spans="1:3" ht="13.5">
       <c r="A36" s="54"/>
     </row>
-    <row r="37" spans="1:3" ht="15">
+    <row r="37" spans="1:3" ht="13.5">
       <c r="A37" s="54"/>
     </row>
-    <row r="38" spans="1:3" s="41" customFormat="1" ht="15">
+    <row r="38" spans="1:3" s="41" customFormat="1" ht="13.5">
       <c r="A38" s="54"/>
       <c r="C38" s="42"/>
     </row>
-    <row r="39" spans="1:3" s="41" customFormat="1" ht="15">
+    <row r="39" spans="1:3" s="41" customFormat="1" ht="13.5">
       <c r="A39" s="54"/>
       <c r="C39" s="42"/>
     </row>
-    <row r="40" spans="1:3" s="41" customFormat="1" ht="15">
+    <row r="40" spans="1:3" s="41" customFormat="1" ht="13.5">
       <c r="A40" s="54"/>
       <c r="C40" s="42"/>
     </row>
-    <row r="41" spans="1:3" s="41" customFormat="1" ht="15">
+    <row r="41" spans="1:3" s="41" customFormat="1" ht="13.5">
       <c r="A41" s="54"/>
       <c r="C41" s="42"/>
     </row>
@@ -2238,7 +2238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -2265,11 +2265,11 @@
       <c r="G1" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="83" t="str">
+      <c r="H1" s="105" t="str">
         <f>記入!B21</f>
         <v>${claimdate}</v>
       </c>
-      <c r="I1" s="83"/>
+      <c r="I1" s="105"/>
       <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1">
@@ -2281,31 +2281,31 @@
       <c r="G2" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="84" t="str">
+      <c r="H2" s="106" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="85"/>
+      <c r="I2" s="98"/>
       <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:13" ht="27" customHeight="1">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="85"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="23"/>
       <c r="G3" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="84" t="str">
+      <c r="H3" s="106" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="85"/>
+      <c r="I3" s="98"/>
       <c r="J3" s="22"/>
       <c r="K3" s="36"/>
       <c r="M3" s="36"/>
@@ -2314,19 +2314,19 @@
       <c r="B4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="86" t="str">
+      <c r="G4" s="101" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="86"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="36"/>
@@ -2336,17 +2336,17 @@
       <c r="B5" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="87" t="str">
+      <c r="G5" s="102" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="87"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
@@ -2354,14 +2354,14 @@
       <c r="B6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
       <c r="I6" s="59"/>
       <c r="J6" s="59"/>
     </row>
@@ -2369,14 +2369,14 @@
       <c r="B7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
       <c r="I7" s="60"/>
       <c r="J7" s="60"/>
     </row>
@@ -2384,14 +2384,14 @@
       <c r="B8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
       <c r="I8" s="60"/>
       <c r="J8" s="60"/>
     </row>
@@ -2399,39 +2399,39 @@
       <c r="B9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
       <c r="I9" s="60"/>
       <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="31.5" customHeight="1">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:13" ht="24" customHeight="1">
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
       <c r="H11" s="27" t="s">
         <v>65</v>
       </c>
@@ -2440,15 +2440,15 @@
       <c r="K11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1">
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="100" t="str">
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="150" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2460,15 +2460,15 @@
       <c r="B13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="97" t="str">
+      <c r="C13" s="89" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="101"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="151"/>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="61"/>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="101"/>
+      <c r="H14" s="151"/>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="61"/>
@@ -2499,15 +2499,15 @@
       <c r="B15" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="97" t="str">
+      <c r="C15" s="89" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="101"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="151"/>
       <c r="I15" s="62"/>
       <c r="J15" s="62"/>
       <c r="K15" s="61"/>
@@ -2516,28 +2516,28 @@
       <c r="B16" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="105" t="str">
+      <c r="C16" s="94" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="102"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="152"/>
       <c r="I16" s="63"/>
       <c r="J16" s="63"/>
       <c r="K16" s="61"/>
     </row>
     <row r="17" spans="2:12" ht="19.149999999999999" customHeight="1">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
       <c r="H17" s="69" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
@@ -2569,66 +2569,66 @@
       <c r="J19" s="64"/>
     </row>
     <row r="20" spans="2:12" ht="24" customHeight="1">
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
     </row>
     <row r="21" spans="2:12" ht="24" customHeight="1">
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
     </row>
     <row r="22" spans="2:12" ht="23.25" customHeight="1">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
     </row>
     <row r="23" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
     </row>
     <row r="24" spans="2:12" ht="28.5" customHeight="1">
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
@@ -2646,16 +2646,16 @@
     </row>
     <row r="26" spans="2:12" ht="14.45" customHeight="1">
       <c r="B26" s="34"/>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="99" t="s">
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="99"/>
+      <c r="H26" s="91"/>
       <c r="I26" s="65"/>
       <c r="J26" s="65"/>
       <c r="K26" s="66"/>
@@ -2663,12 +2663,12 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="67"/>
-      <c r="C27" s="99" t="s">
+      <c r="C27" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
       <c r="G27" s="67"/>
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
@@ -2777,6 +2777,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
@@ -2793,23 +2810,6 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="26"/>
   <pageMargins left="0.511811023622047" right="0.511811023622047" top="0.55118110236220497" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
@@ -3410,74 +3410,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="149"/>
       <c r="F5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="112" t="s">
+      <c r="G5" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="113"/>
-      <c r="I5" s="114"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="149"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="6"/>
@@ -3490,141 +3490,141 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="129" t="str">
+      <c r="C9" s="108" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="129"/>
-      <c r="E9" s="128" t="s">
+      <c r="D9" s="108"/>
+      <c r="E9" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="129" t="str">
+      <c r="F9" s="108" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="129"/>
-      <c r="H9" s="134" t="s">
+      <c r="G9" s="108"/>
+      <c r="H9" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="124" t="str">
+      <c r="I9" s="142" t="str">
         <f>記入!B21</f>
         <v>${claimdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="125"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="143"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="118" t="str">
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="136" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="120"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="138"/>
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="121" t="str">
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="139" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="141"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="136" t="str">
+      <c r="C13" s="128" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="137" t="str">
+      <c r="C14" s="129" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="138" t="str">
+      <c r="C15" s="130" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
       <c r="F15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="6"/>
@@ -3668,101 +3668,101 @@
       <c r="B19" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
       <c r="F19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="140" t="s">
+      <c r="G19" s="132" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="140"/>
+      <c r="H19" s="132"/>
       <c r="I19" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="142" t="str">
+      <c r="C20" s="109" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="132">
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="125">
         <v>1</v>
       </c>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="141" t="str">
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="107" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="130"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="141"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="107"/>
     </row>
     <row r="22" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="130"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="141"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="107"/>
     </row>
     <row r="23" spans="2:9" s="3" customFormat="1">
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="133">
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="118">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="133">
+      <c r="G23" s="118">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="133"/>
-      <c r="I23" s="141" t="str">
+      <c r="H23" s="118"/>
+      <c r="I23" s="107" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="3" customFormat="1">
-      <c r="B24" s="131"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="141"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="107"/>
     </row>
     <row r="25" spans="2:9" s="3" customFormat="1" ht="24" customHeight="1">
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -3794,11 +3794,11 @@
       <c r="C28" s="16"/>
       <c r="D28" s="13"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="127" t="s">
+      <c r="F28" s="121" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3806,11 +3806,11 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="127" t="s">
+      <c r="F29" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
       <c r="I29" s="6"/>
     </row>
     <row r="31" spans="2:9">
@@ -3825,14 +3825,19 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F29:H29"/>
@@ -3849,19 +3854,14 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="G23:H24"/>
   </mergeCells>
   <phoneticPr fontId="26"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6870" tabRatio="570" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6870" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -459,7 +459,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="&quot;US$&quot;#,##0;\-&quot;US$&quot;#,##0"/>
     <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -472,6 +472,8 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -945,7 +947,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1139,6 +1141,20 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="19" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1160,77 +1176,185 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1250,139 +1374,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="19" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="19" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2"/>
     <cellStyle name="標準 3" xfId="1"/>
     <cellStyle name="標準 4" xfId="3"/>
     <cellStyle name="標準 5" xfId="4"/>
     <cellStyle name="標準 6" xfId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1501,7 +1509,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1790,7 +1798,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" activeCellId="2" sqref="B14 B15 B21"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1804,14 +1812,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="D1" s="74" t="s">
+      <c r="B1" s="77"/>
+      <c r="D1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="75"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="43" t="s">
@@ -1821,8 +1829,8 @@
       <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1">
       <c r="A3" s="71" t="s">
@@ -1834,21 +1842,21 @@
       <c r="C3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="43" t="s">
@@ -1858,21 +1866,21 @@
       <c r="C5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="76" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="50" t="s">
@@ -1882,8 +1890,8 @@
       <c r="C7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="43" t="s">
@@ -1895,8 +1903,8 @@
       <c r="C8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -1906,8 +1914,8 @@
       <c r="C9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="43" t="s">
@@ -1919,8 +1927,8 @@
       <c r="C10" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
     </row>
     <row r="11" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="43" t="s">
@@ -1932,8 +1940,8 @@
       <c r="C11" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="43" t="s">
@@ -1945,8 +1953,8 @@
       <c r="C12" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="43" t="s">
@@ -1958,34 +1966,34 @@
       <c r="C13" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="73" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="73" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -1995,8 +2003,8 @@
       <c r="C16" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="43" t="s">
@@ -2006,8 +2014,8 @@
       <c r="C17" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="43" t="s">
@@ -2017,8 +2025,8 @@
       <c r="C18" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="43" t="s">
@@ -2030,8 +2038,8 @@
       <c r="C19" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="43" t="s">
@@ -2043,21 +2051,21 @@
       <c r="C20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="81"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="146" t="s">
+      <c r="B21" s="74" t="s">
         <v>112</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="43" t="s">
@@ -2067,8 +2075,8 @@
       <c r="C22" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81"/>
     </row>
     <row r="23" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="46" t="s">
@@ -2078,8 +2086,8 @@
       <c r="C23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="46" t="s">
@@ -2089,8 +2097,8 @@
       <c r="C24" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
     </row>
     <row r="25" spans="1:5" s="40" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="71" t="s">
@@ -2102,8 +2110,8 @@
       <c r="C25" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81"/>
     </row>
     <row r="26" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="46" t="s">
@@ -2115,8 +2123,8 @@
       <c r="C26" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81"/>
     </row>
     <row r="27" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="46" t="s">
@@ -2128,8 +2136,8 @@
       <c r="C27" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="46" t="s">
@@ -2139,8 +2147,8 @@
       <c r="C28" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="46" t="s">
@@ -2152,8 +2160,8 @@
       <c r="C29" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="81"/>
     </row>
     <row r="30" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="46" t="s">
@@ -2165,8 +2173,8 @@
       <c r="C30" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="78"/>
-      <c r="E30" s="79"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="83"/>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="42"/>
@@ -2230,9 +2238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" activeCellId="2" sqref="H1:I1 C14 E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -2259,11 +2265,11 @@
       <c r="G1" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="147" t="str">
+      <c r="H1" s="105" t="str">
         <f>記入!B21</f>
         <v>${claimdate}</v>
       </c>
-      <c r="I1" s="147"/>
+      <c r="I1" s="105"/>
       <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1">
@@ -2275,31 +2281,31 @@
       <c r="G2" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="80" t="str">
+      <c r="H2" s="106" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="98"/>
       <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:13" ht="27" customHeight="1">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="23"/>
       <c r="G3" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="80" t="str">
+      <c r="H3" s="106" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="81"/>
+      <c r="I3" s="98"/>
       <c r="J3" s="22"/>
       <c r="K3" s="36"/>
       <c r="M3" s="36"/>
@@ -2308,19 +2314,19 @@
       <c r="B4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="82" t="str">
+      <c r="G4" s="101" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="82"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="36"/>
@@ -2330,17 +2336,17 @@
       <c r="B5" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="83" t="str">
+      <c r="G5" s="102" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="83"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
@@ -2348,14 +2354,14 @@
       <c r="B6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
       <c r="I6" s="59"/>
       <c r="J6" s="59"/>
     </row>
@@ -2363,14 +2369,14 @@
       <c r="B7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
       <c r="I7" s="60"/>
       <c r="J7" s="60"/>
     </row>
@@ -2378,14 +2384,14 @@
       <c r="B8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
       <c r="I8" s="60"/>
       <c r="J8" s="60"/>
     </row>
@@ -2393,39 +2399,39 @@
       <c r="B9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
       <c r="I9" s="60"/>
       <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="31.5" customHeight="1">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:13" ht="24" customHeight="1">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
       <c r="H11" s="27" t="s">
         <v>65</v>
       </c>
@@ -2434,15 +2440,15 @@
       <c r="K11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="95" t="str">
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="150" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2454,15 +2460,15 @@
       <c r="B13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="92" t="str">
+      <c r="C13" s="89" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="96"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="151"/>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="61"/>
@@ -2471,20 +2477,20 @@
       <c r="B14" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="148" t="str">
+      <c r="C14" s="75" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="148" t="str">
+      <c r="E14" s="75" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="96"/>
+      <c r="H14" s="151"/>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="61"/>
@@ -2493,15 +2499,15 @@
       <c r="B15" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="92" t="str">
+      <c r="C15" s="89" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="96"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="151"/>
       <c r="I15" s="62"/>
       <c r="J15" s="62"/>
       <c r="K15" s="61"/>
@@ -2510,28 +2516,28 @@
       <c r="B16" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="100" t="str">
+      <c r="C16" s="94" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="97"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="152"/>
       <c r="I16" s="63"/>
       <c r="J16" s="63"/>
       <c r="K16" s="61"/>
     </row>
     <row r="17" spans="2:12" ht="19.149999999999999" customHeight="1">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
       <c r="H17" s="69" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
@@ -2563,66 +2569,66 @@
       <c r="J19" s="64"/>
     </row>
     <row r="20" spans="2:12" ht="24" customHeight="1">
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
     </row>
     <row r="21" spans="2:12" ht="24" customHeight="1">
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
     </row>
     <row r="22" spans="2:12" ht="23.25" customHeight="1">
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
     </row>
     <row r="23" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
     </row>
     <row r="24" spans="2:12" ht="28.5" customHeight="1">
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
@@ -2640,16 +2646,16 @@
     </row>
     <row r="26" spans="2:12" ht="14.45" customHeight="1">
       <c r="B26" s="34"/>
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="94" t="s">
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="94"/>
+      <c r="H26" s="91"/>
       <c r="I26" s="65"/>
       <c r="J26" s="65"/>
       <c r="K26" s="66"/>
@@ -2657,12 +2663,12 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="67"/>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
       <c r="G27" s="67"/>
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
@@ -2771,6 +2777,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
@@ -2787,23 +2810,6 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="26"/>
   <pageMargins left="0.511811023622047" right="0.511811023622047" top="0.55118110236220497" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
@@ -2817,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I10"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3404,74 +3410,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="109"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="149"/>
       <c r="F5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="108"/>
-      <c r="I5" s="109"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="149"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="6"/>
@@ -3484,141 +3490,141 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="122" t="str">
+      <c r="C9" s="108" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="121" t="s">
+      <c r="D9" s="108"/>
+      <c r="E9" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="122" t="str">
+      <c r="F9" s="108" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="127" t="s">
+      <c r="G9" s="108"/>
+      <c r="H9" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="149" t="str">
+      <c r="I9" s="142" t="str">
         <f>記入!B21</f>
         <v>${claimdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="150"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="143"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113" t="str">
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="136" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="115"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="138"/>
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="116" t="str">
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="139" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="141"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="129" t="str">
+      <c r="C13" s="128" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="130" t="str">
+      <c r="C14" s="129" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="131" t="str">
+      <c r="C15" s="130" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
       <c r="F15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="6"/>
@@ -3662,18 +3668,18 @@
       <c r="B19" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
       <c r="F19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="133" t="s">
+      <c r="G19" s="132" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="133"/>
+      <c r="H19" s="132"/>
       <c r="I19" s="15" t="s">
         <v>103</v>
       </c>
@@ -3682,81 +3688,81 @@
       <c r="B20" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="135" t="str">
+      <c r="C20" s="109" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="D20" s="136"/>
-      <c r="E20" s="137"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
       <c r="F20" s="125">
         <v>1</v>
       </c>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="134" t="str">
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="107" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="B21" s="123"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="140"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="125"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="134"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="107"/>
     </row>
     <row r="22" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="B22" s="123"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="143"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="125"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="134"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="107"/>
     </row>
     <row r="23" spans="2:9" s="3" customFormat="1">
       <c r="B23" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="126">
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="118">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="126">
+      <c r="G23" s="118">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="126"/>
-      <c r="I23" s="134" t="str">
+      <c r="H23" s="118"/>
+      <c r="I23" s="107" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="3" customFormat="1">
       <c r="B24" s="124"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="134"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="107"/>
     </row>
     <row r="25" spans="2:9" s="3" customFormat="1" ht="24" customHeight="1">
-      <c r="B25" s="119" t="s">
+      <c r="B25" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -3788,11 +3794,11 @@
       <c r="C28" s="16"/>
       <c r="D28" s="13"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="120" t="s">
+      <c r="F28" s="121" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3800,11 +3806,11 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="120" t="s">
+      <c r="F29" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
       <c r="I29" s="6"/>
     </row>
     <row r="31" spans="2:9">
@@ -3819,14 +3825,19 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F29:H29"/>
@@ -3843,19 +3854,14 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="G23:H24"/>
   </mergeCells>
   <phoneticPr fontId="26"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenus.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\03_release\newparkcloudRELEASE\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23328" windowHeight="9840" tabRatio="570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23325" windowHeight="9840" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -354,9 +354,6 @@
     <t>G.TOTAL</t>
   </si>
   <si>
-    <t>備考：PDF書類はオリジナルデータであり、紙は送付しません （PS：This invoice is issued in PDF only）</t>
-  </si>
-  <si>
     <t>Issued Sect.: PSDCD Accounting Section</t>
   </si>
   <si>
@@ -476,7 +473,11 @@
   </si>
   <si>
     <t>${pd.pjnameenglish}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>備考：PDF書類はオリジナルデータであり、紙は送付しません （PS： This PDF invoice is Original and is issued in PDF only）</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -485,17 +486,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="179" formatCode="&quot;US$&quot;#,##0;\-&quot;US$&quot;#,##0"/>
-    <numFmt numFmtId="180" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="&quot;US$&quot;#,##0;\-&quot;US$&quot;#,##0"/>
+    <numFmt numFmtId="168" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
   <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -604,14 +605,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="MS Gothic"/>
@@ -656,7 +649,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -687,10 +680,18 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -963,14 +964,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="153">
@@ -1055,7 +1056,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,7 +1077,7 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1085,10 +1086,10 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,86 +1122,134 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1217,7 +1266,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,63 +1278,105 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1316,107 +1407,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2"/>
     <cellStyle name="標準 3" xfId="1"/>
     <cellStyle name="標準 4" xfId="3"/>
     <cellStyle name="標準 5" xfId="4"/>
     <cellStyle name="標準 6" xfId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1535,7 +1536,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1823,17 +1824,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="45.109375" style="57" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="57" customWidth="1"/>
     <col min="3" max="3" width="9" style="58" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="58" customWidth="1"/>
-    <col min="5" max="5" width="5.21875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="4.625" style="58" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="58" customWidth="1"/>
     <col min="6" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
@@ -1858,7 +1859,7 @@
       <c r="D2" s="80"/>
       <c r="E2" s="81"/>
     </row>
-    <row r="3" spans="1:5" ht="25.05" customHeight="1">
+    <row r="3" spans="1:5" ht="25.15" customHeight="1">
       <c r="A3" s="62" t="s">
         <v>4</v>
       </c>
@@ -2126,7 +2127,7 @@
       <c r="D24" s="80"/>
       <c r="E24" s="81"/>
     </row>
-    <row r="25" spans="1:5" s="56" customFormat="1" ht="25.05" customHeight="1">
+    <row r="25" spans="1:5" s="56" customFormat="1" ht="25.15" customHeight="1">
       <c r="A25" s="62" t="s">
         <v>40</v>
       </c>
@@ -2208,34 +2209,34 @@
     <row r="32" spans="1:5">
       <c r="B32" s="58"/>
     </row>
-    <row r="33" spans="1:3" ht="13.8">
+    <row r="33" spans="1:3" ht="13.5">
       <c r="A33" s="76"/>
     </row>
-    <row r="34" spans="1:3" ht="13.8">
+    <row r="34" spans="1:3" ht="13.5">
       <c r="A34" s="76"/>
     </row>
-    <row r="35" spans="1:3" ht="13.8">
+    <row r="35" spans="1:3" ht="13.5">
       <c r="A35" s="76"/>
     </row>
-    <row r="36" spans="1:3" ht="13.8">
+    <row r="36" spans="1:3" ht="13.5">
       <c r="A36" s="76"/>
     </row>
-    <row r="37" spans="1:3" ht="13.8">
+    <row r="37" spans="1:3" ht="13.5">
       <c r="A37" s="76"/>
     </row>
-    <row r="38" spans="1:3" s="57" customFormat="1" ht="13.8">
+    <row r="38" spans="1:3" s="57" customFormat="1" ht="13.5">
       <c r="A38" s="76"/>
       <c r="C38" s="58"/>
     </row>
-    <row r="39" spans="1:3" s="57" customFormat="1" ht="13.8">
+    <row r="39" spans="1:3" s="57" customFormat="1" ht="13.5">
       <c r="A39" s="76"/>
       <c r="C39" s="58"/>
     </row>
-    <row r="40" spans="1:3" s="57" customFormat="1" ht="13.8">
+    <row r="40" spans="1:3" s="57" customFormat="1" ht="13.5">
       <c r="A40" s="76"/>
       <c r="C40" s="58"/>
     </row>
-    <row r="41" spans="1:3" s="57" customFormat="1" ht="13.8">
+    <row r="41" spans="1:3" s="57" customFormat="1" ht="13.5">
       <c r="A41" s="76"/>
       <c r="C41" s="58"/>
     </row>
@@ -2252,7 +2253,7 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E30"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -2264,23 +2265,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:G15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="1.88671875" style="22" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="22" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="22" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="22" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="22" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="1.875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="22" customWidth="1"/>
     <col min="12" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
@@ -2293,11 +2294,11 @@
       <c r="G1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="108" t="str">
+      <c r="H1" s="84" t="str">
         <f>記入!B21</f>
         <v>${claimdate}</v>
       </c>
-      <c r="I1" s="108"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1">
@@ -2309,31 +2310,31 @@
       <c r="G2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="101" t="str">
+      <c r="H2" s="85" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="101"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="27" customHeight="1">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="109" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="101"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="25"/>
       <c r="G3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="101" t="str">
+      <c r="H3" s="85" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="101"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="24"/>
       <c r="K3" s="49"/>
       <c r="M3" s="49"/>
@@ -2342,19 +2343,19 @@
       <c r="B4" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="104" t="str">
+      <c r="G4" s="87" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="104"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="49"/>
@@ -2364,17 +2365,17 @@
       <c r="B5" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="105" t="str">
+      <c r="G5" s="88" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="105"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
     </row>
@@ -2382,14 +2383,14 @@
       <c r="B6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
     </row>
@@ -2397,14 +2398,14 @@
       <c r="B7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
     </row>
@@ -2412,14 +2413,14 @@
       <c r="B8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
     </row>
@@ -2427,39 +2428,39 @@
       <c r="B9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:13" ht="31.5" customHeight="1">
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="24" customHeight="1">
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
       <c r="H11" s="31" t="s">
         <v>70</v>
       </c>
@@ -2468,15 +2469,15 @@
       <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1">
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="85" t="str">
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="101" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2484,19 +2485,19 @@
       <c r="J12" s="51"/>
       <c r="K12" s="52"/>
     </row>
-    <row r="13" spans="1:13" ht="22.2" customHeight="1">
+    <row r="13" spans="1:13" ht="22.15" customHeight="1">
       <c r="B13" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="99" t="str">
+      <c r="C13" s="98" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="86"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
       <c r="K13" s="47"/>
@@ -2518,7 +2519,7 @@
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="86"/>
+      <c r="H14" s="102"/>
       <c r="I14" s="53"/>
       <c r="J14" s="53"/>
       <c r="K14" s="47"/>
@@ -2527,44 +2528,44 @@
       <c r="B15" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="86"/>
+      <c r="C15" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="53"/>
       <c r="J15" s="53"/>
       <c r="K15" s="47"/>
     </row>
-    <row r="16" spans="1:13" ht="40.950000000000003" customHeight="1">
+    <row r="16" spans="1:13" ht="40.9" customHeight="1">
       <c r="B16" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="90" t="str">
+      <c r="C16" s="106" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="87"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="103"/>
       <c r="I16" s="54"/>
       <c r="J16" s="54"/>
       <c r="K16" s="47"/>
     </row>
-    <row r="17" spans="2:12" ht="19.2" customHeight="1">
-      <c r="B17" s="92" t="s">
+    <row r="17" spans="2:12" ht="19.149999999999999" customHeight="1">
+      <c r="B17" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
       <c r="H17" s="38" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
@@ -2574,15 +2575,15 @@
       <c r="K17" s="52"/>
     </row>
     <row r="18" spans="2:12" ht="22.5" customHeight="1">
-      <c r="B18" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
+      <c r="B18" s="152" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
     </row>
@@ -2598,71 +2599,71 @@
       <c r="J19" s="40"/>
     </row>
     <row r="20" spans="2:12" ht="24" customHeight="1">
-      <c r="B20" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
+      <c r="B20" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
       <c r="H20" s="42"/>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
     </row>
     <row r="21" spans="2:12" ht="24" customHeight="1">
-      <c r="B21" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
+      <c r="B21" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
       <c r="H21" s="43"/>
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
     </row>
     <row r="22" spans="2:12" ht="23.25" customHeight="1">
-      <c r="B22" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
+      <c r="B22" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
     </row>
     <row r="23" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B23" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
+      <c r="B23" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
       <c r="H23" s="42"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
     </row>
     <row r="24" spans="2:12" ht="28.5" customHeight="1">
-      <c r="B24" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
+      <c r="B24" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
     </row>
-    <row r="25" spans="2:12" ht="13.05" customHeight="1">
+    <row r="25" spans="2:12" ht="13.15" customHeight="1">
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
@@ -2673,37 +2674,37 @@
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
     </row>
-    <row r="26" spans="2:12" ht="14.55" customHeight="1">
+    <row r="26" spans="2:12" ht="14.65" customHeight="1">
       <c r="B26" s="41"/>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="84"/>
+      <c r="H26" s="100"/>
       <c r="I26" s="45"/>
       <c r="J26" s="45"/>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
     </row>
-    <row r="27" spans="2:12" ht="13.05" customHeight="1">
+    <row r="27" spans="2:12" ht="13.15" customHeight="1">
       <c r="B27" s="46"/>
-      <c r="C27" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
+      <c r="C27" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
     </row>
-    <row r="28" spans="2:12" ht="13.05" customHeight="1">
+    <row r="28" spans="2:12" ht="13.15" customHeight="1">
       <c r="B28" s="46"/>
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
@@ -2714,7 +2715,7 @@
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
     </row>
-    <row r="29" spans="2:12" ht="13.05" customHeight="1">
+    <row r="29" spans="2:12" ht="13.15" customHeight="1">
       <c r="B29" s="46"/>
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
@@ -2725,7 +2726,7 @@
       <c r="I29" s="46"/>
       <c r="J29" s="46"/>
     </row>
-    <row r="30" spans="2:12" ht="13.05" customHeight="1">
+    <row r="30" spans="2:12" ht="13.15" customHeight="1">
       <c r="B30" s="46"/>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
@@ -2736,7 +2737,7 @@
       <c r="I30" s="46"/>
       <c r="J30" s="46"/>
     </row>
-    <row r="31" spans="2:12" ht="13.05" customHeight="1">
+    <row r="31" spans="2:12" ht="13.15" customHeight="1">
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -2747,7 +2748,7 @@
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
     </row>
-    <row r="32" spans="2:12" ht="13.05" customHeight="1">
+    <row r="32" spans="2:12" ht="13.15" customHeight="1">
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -2758,7 +2759,7 @@
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="2:10" ht="13.05" customHeight="1">
+    <row r="33" spans="2:10" ht="13.15" customHeight="1">
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -2806,28 +2807,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C15:G15"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="B22:G22"/>
@@ -2840,8 +2819,30 @@
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.511811023622047" right="0.511811023622047" top="0.55118110236220497" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2855,657 +2856,657 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="4" customWidth="1"/>
     <col min="9" max="9" width="17" style="4" customWidth="1"/>
-    <col min="10" max="10" width="2.109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="2.125" style="4" customWidth="1"/>
     <col min="11" max="257" width="9" style="4"/>
-    <col min="258" max="258" width="11.33203125" style="4" customWidth="1"/>
-    <col min="259" max="259" width="9.77734375" style="4" customWidth="1"/>
-    <col min="260" max="260" width="8.109375" style="4" customWidth="1"/>
-    <col min="261" max="261" width="12.44140625" style="4" customWidth="1"/>
-    <col min="262" max="262" width="16.21875" style="4" customWidth="1"/>
-    <col min="263" max="263" width="6.109375" style="4" customWidth="1"/>
-    <col min="264" max="264" width="9.33203125" style="4" customWidth="1"/>
-    <col min="265" max="265" width="13.109375" style="4" customWidth="1"/>
+    <col min="258" max="258" width="11.375" style="4" customWidth="1"/>
+    <col min="259" max="259" width="9.75" style="4" customWidth="1"/>
+    <col min="260" max="260" width="8.125" style="4" customWidth="1"/>
+    <col min="261" max="261" width="12.5" style="4" customWidth="1"/>
+    <col min="262" max="262" width="16.25" style="4" customWidth="1"/>
+    <col min="263" max="263" width="6.125" style="4" customWidth="1"/>
+    <col min="264" max="264" width="9.375" style="4" customWidth="1"/>
+    <col min="265" max="265" width="13.125" style="4" customWidth="1"/>
     <col min="266" max="513" width="9" style="4"/>
-    <col min="514" max="514" width="11.33203125" style="4" customWidth="1"/>
-    <col min="515" max="515" width="9.77734375" style="4" customWidth="1"/>
-    <col min="516" max="516" width="8.109375" style="4" customWidth="1"/>
-    <col min="517" max="517" width="12.44140625" style="4" customWidth="1"/>
-    <col min="518" max="518" width="16.21875" style="4" customWidth="1"/>
-    <col min="519" max="519" width="6.109375" style="4" customWidth="1"/>
-    <col min="520" max="520" width="9.33203125" style="4" customWidth="1"/>
-    <col min="521" max="521" width="13.109375" style="4" customWidth="1"/>
+    <col min="514" max="514" width="11.375" style="4" customWidth="1"/>
+    <col min="515" max="515" width="9.75" style="4" customWidth="1"/>
+    <col min="516" max="516" width="8.125" style="4" customWidth="1"/>
+    <col min="517" max="517" width="12.5" style="4" customWidth="1"/>
+    <col min="518" max="518" width="16.25" style="4" customWidth="1"/>
+    <col min="519" max="519" width="6.125" style="4" customWidth="1"/>
+    <col min="520" max="520" width="9.375" style="4" customWidth="1"/>
+    <col min="521" max="521" width="13.125" style="4" customWidth="1"/>
     <col min="522" max="769" width="9" style="4"/>
-    <col min="770" max="770" width="11.33203125" style="4" customWidth="1"/>
-    <col min="771" max="771" width="9.77734375" style="4" customWidth="1"/>
-    <col min="772" max="772" width="8.109375" style="4" customWidth="1"/>
-    <col min="773" max="773" width="12.44140625" style="4" customWidth="1"/>
-    <col min="774" max="774" width="16.21875" style="4" customWidth="1"/>
-    <col min="775" max="775" width="6.109375" style="4" customWidth="1"/>
-    <col min="776" max="776" width="9.33203125" style="4" customWidth="1"/>
-    <col min="777" max="777" width="13.109375" style="4" customWidth="1"/>
+    <col min="770" max="770" width="11.375" style="4" customWidth="1"/>
+    <col min="771" max="771" width="9.75" style="4" customWidth="1"/>
+    <col min="772" max="772" width="8.125" style="4" customWidth="1"/>
+    <col min="773" max="773" width="12.5" style="4" customWidth="1"/>
+    <col min="774" max="774" width="16.25" style="4" customWidth="1"/>
+    <col min="775" max="775" width="6.125" style="4" customWidth="1"/>
+    <col min="776" max="776" width="9.375" style="4" customWidth="1"/>
+    <col min="777" max="777" width="13.125" style="4" customWidth="1"/>
     <col min="778" max="1025" width="9" style="4"/>
-    <col min="1026" max="1026" width="11.33203125" style="4" customWidth="1"/>
-    <col min="1027" max="1027" width="9.77734375" style="4" customWidth="1"/>
-    <col min="1028" max="1028" width="8.109375" style="4" customWidth="1"/>
-    <col min="1029" max="1029" width="12.44140625" style="4" customWidth="1"/>
-    <col min="1030" max="1030" width="16.21875" style="4" customWidth="1"/>
-    <col min="1031" max="1031" width="6.109375" style="4" customWidth="1"/>
-    <col min="1032" max="1032" width="9.33203125" style="4" customWidth="1"/>
-    <col min="1033" max="1033" width="13.109375" style="4" customWidth="1"/>
+    <col min="1026" max="1026" width="11.375" style="4" customWidth="1"/>
+    <col min="1027" max="1027" width="9.75" style="4" customWidth="1"/>
+    <col min="1028" max="1028" width="8.125" style="4" customWidth="1"/>
+    <col min="1029" max="1029" width="12.5" style="4" customWidth="1"/>
+    <col min="1030" max="1030" width="16.25" style="4" customWidth="1"/>
+    <col min="1031" max="1031" width="6.125" style="4" customWidth="1"/>
+    <col min="1032" max="1032" width="9.375" style="4" customWidth="1"/>
+    <col min="1033" max="1033" width="13.125" style="4" customWidth="1"/>
     <col min="1034" max="1281" width="9" style="4"/>
-    <col min="1282" max="1282" width="11.33203125" style="4" customWidth="1"/>
-    <col min="1283" max="1283" width="9.77734375" style="4" customWidth="1"/>
-    <col min="1284" max="1284" width="8.109375" style="4" customWidth="1"/>
-    <col min="1285" max="1285" width="12.44140625" style="4" customWidth="1"/>
-    <col min="1286" max="1286" width="16.21875" style="4" customWidth="1"/>
-    <col min="1287" max="1287" width="6.109375" style="4" customWidth="1"/>
-    <col min="1288" max="1288" width="9.33203125" style="4" customWidth="1"/>
-    <col min="1289" max="1289" width="13.109375" style="4" customWidth="1"/>
+    <col min="1282" max="1282" width="11.375" style="4" customWidth="1"/>
+    <col min="1283" max="1283" width="9.75" style="4" customWidth="1"/>
+    <col min="1284" max="1284" width="8.125" style="4" customWidth="1"/>
+    <col min="1285" max="1285" width="12.5" style="4" customWidth="1"/>
+    <col min="1286" max="1286" width="16.25" style="4" customWidth="1"/>
+    <col min="1287" max="1287" width="6.125" style="4" customWidth="1"/>
+    <col min="1288" max="1288" width="9.375" style="4" customWidth="1"/>
+    <col min="1289" max="1289" width="13.125" style="4" customWidth="1"/>
     <col min="1290" max="1537" width="9" style="4"/>
-    <col min="1538" max="1538" width="11.33203125" style="4" customWidth="1"/>
-    <col min="1539" max="1539" width="9.77734375" style="4" customWidth="1"/>
-    <col min="1540" max="1540" width="8.109375" style="4" customWidth="1"/>
-    <col min="1541" max="1541" width="12.44140625" style="4" customWidth="1"/>
-    <col min="1542" max="1542" width="16.21875" style="4" customWidth="1"/>
-    <col min="1543" max="1543" width="6.109375" style="4" customWidth="1"/>
-    <col min="1544" max="1544" width="9.33203125" style="4" customWidth="1"/>
-    <col min="1545" max="1545" width="13.109375" style="4" customWidth="1"/>
+    <col min="1538" max="1538" width="11.375" style="4" customWidth="1"/>
+    <col min="1539" max="1539" width="9.75" style="4" customWidth="1"/>
+    <col min="1540" max="1540" width="8.125" style="4" customWidth="1"/>
+    <col min="1541" max="1541" width="12.5" style="4" customWidth="1"/>
+    <col min="1542" max="1542" width="16.25" style="4" customWidth="1"/>
+    <col min="1543" max="1543" width="6.125" style="4" customWidth="1"/>
+    <col min="1544" max="1544" width="9.375" style="4" customWidth="1"/>
+    <col min="1545" max="1545" width="13.125" style="4" customWidth="1"/>
     <col min="1546" max="1793" width="9" style="4"/>
-    <col min="1794" max="1794" width="11.33203125" style="4" customWidth="1"/>
-    <col min="1795" max="1795" width="9.77734375" style="4" customWidth="1"/>
-    <col min="1796" max="1796" width="8.109375" style="4" customWidth="1"/>
-    <col min="1797" max="1797" width="12.44140625" style="4" customWidth="1"/>
-    <col min="1798" max="1798" width="16.21875" style="4" customWidth="1"/>
-    <col min="1799" max="1799" width="6.109375" style="4" customWidth="1"/>
-    <col min="1800" max="1800" width="9.33203125" style="4" customWidth="1"/>
-    <col min="1801" max="1801" width="13.109375" style="4" customWidth="1"/>
+    <col min="1794" max="1794" width="11.375" style="4" customWidth="1"/>
+    <col min="1795" max="1795" width="9.75" style="4" customWidth="1"/>
+    <col min="1796" max="1796" width="8.125" style="4" customWidth="1"/>
+    <col min="1797" max="1797" width="12.5" style="4" customWidth="1"/>
+    <col min="1798" max="1798" width="16.25" style="4" customWidth="1"/>
+    <col min="1799" max="1799" width="6.125" style="4" customWidth="1"/>
+    <col min="1800" max="1800" width="9.375" style="4" customWidth="1"/>
+    <col min="1801" max="1801" width="13.125" style="4" customWidth="1"/>
     <col min="1802" max="2049" width="9" style="4"/>
-    <col min="2050" max="2050" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2051" max="2051" width="9.77734375" style="4" customWidth="1"/>
-    <col min="2052" max="2052" width="8.109375" style="4" customWidth="1"/>
-    <col min="2053" max="2053" width="12.44140625" style="4" customWidth="1"/>
-    <col min="2054" max="2054" width="16.21875" style="4" customWidth="1"/>
-    <col min="2055" max="2055" width="6.109375" style="4" customWidth="1"/>
-    <col min="2056" max="2056" width="9.33203125" style="4" customWidth="1"/>
-    <col min="2057" max="2057" width="13.109375" style="4" customWidth="1"/>
+    <col min="2050" max="2050" width="11.375" style="4" customWidth="1"/>
+    <col min="2051" max="2051" width="9.75" style="4" customWidth="1"/>
+    <col min="2052" max="2052" width="8.125" style="4" customWidth="1"/>
+    <col min="2053" max="2053" width="12.5" style="4" customWidth="1"/>
+    <col min="2054" max="2054" width="16.25" style="4" customWidth="1"/>
+    <col min="2055" max="2055" width="6.125" style="4" customWidth="1"/>
+    <col min="2056" max="2056" width="9.375" style="4" customWidth="1"/>
+    <col min="2057" max="2057" width="13.125" style="4" customWidth="1"/>
     <col min="2058" max="2305" width="9" style="4"/>
-    <col min="2306" max="2306" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2307" max="2307" width="9.77734375" style="4" customWidth="1"/>
-    <col min="2308" max="2308" width="8.109375" style="4" customWidth="1"/>
-    <col min="2309" max="2309" width="12.44140625" style="4" customWidth="1"/>
-    <col min="2310" max="2310" width="16.21875" style="4" customWidth="1"/>
-    <col min="2311" max="2311" width="6.109375" style="4" customWidth="1"/>
-    <col min="2312" max="2312" width="9.33203125" style="4" customWidth="1"/>
-    <col min="2313" max="2313" width="13.109375" style="4" customWidth="1"/>
+    <col min="2306" max="2306" width="11.375" style="4" customWidth="1"/>
+    <col min="2307" max="2307" width="9.75" style="4" customWidth="1"/>
+    <col min="2308" max="2308" width="8.125" style="4" customWidth="1"/>
+    <col min="2309" max="2309" width="12.5" style="4" customWidth="1"/>
+    <col min="2310" max="2310" width="16.25" style="4" customWidth="1"/>
+    <col min="2311" max="2311" width="6.125" style="4" customWidth="1"/>
+    <col min="2312" max="2312" width="9.375" style="4" customWidth="1"/>
+    <col min="2313" max="2313" width="13.125" style="4" customWidth="1"/>
     <col min="2314" max="2561" width="9" style="4"/>
-    <col min="2562" max="2562" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2563" max="2563" width="9.77734375" style="4" customWidth="1"/>
-    <col min="2564" max="2564" width="8.109375" style="4" customWidth="1"/>
-    <col min="2565" max="2565" width="12.44140625" style="4" customWidth="1"/>
-    <col min="2566" max="2566" width="16.21875" style="4" customWidth="1"/>
-    <col min="2567" max="2567" width="6.109375" style="4" customWidth="1"/>
-    <col min="2568" max="2568" width="9.33203125" style="4" customWidth="1"/>
-    <col min="2569" max="2569" width="13.109375" style="4" customWidth="1"/>
+    <col min="2562" max="2562" width="11.375" style="4" customWidth="1"/>
+    <col min="2563" max="2563" width="9.75" style="4" customWidth="1"/>
+    <col min="2564" max="2564" width="8.125" style="4" customWidth="1"/>
+    <col min="2565" max="2565" width="12.5" style="4" customWidth="1"/>
+    <col min="2566" max="2566" width="16.25" style="4" customWidth="1"/>
+    <col min="2567" max="2567" width="6.125" style="4" customWidth="1"/>
+    <col min="2568" max="2568" width="9.375" style="4" customWidth="1"/>
+    <col min="2569" max="2569" width="13.125" style="4" customWidth="1"/>
     <col min="2570" max="2817" width="9" style="4"/>
-    <col min="2818" max="2818" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2819" max="2819" width="9.77734375" style="4" customWidth="1"/>
-    <col min="2820" max="2820" width="8.109375" style="4" customWidth="1"/>
-    <col min="2821" max="2821" width="12.44140625" style="4" customWidth="1"/>
-    <col min="2822" max="2822" width="16.21875" style="4" customWidth="1"/>
-    <col min="2823" max="2823" width="6.109375" style="4" customWidth="1"/>
-    <col min="2824" max="2824" width="9.33203125" style="4" customWidth="1"/>
-    <col min="2825" max="2825" width="13.109375" style="4" customWidth="1"/>
+    <col min="2818" max="2818" width="11.375" style="4" customWidth="1"/>
+    <col min="2819" max="2819" width="9.75" style="4" customWidth="1"/>
+    <col min="2820" max="2820" width="8.125" style="4" customWidth="1"/>
+    <col min="2821" max="2821" width="12.5" style="4" customWidth="1"/>
+    <col min="2822" max="2822" width="16.25" style="4" customWidth="1"/>
+    <col min="2823" max="2823" width="6.125" style="4" customWidth="1"/>
+    <col min="2824" max="2824" width="9.375" style="4" customWidth="1"/>
+    <col min="2825" max="2825" width="13.125" style="4" customWidth="1"/>
     <col min="2826" max="3073" width="9" style="4"/>
-    <col min="3074" max="3074" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3075" max="3075" width="9.77734375" style="4" customWidth="1"/>
-    <col min="3076" max="3076" width="8.109375" style="4" customWidth="1"/>
-    <col min="3077" max="3077" width="12.44140625" style="4" customWidth="1"/>
-    <col min="3078" max="3078" width="16.21875" style="4" customWidth="1"/>
-    <col min="3079" max="3079" width="6.109375" style="4" customWidth="1"/>
-    <col min="3080" max="3080" width="9.33203125" style="4" customWidth="1"/>
-    <col min="3081" max="3081" width="13.109375" style="4" customWidth="1"/>
+    <col min="3074" max="3074" width="11.375" style="4" customWidth="1"/>
+    <col min="3075" max="3075" width="9.75" style="4" customWidth="1"/>
+    <col min="3076" max="3076" width="8.125" style="4" customWidth="1"/>
+    <col min="3077" max="3077" width="12.5" style="4" customWidth="1"/>
+    <col min="3078" max="3078" width="16.25" style="4" customWidth="1"/>
+    <col min="3079" max="3079" width="6.125" style="4" customWidth="1"/>
+    <col min="3080" max="3080" width="9.375" style="4" customWidth="1"/>
+    <col min="3081" max="3081" width="13.125" style="4" customWidth="1"/>
     <col min="3082" max="3329" width="9" style="4"/>
-    <col min="3330" max="3330" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3331" max="3331" width="9.77734375" style="4" customWidth="1"/>
-    <col min="3332" max="3332" width="8.109375" style="4" customWidth="1"/>
-    <col min="3333" max="3333" width="12.44140625" style="4" customWidth="1"/>
-    <col min="3334" max="3334" width="16.21875" style="4" customWidth="1"/>
-    <col min="3335" max="3335" width="6.109375" style="4" customWidth="1"/>
-    <col min="3336" max="3336" width="9.33203125" style="4" customWidth="1"/>
-    <col min="3337" max="3337" width="13.109375" style="4" customWidth="1"/>
+    <col min="3330" max="3330" width="11.375" style="4" customWidth="1"/>
+    <col min="3331" max="3331" width="9.75" style="4" customWidth="1"/>
+    <col min="3332" max="3332" width="8.125" style="4" customWidth="1"/>
+    <col min="3333" max="3333" width="12.5" style="4" customWidth="1"/>
+    <col min="3334" max="3334" width="16.25" style="4" customWidth="1"/>
+    <col min="3335" max="3335" width="6.125" style="4" customWidth="1"/>
+    <col min="3336" max="3336" width="9.375" style="4" customWidth="1"/>
+    <col min="3337" max="3337" width="13.125" style="4" customWidth="1"/>
     <col min="3338" max="3585" width="9" style="4"/>
-    <col min="3586" max="3586" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3587" max="3587" width="9.77734375" style="4" customWidth="1"/>
-    <col min="3588" max="3588" width="8.109375" style="4" customWidth="1"/>
-    <col min="3589" max="3589" width="12.44140625" style="4" customWidth="1"/>
-    <col min="3590" max="3590" width="16.21875" style="4" customWidth="1"/>
-    <col min="3591" max="3591" width="6.109375" style="4" customWidth="1"/>
-    <col min="3592" max="3592" width="9.33203125" style="4" customWidth="1"/>
-    <col min="3593" max="3593" width="13.109375" style="4" customWidth="1"/>
+    <col min="3586" max="3586" width="11.375" style="4" customWidth="1"/>
+    <col min="3587" max="3587" width="9.75" style="4" customWidth="1"/>
+    <col min="3588" max="3588" width="8.125" style="4" customWidth="1"/>
+    <col min="3589" max="3589" width="12.5" style="4" customWidth="1"/>
+    <col min="3590" max="3590" width="16.25" style="4" customWidth="1"/>
+    <col min="3591" max="3591" width="6.125" style="4" customWidth="1"/>
+    <col min="3592" max="3592" width="9.375" style="4" customWidth="1"/>
+    <col min="3593" max="3593" width="13.125" style="4" customWidth="1"/>
     <col min="3594" max="3841" width="9" style="4"/>
-    <col min="3842" max="3842" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3843" max="3843" width="9.77734375" style="4" customWidth="1"/>
-    <col min="3844" max="3844" width="8.109375" style="4" customWidth="1"/>
-    <col min="3845" max="3845" width="12.44140625" style="4" customWidth="1"/>
-    <col min="3846" max="3846" width="16.21875" style="4" customWidth="1"/>
-    <col min="3847" max="3847" width="6.109375" style="4" customWidth="1"/>
-    <col min="3848" max="3848" width="9.33203125" style="4" customWidth="1"/>
-    <col min="3849" max="3849" width="13.109375" style="4" customWidth="1"/>
+    <col min="3842" max="3842" width="11.375" style="4" customWidth="1"/>
+    <col min="3843" max="3843" width="9.75" style="4" customWidth="1"/>
+    <col min="3844" max="3844" width="8.125" style="4" customWidth="1"/>
+    <col min="3845" max="3845" width="12.5" style="4" customWidth="1"/>
+    <col min="3846" max="3846" width="16.25" style="4" customWidth="1"/>
+    <col min="3847" max="3847" width="6.125" style="4" customWidth="1"/>
+    <col min="3848" max="3848" width="9.375" style="4" customWidth="1"/>
+    <col min="3849" max="3849" width="13.125" style="4" customWidth="1"/>
     <col min="3850" max="4097" width="9" style="4"/>
-    <col min="4098" max="4098" width="11.33203125" style="4" customWidth="1"/>
-    <col min="4099" max="4099" width="9.77734375" style="4" customWidth="1"/>
-    <col min="4100" max="4100" width="8.109375" style="4" customWidth="1"/>
-    <col min="4101" max="4101" width="12.44140625" style="4" customWidth="1"/>
-    <col min="4102" max="4102" width="16.21875" style="4" customWidth="1"/>
-    <col min="4103" max="4103" width="6.109375" style="4" customWidth="1"/>
-    <col min="4104" max="4104" width="9.33203125" style="4" customWidth="1"/>
-    <col min="4105" max="4105" width="13.109375" style="4" customWidth="1"/>
+    <col min="4098" max="4098" width="11.375" style="4" customWidth="1"/>
+    <col min="4099" max="4099" width="9.75" style="4" customWidth="1"/>
+    <col min="4100" max="4100" width="8.125" style="4" customWidth="1"/>
+    <col min="4101" max="4101" width="12.5" style="4" customWidth="1"/>
+    <col min="4102" max="4102" width="16.25" style="4" customWidth="1"/>
+    <col min="4103" max="4103" width="6.125" style="4" customWidth="1"/>
+    <col min="4104" max="4104" width="9.375" style="4" customWidth="1"/>
+    <col min="4105" max="4105" width="13.125" style="4" customWidth="1"/>
     <col min="4106" max="4353" width="9" style="4"/>
-    <col min="4354" max="4354" width="11.33203125" style="4" customWidth="1"/>
-    <col min="4355" max="4355" width="9.77734375" style="4" customWidth="1"/>
-    <col min="4356" max="4356" width="8.109375" style="4" customWidth="1"/>
-    <col min="4357" max="4357" width="12.44140625" style="4" customWidth="1"/>
-    <col min="4358" max="4358" width="16.21875" style="4" customWidth="1"/>
-    <col min="4359" max="4359" width="6.109375" style="4" customWidth="1"/>
-    <col min="4360" max="4360" width="9.33203125" style="4" customWidth="1"/>
-    <col min="4361" max="4361" width="13.109375" style="4" customWidth="1"/>
+    <col min="4354" max="4354" width="11.375" style="4" customWidth="1"/>
+    <col min="4355" max="4355" width="9.75" style="4" customWidth="1"/>
+    <col min="4356" max="4356" width="8.125" style="4" customWidth="1"/>
+    <col min="4357" max="4357" width="12.5" style="4" customWidth="1"/>
+    <col min="4358" max="4358" width="16.25" style="4" customWidth="1"/>
+    <col min="4359" max="4359" width="6.125" style="4" customWidth="1"/>
+    <col min="4360" max="4360" width="9.375" style="4" customWidth="1"/>
+    <col min="4361" max="4361" width="13.125" style="4" customWidth="1"/>
     <col min="4362" max="4609" width="9" style="4"/>
-    <col min="4610" max="4610" width="11.33203125" style="4" customWidth="1"/>
-    <col min="4611" max="4611" width="9.77734375" style="4" customWidth="1"/>
-    <col min="4612" max="4612" width="8.109375" style="4" customWidth="1"/>
-    <col min="4613" max="4613" width="12.44140625" style="4" customWidth="1"/>
-    <col min="4614" max="4614" width="16.21875" style="4" customWidth="1"/>
-    <col min="4615" max="4615" width="6.109375" style="4" customWidth="1"/>
-    <col min="4616" max="4616" width="9.33203125" style="4" customWidth="1"/>
-    <col min="4617" max="4617" width="13.109375" style="4" customWidth="1"/>
+    <col min="4610" max="4610" width="11.375" style="4" customWidth="1"/>
+    <col min="4611" max="4611" width="9.75" style="4" customWidth="1"/>
+    <col min="4612" max="4612" width="8.125" style="4" customWidth="1"/>
+    <col min="4613" max="4613" width="12.5" style="4" customWidth="1"/>
+    <col min="4614" max="4614" width="16.25" style="4" customWidth="1"/>
+    <col min="4615" max="4615" width="6.125" style="4" customWidth="1"/>
+    <col min="4616" max="4616" width="9.375" style="4" customWidth="1"/>
+    <col min="4617" max="4617" width="13.125" style="4" customWidth="1"/>
     <col min="4618" max="4865" width="9" style="4"/>
-    <col min="4866" max="4866" width="11.33203125" style="4" customWidth="1"/>
-    <col min="4867" max="4867" width="9.77734375" style="4" customWidth="1"/>
-    <col min="4868" max="4868" width="8.109375" style="4" customWidth="1"/>
-    <col min="4869" max="4869" width="12.44140625" style="4" customWidth="1"/>
-    <col min="4870" max="4870" width="16.21875" style="4" customWidth="1"/>
-    <col min="4871" max="4871" width="6.109375" style="4" customWidth="1"/>
-    <col min="4872" max="4872" width="9.33203125" style="4" customWidth="1"/>
-    <col min="4873" max="4873" width="13.109375" style="4" customWidth="1"/>
+    <col min="4866" max="4866" width="11.375" style="4" customWidth="1"/>
+    <col min="4867" max="4867" width="9.75" style="4" customWidth="1"/>
+    <col min="4868" max="4868" width="8.125" style="4" customWidth="1"/>
+    <col min="4869" max="4869" width="12.5" style="4" customWidth="1"/>
+    <col min="4870" max="4870" width="16.25" style="4" customWidth="1"/>
+    <col min="4871" max="4871" width="6.125" style="4" customWidth="1"/>
+    <col min="4872" max="4872" width="9.375" style="4" customWidth="1"/>
+    <col min="4873" max="4873" width="13.125" style="4" customWidth="1"/>
     <col min="4874" max="5121" width="9" style="4"/>
-    <col min="5122" max="5122" width="11.33203125" style="4" customWidth="1"/>
-    <col min="5123" max="5123" width="9.77734375" style="4" customWidth="1"/>
-    <col min="5124" max="5124" width="8.109375" style="4" customWidth="1"/>
-    <col min="5125" max="5125" width="12.44140625" style="4" customWidth="1"/>
-    <col min="5126" max="5126" width="16.21875" style="4" customWidth="1"/>
-    <col min="5127" max="5127" width="6.109375" style="4" customWidth="1"/>
-    <col min="5128" max="5128" width="9.33203125" style="4" customWidth="1"/>
-    <col min="5129" max="5129" width="13.109375" style="4" customWidth="1"/>
+    <col min="5122" max="5122" width="11.375" style="4" customWidth="1"/>
+    <col min="5123" max="5123" width="9.75" style="4" customWidth="1"/>
+    <col min="5124" max="5124" width="8.125" style="4" customWidth="1"/>
+    <col min="5125" max="5125" width="12.5" style="4" customWidth="1"/>
+    <col min="5126" max="5126" width="16.25" style="4" customWidth="1"/>
+    <col min="5127" max="5127" width="6.125" style="4" customWidth="1"/>
+    <col min="5128" max="5128" width="9.375" style="4" customWidth="1"/>
+    <col min="5129" max="5129" width="13.125" style="4" customWidth="1"/>
     <col min="5130" max="5377" width="9" style="4"/>
-    <col min="5378" max="5378" width="11.33203125" style="4" customWidth="1"/>
-    <col min="5379" max="5379" width="9.77734375" style="4" customWidth="1"/>
-    <col min="5380" max="5380" width="8.109375" style="4" customWidth="1"/>
-    <col min="5381" max="5381" width="12.44140625" style="4" customWidth="1"/>
-    <col min="5382" max="5382" width="16.21875" style="4" customWidth="1"/>
-    <col min="5383" max="5383" width="6.109375" style="4" customWidth="1"/>
-    <col min="5384" max="5384" width="9.33203125" style="4" customWidth="1"/>
-    <col min="5385" max="5385" width="13.109375" style="4" customWidth="1"/>
+    <col min="5378" max="5378" width="11.375" style="4" customWidth="1"/>
+    <col min="5379" max="5379" width="9.75" style="4" customWidth="1"/>
+    <col min="5380" max="5380" width="8.125" style="4" customWidth="1"/>
+    <col min="5381" max="5381" width="12.5" style="4" customWidth="1"/>
+    <col min="5382" max="5382" width="16.25" style="4" customWidth="1"/>
+    <col min="5383" max="5383" width="6.125" style="4" customWidth="1"/>
+    <col min="5384" max="5384" width="9.375" style="4" customWidth="1"/>
+    <col min="5385" max="5385" width="13.125" style="4" customWidth="1"/>
     <col min="5386" max="5633" width="9" style="4"/>
-    <col min="5634" max="5634" width="11.33203125" style="4" customWidth="1"/>
-    <col min="5635" max="5635" width="9.77734375" style="4" customWidth="1"/>
-    <col min="5636" max="5636" width="8.109375" style="4" customWidth="1"/>
-    <col min="5637" max="5637" width="12.44140625" style="4" customWidth="1"/>
-    <col min="5638" max="5638" width="16.21875" style="4" customWidth="1"/>
-    <col min="5639" max="5639" width="6.109375" style="4" customWidth="1"/>
-    <col min="5640" max="5640" width="9.33203125" style="4" customWidth="1"/>
-    <col min="5641" max="5641" width="13.109375" style="4" customWidth="1"/>
+    <col min="5634" max="5634" width="11.375" style="4" customWidth="1"/>
+    <col min="5635" max="5635" width="9.75" style="4" customWidth="1"/>
+    <col min="5636" max="5636" width="8.125" style="4" customWidth="1"/>
+    <col min="5637" max="5637" width="12.5" style="4" customWidth="1"/>
+    <col min="5638" max="5638" width="16.25" style="4" customWidth="1"/>
+    <col min="5639" max="5639" width="6.125" style="4" customWidth="1"/>
+    <col min="5640" max="5640" width="9.375" style="4" customWidth="1"/>
+    <col min="5641" max="5641" width="13.125" style="4" customWidth="1"/>
     <col min="5642" max="5889" width="9" style="4"/>
-    <col min="5890" max="5890" width="11.33203125" style="4" customWidth="1"/>
-    <col min="5891" max="5891" width="9.77734375" style="4" customWidth="1"/>
-    <col min="5892" max="5892" width="8.109375" style="4" customWidth="1"/>
-    <col min="5893" max="5893" width="12.44140625" style="4" customWidth="1"/>
-    <col min="5894" max="5894" width="16.21875" style="4" customWidth="1"/>
-    <col min="5895" max="5895" width="6.109375" style="4" customWidth="1"/>
-    <col min="5896" max="5896" width="9.33203125" style="4" customWidth="1"/>
-    <col min="5897" max="5897" width="13.109375" style="4" customWidth="1"/>
+    <col min="5890" max="5890" width="11.375" style="4" customWidth="1"/>
+    <col min="5891" max="5891" width="9.75" style="4" customWidth="1"/>
+    <col min="5892" max="5892" width="8.125" style="4" customWidth="1"/>
+    <col min="5893" max="5893" width="12.5" style="4" customWidth="1"/>
+    <col min="5894" max="5894" width="16.25" style="4" customWidth="1"/>
+    <col min="5895" max="5895" width="6.125" style="4" customWidth="1"/>
+    <col min="5896" max="5896" width="9.375" style="4" customWidth="1"/>
+    <col min="5897" max="5897" width="13.125" style="4" customWidth="1"/>
     <col min="5898" max="6145" width="9" style="4"/>
-    <col min="6146" max="6146" width="11.33203125" style="4" customWidth="1"/>
-    <col min="6147" max="6147" width="9.77734375" style="4" customWidth="1"/>
-    <col min="6148" max="6148" width="8.109375" style="4" customWidth="1"/>
-    <col min="6149" max="6149" width="12.44140625" style="4" customWidth="1"/>
-    <col min="6150" max="6150" width="16.21875" style="4" customWidth="1"/>
-    <col min="6151" max="6151" width="6.109375" style="4" customWidth="1"/>
-    <col min="6152" max="6152" width="9.33203125" style="4" customWidth="1"/>
-    <col min="6153" max="6153" width="13.109375" style="4" customWidth="1"/>
+    <col min="6146" max="6146" width="11.375" style="4" customWidth="1"/>
+    <col min="6147" max="6147" width="9.75" style="4" customWidth="1"/>
+    <col min="6148" max="6148" width="8.125" style="4" customWidth="1"/>
+    <col min="6149" max="6149" width="12.5" style="4" customWidth="1"/>
+    <col min="6150" max="6150" width="16.25" style="4" customWidth="1"/>
+    <col min="6151" max="6151" width="6.125" style="4" customWidth="1"/>
+    <col min="6152" max="6152" width="9.375" style="4" customWidth="1"/>
+    <col min="6153" max="6153" width="13.125" style="4" customWidth="1"/>
     <col min="6154" max="6401" width="9" style="4"/>
-    <col min="6402" max="6402" width="11.33203125" style="4" customWidth="1"/>
-    <col min="6403" max="6403" width="9.77734375" style="4" customWidth="1"/>
-    <col min="6404" max="6404" width="8.109375" style="4" customWidth="1"/>
-    <col min="6405" max="6405" width="12.44140625" style="4" customWidth="1"/>
-    <col min="6406" max="6406" width="16.21875" style="4" customWidth="1"/>
-    <col min="6407" max="6407" width="6.109375" style="4" customWidth="1"/>
-    <col min="6408" max="6408" width="9.33203125" style="4" customWidth="1"/>
-    <col min="6409" max="6409" width="13.109375" style="4" customWidth="1"/>
+    <col min="6402" max="6402" width="11.375" style="4" customWidth="1"/>
+    <col min="6403" max="6403" width="9.75" style="4" customWidth="1"/>
+    <col min="6404" max="6404" width="8.125" style="4" customWidth="1"/>
+    <col min="6405" max="6405" width="12.5" style="4" customWidth="1"/>
+    <col min="6406" max="6406" width="16.25" style="4" customWidth="1"/>
+    <col min="6407" max="6407" width="6.125" style="4" customWidth="1"/>
+    <col min="6408" max="6408" width="9.375" style="4" customWidth="1"/>
+    <col min="6409" max="6409" width="13.125" style="4" customWidth="1"/>
     <col min="6410" max="6657" width="9" style="4"/>
-    <col min="6658" max="6658" width="11.33203125" style="4" customWidth="1"/>
-    <col min="6659" max="6659" width="9.77734375" style="4" customWidth="1"/>
-    <col min="6660" max="6660" width="8.109375" style="4" customWidth="1"/>
-    <col min="6661" max="6661" width="12.44140625" style="4" customWidth="1"/>
-    <col min="6662" max="6662" width="16.21875" style="4" customWidth="1"/>
-    <col min="6663" max="6663" width="6.109375" style="4" customWidth="1"/>
-    <col min="6664" max="6664" width="9.33203125" style="4" customWidth="1"/>
-    <col min="6665" max="6665" width="13.109375" style="4" customWidth="1"/>
+    <col min="6658" max="6658" width="11.375" style="4" customWidth="1"/>
+    <col min="6659" max="6659" width="9.75" style="4" customWidth="1"/>
+    <col min="6660" max="6660" width="8.125" style="4" customWidth="1"/>
+    <col min="6661" max="6661" width="12.5" style="4" customWidth="1"/>
+    <col min="6662" max="6662" width="16.25" style="4" customWidth="1"/>
+    <col min="6663" max="6663" width="6.125" style="4" customWidth="1"/>
+    <col min="6664" max="6664" width="9.375" style="4" customWidth="1"/>
+    <col min="6665" max="6665" width="13.125" style="4" customWidth="1"/>
     <col min="6666" max="6913" width="9" style="4"/>
-    <col min="6914" max="6914" width="11.33203125" style="4" customWidth="1"/>
-    <col min="6915" max="6915" width="9.77734375" style="4" customWidth="1"/>
-    <col min="6916" max="6916" width="8.109375" style="4" customWidth="1"/>
-    <col min="6917" max="6917" width="12.44140625" style="4" customWidth="1"/>
-    <col min="6918" max="6918" width="16.21875" style="4" customWidth="1"/>
-    <col min="6919" max="6919" width="6.109375" style="4" customWidth="1"/>
-    <col min="6920" max="6920" width="9.33203125" style="4" customWidth="1"/>
-    <col min="6921" max="6921" width="13.109375" style="4" customWidth="1"/>
+    <col min="6914" max="6914" width="11.375" style="4" customWidth="1"/>
+    <col min="6915" max="6915" width="9.75" style="4" customWidth="1"/>
+    <col min="6916" max="6916" width="8.125" style="4" customWidth="1"/>
+    <col min="6917" max="6917" width="12.5" style="4" customWidth="1"/>
+    <col min="6918" max="6918" width="16.25" style="4" customWidth="1"/>
+    <col min="6919" max="6919" width="6.125" style="4" customWidth="1"/>
+    <col min="6920" max="6920" width="9.375" style="4" customWidth="1"/>
+    <col min="6921" max="6921" width="13.125" style="4" customWidth="1"/>
     <col min="6922" max="7169" width="9" style="4"/>
-    <col min="7170" max="7170" width="11.33203125" style="4" customWidth="1"/>
-    <col min="7171" max="7171" width="9.77734375" style="4" customWidth="1"/>
-    <col min="7172" max="7172" width="8.109375" style="4" customWidth="1"/>
-    <col min="7173" max="7173" width="12.44140625" style="4" customWidth="1"/>
-    <col min="7174" max="7174" width="16.21875" style="4" customWidth="1"/>
-    <col min="7175" max="7175" width="6.109375" style="4" customWidth="1"/>
-    <col min="7176" max="7176" width="9.33203125" style="4" customWidth="1"/>
-    <col min="7177" max="7177" width="13.109375" style="4" customWidth="1"/>
+    <col min="7170" max="7170" width="11.375" style="4" customWidth="1"/>
+    <col min="7171" max="7171" width="9.75" style="4" customWidth="1"/>
+    <col min="7172" max="7172" width="8.125" style="4" customWidth="1"/>
+    <col min="7173" max="7173" width="12.5" style="4" customWidth="1"/>
+    <col min="7174" max="7174" width="16.25" style="4" customWidth="1"/>
+    <col min="7175" max="7175" width="6.125" style="4" customWidth="1"/>
+    <col min="7176" max="7176" width="9.375" style="4" customWidth="1"/>
+    <col min="7177" max="7177" width="13.125" style="4" customWidth="1"/>
     <col min="7178" max="7425" width="9" style="4"/>
-    <col min="7426" max="7426" width="11.33203125" style="4" customWidth="1"/>
-    <col min="7427" max="7427" width="9.77734375" style="4" customWidth="1"/>
-    <col min="7428" max="7428" width="8.109375" style="4" customWidth="1"/>
-    <col min="7429" max="7429" width="12.44140625" style="4" customWidth="1"/>
-    <col min="7430" max="7430" width="16.21875" style="4" customWidth="1"/>
-    <col min="7431" max="7431" width="6.109375" style="4" customWidth="1"/>
-    <col min="7432" max="7432" width="9.33203125" style="4" customWidth="1"/>
-    <col min="7433" max="7433" width="13.109375" style="4" customWidth="1"/>
+    <col min="7426" max="7426" width="11.375" style="4" customWidth="1"/>
+    <col min="7427" max="7427" width="9.75" style="4" customWidth="1"/>
+    <col min="7428" max="7428" width="8.125" style="4" customWidth="1"/>
+    <col min="7429" max="7429" width="12.5" style="4" customWidth="1"/>
+    <col min="7430" max="7430" width="16.25" style="4" customWidth="1"/>
+    <col min="7431" max="7431" width="6.125" style="4" customWidth="1"/>
+    <col min="7432" max="7432" width="9.375" style="4" customWidth="1"/>
+    <col min="7433" max="7433" width="13.125" style="4" customWidth="1"/>
     <col min="7434" max="7681" width="9" style="4"/>
-    <col min="7682" max="7682" width="11.33203125" style="4" customWidth="1"/>
-    <col min="7683" max="7683" width="9.77734375" style="4" customWidth="1"/>
-    <col min="7684" max="7684" width="8.109375" style="4" customWidth="1"/>
-    <col min="7685" max="7685" width="12.44140625" style="4" customWidth="1"/>
-    <col min="7686" max="7686" width="16.21875" style="4" customWidth="1"/>
-    <col min="7687" max="7687" width="6.109375" style="4" customWidth="1"/>
-    <col min="7688" max="7688" width="9.33203125" style="4" customWidth="1"/>
-    <col min="7689" max="7689" width="13.109375" style="4" customWidth="1"/>
+    <col min="7682" max="7682" width="11.375" style="4" customWidth="1"/>
+    <col min="7683" max="7683" width="9.75" style="4" customWidth="1"/>
+    <col min="7684" max="7684" width="8.125" style="4" customWidth="1"/>
+    <col min="7685" max="7685" width="12.5" style="4" customWidth="1"/>
+    <col min="7686" max="7686" width="16.25" style="4" customWidth="1"/>
+    <col min="7687" max="7687" width="6.125" style="4" customWidth="1"/>
+    <col min="7688" max="7688" width="9.375" style="4" customWidth="1"/>
+    <col min="7689" max="7689" width="13.125" style="4" customWidth="1"/>
     <col min="7690" max="7937" width="9" style="4"/>
-    <col min="7938" max="7938" width="11.33203125" style="4" customWidth="1"/>
-    <col min="7939" max="7939" width="9.77734375" style="4" customWidth="1"/>
-    <col min="7940" max="7940" width="8.109375" style="4" customWidth="1"/>
-    <col min="7941" max="7941" width="12.44140625" style="4" customWidth="1"/>
-    <col min="7942" max="7942" width="16.21875" style="4" customWidth="1"/>
-    <col min="7943" max="7943" width="6.109375" style="4" customWidth="1"/>
-    <col min="7944" max="7944" width="9.33203125" style="4" customWidth="1"/>
-    <col min="7945" max="7945" width="13.109375" style="4" customWidth="1"/>
+    <col min="7938" max="7938" width="11.375" style="4" customWidth="1"/>
+    <col min="7939" max="7939" width="9.75" style="4" customWidth="1"/>
+    <col min="7940" max="7940" width="8.125" style="4" customWidth="1"/>
+    <col min="7941" max="7941" width="12.5" style="4" customWidth="1"/>
+    <col min="7942" max="7942" width="16.25" style="4" customWidth="1"/>
+    <col min="7943" max="7943" width="6.125" style="4" customWidth="1"/>
+    <col min="7944" max="7944" width="9.375" style="4" customWidth="1"/>
+    <col min="7945" max="7945" width="13.125" style="4" customWidth="1"/>
     <col min="7946" max="8193" width="9" style="4"/>
-    <col min="8194" max="8194" width="11.33203125" style="4" customWidth="1"/>
-    <col min="8195" max="8195" width="9.77734375" style="4" customWidth="1"/>
-    <col min="8196" max="8196" width="8.109375" style="4" customWidth="1"/>
-    <col min="8197" max="8197" width="12.44140625" style="4" customWidth="1"/>
-    <col min="8198" max="8198" width="16.21875" style="4" customWidth="1"/>
-    <col min="8199" max="8199" width="6.109375" style="4" customWidth="1"/>
-    <col min="8200" max="8200" width="9.33203125" style="4" customWidth="1"/>
-    <col min="8201" max="8201" width="13.109375" style="4" customWidth="1"/>
+    <col min="8194" max="8194" width="11.375" style="4" customWidth="1"/>
+    <col min="8195" max="8195" width="9.75" style="4" customWidth="1"/>
+    <col min="8196" max="8196" width="8.125" style="4" customWidth="1"/>
+    <col min="8197" max="8197" width="12.5" style="4" customWidth="1"/>
+    <col min="8198" max="8198" width="16.25" style="4" customWidth="1"/>
+    <col min="8199" max="8199" width="6.125" style="4" customWidth="1"/>
+    <col min="8200" max="8200" width="9.375" style="4" customWidth="1"/>
+    <col min="8201" max="8201" width="13.125" style="4" customWidth="1"/>
     <col min="8202" max="8449" width="9" style="4"/>
-    <col min="8450" max="8450" width="11.33203125" style="4" customWidth="1"/>
-    <col min="8451" max="8451" width="9.77734375" style="4" customWidth="1"/>
-    <col min="8452" max="8452" width="8.109375" style="4" customWidth="1"/>
-    <col min="8453" max="8453" width="12.44140625" style="4" customWidth="1"/>
-    <col min="8454" max="8454" width="16.21875" style="4" customWidth="1"/>
-    <col min="8455" max="8455" width="6.109375" style="4" customWidth="1"/>
-    <col min="8456" max="8456" width="9.33203125" style="4" customWidth="1"/>
-    <col min="8457" max="8457" width="13.109375" style="4" customWidth="1"/>
+    <col min="8450" max="8450" width="11.375" style="4" customWidth="1"/>
+    <col min="8451" max="8451" width="9.75" style="4" customWidth="1"/>
+    <col min="8452" max="8452" width="8.125" style="4" customWidth="1"/>
+    <col min="8453" max="8453" width="12.5" style="4" customWidth="1"/>
+    <col min="8454" max="8454" width="16.25" style="4" customWidth="1"/>
+    <col min="8455" max="8455" width="6.125" style="4" customWidth="1"/>
+    <col min="8456" max="8456" width="9.375" style="4" customWidth="1"/>
+    <col min="8457" max="8457" width="13.125" style="4" customWidth="1"/>
     <col min="8458" max="8705" width="9" style="4"/>
-    <col min="8706" max="8706" width="11.33203125" style="4" customWidth="1"/>
-    <col min="8707" max="8707" width="9.77734375" style="4" customWidth="1"/>
-    <col min="8708" max="8708" width="8.109375" style="4" customWidth="1"/>
-    <col min="8709" max="8709" width="12.44140625" style="4" customWidth="1"/>
-    <col min="8710" max="8710" width="16.21875" style="4" customWidth="1"/>
-    <col min="8711" max="8711" width="6.109375" style="4" customWidth="1"/>
-    <col min="8712" max="8712" width="9.33203125" style="4" customWidth="1"/>
-    <col min="8713" max="8713" width="13.109375" style="4" customWidth="1"/>
+    <col min="8706" max="8706" width="11.375" style="4" customWidth="1"/>
+    <col min="8707" max="8707" width="9.75" style="4" customWidth="1"/>
+    <col min="8708" max="8708" width="8.125" style="4" customWidth="1"/>
+    <col min="8709" max="8709" width="12.5" style="4" customWidth="1"/>
+    <col min="8710" max="8710" width="16.25" style="4" customWidth="1"/>
+    <col min="8711" max="8711" width="6.125" style="4" customWidth="1"/>
+    <col min="8712" max="8712" width="9.375" style="4" customWidth="1"/>
+    <col min="8713" max="8713" width="13.125" style="4" customWidth="1"/>
     <col min="8714" max="8961" width="9" style="4"/>
-    <col min="8962" max="8962" width="11.33203125" style="4" customWidth="1"/>
-    <col min="8963" max="8963" width="9.77734375" style="4" customWidth="1"/>
-    <col min="8964" max="8964" width="8.109375" style="4" customWidth="1"/>
-    <col min="8965" max="8965" width="12.44140625" style="4" customWidth="1"/>
-    <col min="8966" max="8966" width="16.21875" style="4" customWidth="1"/>
-    <col min="8967" max="8967" width="6.109375" style="4" customWidth="1"/>
-    <col min="8968" max="8968" width="9.33203125" style="4" customWidth="1"/>
-    <col min="8969" max="8969" width="13.109375" style="4" customWidth="1"/>
+    <col min="8962" max="8962" width="11.375" style="4" customWidth="1"/>
+    <col min="8963" max="8963" width="9.75" style="4" customWidth="1"/>
+    <col min="8964" max="8964" width="8.125" style="4" customWidth="1"/>
+    <col min="8965" max="8965" width="12.5" style="4" customWidth="1"/>
+    <col min="8966" max="8966" width="16.25" style="4" customWidth="1"/>
+    <col min="8967" max="8967" width="6.125" style="4" customWidth="1"/>
+    <col min="8968" max="8968" width="9.375" style="4" customWidth="1"/>
+    <col min="8969" max="8969" width="13.125" style="4" customWidth="1"/>
     <col min="8970" max="9217" width="9" style="4"/>
-    <col min="9218" max="9218" width="11.33203125" style="4" customWidth="1"/>
-    <col min="9219" max="9219" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9220" max="9220" width="8.109375" style="4" customWidth="1"/>
-    <col min="9221" max="9221" width="12.44140625" style="4" customWidth="1"/>
-    <col min="9222" max="9222" width="16.21875" style="4" customWidth="1"/>
-    <col min="9223" max="9223" width="6.109375" style="4" customWidth="1"/>
-    <col min="9224" max="9224" width="9.33203125" style="4" customWidth="1"/>
-    <col min="9225" max="9225" width="13.109375" style="4" customWidth="1"/>
+    <col min="9218" max="9218" width="11.375" style="4" customWidth="1"/>
+    <col min="9219" max="9219" width="9.75" style="4" customWidth="1"/>
+    <col min="9220" max="9220" width="8.125" style="4" customWidth="1"/>
+    <col min="9221" max="9221" width="12.5" style="4" customWidth="1"/>
+    <col min="9222" max="9222" width="16.25" style="4" customWidth="1"/>
+    <col min="9223" max="9223" width="6.125" style="4" customWidth="1"/>
+    <col min="9224" max="9224" width="9.375" style="4" customWidth="1"/>
+    <col min="9225" max="9225" width="13.125" style="4" customWidth="1"/>
     <col min="9226" max="9473" width="9" style="4"/>
-    <col min="9474" max="9474" width="11.33203125" style="4" customWidth="1"/>
-    <col min="9475" max="9475" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9476" max="9476" width="8.109375" style="4" customWidth="1"/>
-    <col min="9477" max="9477" width="12.44140625" style="4" customWidth="1"/>
-    <col min="9478" max="9478" width="16.21875" style="4" customWidth="1"/>
-    <col min="9479" max="9479" width="6.109375" style="4" customWidth="1"/>
-    <col min="9480" max="9480" width="9.33203125" style="4" customWidth="1"/>
-    <col min="9481" max="9481" width="13.109375" style="4" customWidth="1"/>
+    <col min="9474" max="9474" width="11.375" style="4" customWidth="1"/>
+    <col min="9475" max="9475" width="9.75" style="4" customWidth="1"/>
+    <col min="9476" max="9476" width="8.125" style="4" customWidth="1"/>
+    <col min="9477" max="9477" width="12.5" style="4" customWidth="1"/>
+    <col min="9478" max="9478" width="16.25" style="4" customWidth="1"/>
+    <col min="9479" max="9479" width="6.125" style="4" customWidth="1"/>
+    <col min="9480" max="9480" width="9.375" style="4" customWidth="1"/>
+    <col min="9481" max="9481" width="13.125" style="4" customWidth="1"/>
     <col min="9482" max="9729" width="9" style="4"/>
-    <col min="9730" max="9730" width="11.33203125" style="4" customWidth="1"/>
-    <col min="9731" max="9731" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9732" max="9732" width="8.109375" style="4" customWidth="1"/>
-    <col min="9733" max="9733" width="12.44140625" style="4" customWidth="1"/>
-    <col min="9734" max="9734" width="16.21875" style="4" customWidth="1"/>
-    <col min="9735" max="9735" width="6.109375" style="4" customWidth="1"/>
-    <col min="9736" max="9736" width="9.33203125" style="4" customWidth="1"/>
-    <col min="9737" max="9737" width="13.109375" style="4" customWidth="1"/>
+    <col min="9730" max="9730" width="11.375" style="4" customWidth="1"/>
+    <col min="9731" max="9731" width="9.75" style="4" customWidth="1"/>
+    <col min="9732" max="9732" width="8.125" style="4" customWidth="1"/>
+    <col min="9733" max="9733" width="12.5" style="4" customWidth="1"/>
+    <col min="9734" max="9734" width="16.25" style="4" customWidth="1"/>
+    <col min="9735" max="9735" width="6.125" style="4" customWidth="1"/>
+    <col min="9736" max="9736" width="9.375" style="4" customWidth="1"/>
+    <col min="9737" max="9737" width="13.125" style="4" customWidth="1"/>
     <col min="9738" max="9985" width="9" style="4"/>
-    <col min="9986" max="9986" width="11.33203125" style="4" customWidth="1"/>
-    <col min="9987" max="9987" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9988" max="9988" width="8.109375" style="4" customWidth="1"/>
-    <col min="9989" max="9989" width="12.44140625" style="4" customWidth="1"/>
-    <col min="9990" max="9990" width="16.21875" style="4" customWidth="1"/>
-    <col min="9991" max="9991" width="6.109375" style="4" customWidth="1"/>
-    <col min="9992" max="9992" width="9.33203125" style="4" customWidth="1"/>
-    <col min="9993" max="9993" width="13.109375" style="4" customWidth="1"/>
+    <col min="9986" max="9986" width="11.375" style="4" customWidth="1"/>
+    <col min="9987" max="9987" width="9.75" style="4" customWidth="1"/>
+    <col min="9988" max="9988" width="8.125" style="4" customWidth="1"/>
+    <col min="9989" max="9989" width="12.5" style="4" customWidth="1"/>
+    <col min="9990" max="9990" width="16.25" style="4" customWidth="1"/>
+    <col min="9991" max="9991" width="6.125" style="4" customWidth="1"/>
+    <col min="9992" max="9992" width="9.375" style="4" customWidth="1"/>
+    <col min="9993" max="9993" width="13.125" style="4" customWidth="1"/>
     <col min="9994" max="10241" width="9" style="4"/>
-    <col min="10242" max="10242" width="11.33203125" style="4" customWidth="1"/>
-    <col min="10243" max="10243" width="9.77734375" style="4" customWidth="1"/>
-    <col min="10244" max="10244" width="8.109375" style="4" customWidth="1"/>
-    <col min="10245" max="10245" width="12.44140625" style="4" customWidth="1"/>
-    <col min="10246" max="10246" width="16.21875" style="4" customWidth="1"/>
-    <col min="10247" max="10247" width="6.109375" style="4" customWidth="1"/>
-    <col min="10248" max="10248" width="9.33203125" style="4" customWidth="1"/>
-    <col min="10249" max="10249" width="13.109375" style="4" customWidth="1"/>
+    <col min="10242" max="10242" width="11.375" style="4" customWidth="1"/>
+    <col min="10243" max="10243" width="9.75" style="4" customWidth="1"/>
+    <col min="10244" max="10244" width="8.125" style="4" customWidth="1"/>
+    <col min="10245" max="10245" width="12.5" style="4" customWidth="1"/>
+    <col min="10246" max="10246" width="16.25" style="4" customWidth="1"/>
+    <col min="10247" max="10247" width="6.125" style="4" customWidth="1"/>
+    <col min="10248" max="10248" width="9.375" style="4" customWidth="1"/>
+    <col min="10249" max="10249" width="13.125" style="4" customWidth="1"/>
     <col min="10250" max="10497" width="9" style="4"/>
-    <col min="10498" max="10498" width="11.33203125" style="4" customWidth="1"/>
-    <col min="10499" max="10499" width="9.77734375" style="4" customWidth="1"/>
-    <col min="10500" max="10500" width="8.109375" style="4" customWidth="1"/>
-    <col min="10501" max="10501" width="12.44140625" style="4" customWidth="1"/>
-    <col min="10502" max="10502" width="16.21875" style="4" customWidth="1"/>
-    <col min="10503" max="10503" width="6.109375" style="4" customWidth="1"/>
-    <col min="10504" max="10504" width="9.33203125" style="4" customWidth="1"/>
-    <col min="10505" max="10505" width="13.109375" style="4" customWidth="1"/>
+    <col min="10498" max="10498" width="11.375" style="4" customWidth="1"/>
+    <col min="10499" max="10499" width="9.75" style="4" customWidth="1"/>
+    <col min="10500" max="10500" width="8.125" style="4" customWidth="1"/>
+    <col min="10501" max="10501" width="12.5" style="4" customWidth="1"/>
+    <col min="10502" max="10502" width="16.25" style="4" customWidth="1"/>
+    <col min="10503" max="10503" width="6.125" style="4" customWidth="1"/>
+    <col min="10504" max="10504" width="9.375" style="4" customWidth="1"/>
+    <col min="10505" max="10505" width="13.125" style="4" customWidth="1"/>
     <col min="10506" max="10753" width="9" style="4"/>
-    <col min="10754" max="10754" width="11.33203125" style="4" customWidth="1"/>
-    <col min="10755" max="10755" width="9.77734375" style="4" customWidth="1"/>
-    <col min="10756" max="10756" width="8.109375" style="4" customWidth="1"/>
-    <col min="10757" max="10757" width="12.44140625" style="4" customWidth="1"/>
-    <col min="10758" max="10758" width="16.21875" style="4" customWidth="1"/>
-    <col min="10759" max="10759" width="6.109375" style="4" customWidth="1"/>
-    <col min="10760" max="10760" width="9.33203125" style="4" customWidth="1"/>
-    <col min="10761" max="10761" width="13.109375" style="4" customWidth="1"/>
+    <col min="10754" max="10754" width="11.375" style="4" customWidth="1"/>
+    <col min="10755" max="10755" width="9.75" style="4" customWidth="1"/>
+    <col min="10756" max="10756" width="8.125" style="4" customWidth="1"/>
+    <col min="10757" max="10757" width="12.5" style="4" customWidth="1"/>
+    <col min="10758" max="10758" width="16.25" style="4" customWidth="1"/>
+    <col min="10759" max="10759" width="6.125" style="4" customWidth="1"/>
+    <col min="10760" max="10760" width="9.375" style="4" customWidth="1"/>
+    <col min="10761" max="10761" width="13.125" style="4" customWidth="1"/>
     <col min="10762" max="11009" width="9" style="4"/>
-    <col min="11010" max="11010" width="11.33203125" style="4" customWidth="1"/>
-    <col min="11011" max="11011" width="9.77734375" style="4" customWidth="1"/>
-    <col min="11012" max="11012" width="8.109375" style="4" customWidth="1"/>
-    <col min="11013" max="11013" width="12.44140625" style="4" customWidth="1"/>
-    <col min="11014" max="11014" width="16.21875" style="4" customWidth="1"/>
-    <col min="11015" max="11015" width="6.109375" style="4" customWidth="1"/>
-    <col min="11016" max="11016" width="9.33203125" style="4" customWidth="1"/>
-    <col min="11017" max="11017" width="13.109375" style="4" customWidth="1"/>
+    <col min="11010" max="11010" width="11.375" style="4" customWidth="1"/>
+    <col min="11011" max="11011" width="9.75" style="4" customWidth="1"/>
+    <col min="11012" max="11012" width="8.125" style="4" customWidth="1"/>
+    <col min="11013" max="11013" width="12.5" style="4" customWidth="1"/>
+    <col min="11014" max="11014" width="16.25" style="4" customWidth="1"/>
+    <col min="11015" max="11015" width="6.125" style="4" customWidth="1"/>
+    <col min="11016" max="11016" width="9.375" style="4" customWidth="1"/>
+    <col min="11017" max="11017" width="13.125" style="4" customWidth="1"/>
     <col min="11018" max="11265" width="9" style="4"/>
-    <col min="11266" max="11266" width="11.33203125" style="4" customWidth="1"/>
-    <col min="11267" max="11267" width="9.77734375" style="4" customWidth="1"/>
-    <col min="11268" max="11268" width="8.109375" style="4" customWidth="1"/>
-    <col min="11269" max="11269" width="12.44140625" style="4" customWidth="1"/>
-    <col min="11270" max="11270" width="16.21875" style="4" customWidth="1"/>
-    <col min="11271" max="11271" width="6.109375" style="4" customWidth="1"/>
-    <col min="11272" max="11272" width="9.33203125" style="4" customWidth="1"/>
-    <col min="11273" max="11273" width="13.109375" style="4" customWidth="1"/>
+    <col min="11266" max="11266" width="11.375" style="4" customWidth="1"/>
+    <col min="11267" max="11267" width="9.75" style="4" customWidth="1"/>
+    <col min="11268" max="11268" width="8.125" style="4" customWidth="1"/>
+    <col min="11269" max="11269" width="12.5" style="4" customWidth="1"/>
+    <col min="11270" max="11270" width="16.25" style="4" customWidth="1"/>
+    <col min="11271" max="11271" width="6.125" style="4" customWidth="1"/>
+    <col min="11272" max="11272" width="9.375" style="4" customWidth="1"/>
+    <col min="11273" max="11273" width="13.125" style="4" customWidth="1"/>
     <col min="11274" max="11521" width="9" style="4"/>
-    <col min="11522" max="11522" width="11.33203125" style="4" customWidth="1"/>
-    <col min="11523" max="11523" width="9.77734375" style="4" customWidth="1"/>
-    <col min="11524" max="11524" width="8.109375" style="4" customWidth="1"/>
-    <col min="11525" max="11525" width="12.44140625" style="4" customWidth="1"/>
-    <col min="11526" max="11526" width="16.21875" style="4" customWidth="1"/>
-    <col min="11527" max="11527" width="6.109375" style="4" customWidth="1"/>
-    <col min="11528" max="11528" width="9.33203125" style="4" customWidth="1"/>
-    <col min="11529" max="11529" width="13.109375" style="4" customWidth="1"/>
+    <col min="11522" max="11522" width="11.375" style="4" customWidth="1"/>
+    <col min="11523" max="11523" width="9.75" style="4" customWidth="1"/>
+    <col min="11524" max="11524" width="8.125" style="4" customWidth="1"/>
+    <col min="11525" max="11525" width="12.5" style="4" customWidth="1"/>
+    <col min="11526" max="11526" width="16.25" style="4" customWidth="1"/>
+    <col min="11527" max="11527" width="6.125" style="4" customWidth="1"/>
+    <col min="11528" max="11528" width="9.375" style="4" customWidth="1"/>
+    <col min="11529" max="11529" width="13.125" style="4" customWidth="1"/>
     <col min="11530" max="11777" width="9" style="4"/>
-    <col min="11778" max="11778" width="11.33203125" style="4" customWidth="1"/>
-    <col min="11779" max="11779" width="9.77734375" style="4" customWidth="1"/>
-    <col min="11780" max="11780" width="8.109375" style="4" customWidth="1"/>
-    <col min="11781" max="11781" width="12.44140625" style="4" customWidth="1"/>
-    <col min="11782" max="11782" width="16.21875" style="4" customWidth="1"/>
-    <col min="11783" max="11783" width="6.109375" style="4" customWidth="1"/>
-    <col min="11784" max="11784" width="9.33203125" style="4" customWidth="1"/>
-    <col min="11785" max="11785" width="13.109375" style="4" customWidth="1"/>
+    <col min="11778" max="11778" width="11.375" style="4" customWidth="1"/>
+    <col min="11779" max="11779" width="9.75" style="4" customWidth="1"/>
+    <col min="11780" max="11780" width="8.125" style="4" customWidth="1"/>
+    <col min="11781" max="11781" width="12.5" style="4" customWidth="1"/>
+    <col min="11782" max="11782" width="16.25" style="4" customWidth="1"/>
+    <col min="11783" max="11783" width="6.125" style="4" customWidth="1"/>
+    <col min="11784" max="11784" width="9.375" style="4" customWidth="1"/>
+    <col min="11785" max="11785" width="13.125" style="4" customWidth="1"/>
     <col min="11786" max="12033" width="9" style="4"/>
-    <col min="12034" max="12034" width="11.33203125" style="4" customWidth="1"/>
-    <col min="12035" max="12035" width="9.77734375" style="4" customWidth="1"/>
-    <col min="12036" max="12036" width="8.109375" style="4" customWidth="1"/>
-    <col min="12037" max="12037" width="12.44140625" style="4" customWidth="1"/>
-    <col min="12038" max="12038" width="16.21875" style="4" customWidth="1"/>
-    <col min="12039" max="12039" width="6.109375" style="4" customWidth="1"/>
-    <col min="12040" max="12040" width="9.33203125" style="4" customWidth="1"/>
-    <col min="12041" max="12041" width="13.109375" style="4" customWidth="1"/>
+    <col min="12034" max="12034" width="11.375" style="4" customWidth="1"/>
+    <col min="12035" max="12035" width="9.75" style="4" customWidth="1"/>
+    <col min="12036" max="12036" width="8.125" style="4" customWidth="1"/>
+    <col min="12037" max="12037" width="12.5" style="4" customWidth="1"/>
+    <col min="12038" max="12038" width="16.25" style="4" customWidth="1"/>
+    <col min="12039" max="12039" width="6.125" style="4" customWidth="1"/>
+    <col min="12040" max="12040" width="9.375" style="4" customWidth="1"/>
+    <col min="12041" max="12041" width="13.125" style="4" customWidth="1"/>
     <col min="12042" max="12289" width="9" style="4"/>
-    <col min="12290" max="12290" width="11.33203125" style="4" customWidth="1"/>
-    <col min="12291" max="12291" width="9.77734375" style="4" customWidth="1"/>
-    <col min="12292" max="12292" width="8.109375" style="4" customWidth="1"/>
-    <col min="12293" max="12293" width="12.44140625" style="4" customWidth="1"/>
-    <col min="12294" max="12294" width="16.21875" style="4" customWidth="1"/>
-    <col min="12295" max="12295" width="6.109375" style="4" customWidth="1"/>
-    <col min="12296" max="12296" width="9.33203125" style="4" customWidth="1"/>
-    <col min="12297" max="12297" width="13.109375" style="4" customWidth="1"/>
+    <col min="12290" max="12290" width="11.375" style="4" customWidth="1"/>
+    <col min="12291" max="12291" width="9.75" style="4" customWidth="1"/>
+    <col min="12292" max="12292" width="8.125" style="4" customWidth="1"/>
+    <col min="12293" max="12293" width="12.5" style="4" customWidth="1"/>
+    <col min="12294" max="12294" width="16.25" style="4" customWidth="1"/>
+    <col min="12295" max="12295" width="6.125" style="4" customWidth="1"/>
+    <col min="12296" max="12296" width="9.375" style="4" customWidth="1"/>
+    <col min="12297" max="12297" width="13.125" style="4" customWidth="1"/>
     <col min="12298" max="12545" width="9" style="4"/>
-    <col min="12546" max="12546" width="11.33203125" style="4" customWidth="1"/>
-    <col min="12547" max="12547" width="9.77734375" style="4" customWidth="1"/>
-    <col min="12548" max="12548" width="8.109375" style="4" customWidth="1"/>
-    <col min="12549" max="12549" width="12.44140625" style="4" customWidth="1"/>
-    <col min="12550" max="12550" width="16.21875" style="4" customWidth="1"/>
-    <col min="12551" max="12551" width="6.109375" style="4" customWidth="1"/>
-    <col min="12552" max="12552" width="9.33203125" style="4" customWidth="1"/>
-    <col min="12553" max="12553" width="13.109375" style="4" customWidth="1"/>
+    <col min="12546" max="12546" width="11.375" style="4" customWidth="1"/>
+    <col min="12547" max="12547" width="9.75" style="4" customWidth="1"/>
+    <col min="12548" max="12548" width="8.125" style="4" customWidth="1"/>
+    <col min="12549" max="12549" width="12.5" style="4" customWidth="1"/>
+    <col min="12550" max="12550" width="16.25" style="4" customWidth="1"/>
+    <col min="12551" max="12551" width="6.125" style="4" customWidth="1"/>
+    <col min="12552" max="12552" width="9.375" style="4" customWidth="1"/>
+    <col min="12553" max="12553" width="13.125" style="4" customWidth="1"/>
     <col min="12554" max="12801" width="9" style="4"/>
-    <col min="12802" max="12802" width="11.33203125" style="4" customWidth="1"/>
-    <col min="12803" max="12803" width="9.77734375" style="4" customWidth="1"/>
-    <col min="12804" max="12804" width="8.109375" style="4" customWidth="1"/>
-    <col min="12805" max="12805" width="12.44140625" style="4" customWidth="1"/>
-    <col min="12806" max="12806" width="16.21875" style="4" customWidth="1"/>
-    <col min="12807" max="12807" width="6.109375" style="4" customWidth="1"/>
-    <col min="12808" max="12808" width="9.33203125" style="4" customWidth="1"/>
-    <col min="12809" max="12809" width="13.109375" style="4" customWidth="1"/>
+    <col min="12802" max="12802" width="11.375" style="4" customWidth="1"/>
+    <col min="12803" max="12803" width="9.75" style="4" customWidth="1"/>
+    <col min="12804" max="12804" width="8.125" style="4" customWidth="1"/>
+    <col min="12805" max="12805" width="12.5" style="4" customWidth="1"/>
+    <col min="12806" max="12806" width="16.25" style="4" customWidth="1"/>
+    <col min="12807" max="12807" width="6.125" style="4" customWidth="1"/>
+    <col min="12808" max="12808" width="9.375" style="4" customWidth="1"/>
+    <col min="12809" max="12809" width="13.125" style="4" customWidth="1"/>
     <col min="12810" max="13057" width="9" style="4"/>
-    <col min="13058" max="13058" width="11.33203125" style="4" customWidth="1"/>
-    <col min="13059" max="13059" width="9.77734375" style="4" customWidth="1"/>
-    <col min="13060" max="13060" width="8.109375" style="4" customWidth="1"/>
-    <col min="13061" max="13061" width="12.44140625" style="4" customWidth="1"/>
-    <col min="13062" max="13062" width="16.21875" style="4" customWidth="1"/>
-    <col min="13063" max="13063" width="6.109375" style="4" customWidth="1"/>
-    <col min="13064" max="13064" width="9.33203125" style="4" customWidth="1"/>
-    <col min="13065" max="13065" width="13.109375" style="4" customWidth="1"/>
+    <col min="13058" max="13058" width="11.375" style="4" customWidth="1"/>
+    <col min="13059" max="13059" width="9.75" style="4" customWidth="1"/>
+    <col min="13060" max="13060" width="8.125" style="4" customWidth="1"/>
+    <col min="13061" max="13061" width="12.5" style="4" customWidth="1"/>
+    <col min="13062" max="13062" width="16.25" style="4" customWidth="1"/>
+    <col min="13063" max="13063" width="6.125" style="4" customWidth="1"/>
+    <col min="13064" max="13064" width="9.375" style="4" customWidth="1"/>
+    <col min="13065" max="13065" width="13.125" style="4" customWidth="1"/>
     <col min="13066" max="13313" width="9" style="4"/>
-    <col min="13314" max="13314" width="11.33203125" style="4" customWidth="1"/>
-    <col min="13315" max="13315" width="9.77734375" style="4" customWidth="1"/>
-    <col min="13316" max="13316" width="8.109375" style="4" customWidth="1"/>
-    <col min="13317" max="13317" width="12.44140625" style="4" customWidth="1"/>
-    <col min="13318" max="13318" width="16.21875" style="4" customWidth="1"/>
-    <col min="13319" max="13319" width="6.109375" style="4" customWidth="1"/>
-    <col min="13320" max="13320" width="9.33203125" style="4" customWidth="1"/>
-    <col min="13321" max="13321" width="13.109375" style="4" customWidth="1"/>
+    <col min="13314" max="13314" width="11.375" style="4" customWidth="1"/>
+    <col min="13315" max="13315" width="9.75" style="4" customWidth="1"/>
+    <col min="13316" max="13316" width="8.125" style="4" customWidth="1"/>
+    <col min="13317" max="13317" width="12.5" style="4" customWidth="1"/>
+    <col min="13318" max="13318" width="16.25" style="4" customWidth="1"/>
+    <col min="13319" max="13319" width="6.125" style="4" customWidth="1"/>
+    <col min="13320" max="13320" width="9.375" style="4" customWidth="1"/>
+    <col min="13321" max="13321" width="13.125" style="4" customWidth="1"/>
     <col min="13322" max="13569" width="9" style="4"/>
-    <col min="13570" max="13570" width="11.33203125" style="4" customWidth="1"/>
-    <col min="13571" max="13571" width="9.77734375" style="4" customWidth="1"/>
-    <col min="13572" max="13572" width="8.109375" style="4" customWidth="1"/>
-    <col min="13573" max="13573" width="12.44140625" style="4" customWidth="1"/>
-    <col min="13574" max="13574" width="16.21875" style="4" customWidth="1"/>
-    <col min="13575" max="13575" width="6.109375" style="4" customWidth="1"/>
-    <col min="13576" max="13576" width="9.33203125" style="4" customWidth="1"/>
-    <col min="13577" max="13577" width="13.109375" style="4" customWidth="1"/>
+    <col min="13570" max="13570" width="11.375" style="4" customWidth="1"/>
+    <col min="13571" max="13571" width="9.75" style="4" customWidth="1"/>
+    <col min="13572" max="13572" width="8.125" style="4" customWidth="1"/>
+    <col min="13573" max="13573" width="12.5" style="4" customWidth="1"/>
+    <col min="13574" max="13574" width="16.25" style="4" customWidth="1"/>
+    <col min="13575" max="13575" width="6.125" style="4" customWidth="1"/>
+    <col min="13576" max="13576" width="9.375" style="4" customWidth="1"/>
+    <col min="13577" max="13577" width="13.125" style="4" customWidth="1"/>
     <col min="13578" max="13825" width="9" style="4"/>
-    <col min="13826" max="13826" width="11.33203125" style="4" customWidth="1"/>
-    <col min="13827" max="13827" width="9.77734375" style="4" customWidth="1"/>
-    <col min="13828" max="13828" width="8.109375" style="4" customWidth="1"/>
-    <col min="13829" max="13829" width="12.44140625" style="4" customWidth="1"/>
-    <col min="13830" max="13830" width="16.21875" style="4" customWidth="1"/>
-    <col min="13831" max="13831" width="6.109375" style="4" customWidth="1"/>
-    <col min="13832" max="13832" width="9.33203125" style="4" customWidth="1"/>
-    <col min="13833" max="13833" width="13.109375" style="4" customWidth="1"/>
+    <col min="13826" max="13826" width="11.375" style="4" customWidth="1"/>
+    <col min="13827" max="13827" width="9.75" style="4" customWidth="1"/>
+    <col min="13828" max="13828" width="8.125" style="4" customWidth="1"/>
+    <col min="13829" max="13829" width="12.5" style="4" customWidth="1"/>
+    <col min="13830" max="13830" width="16.25" style="4" customWidth="1"/>
+    <col min="13831" max="13831" width="6.125" style="4" customWidth="1"/>
+    <col min="13832" max="13832" width="9.375" style="4" customWidth="1"/>
+    <col min="13833" max="13833" width="13.125" style="4" customWidth="1"/>
     <col min="13834" max="14081" width="9" style="4"/>
-    <col min="14082" max="14082" width="11.33203125" style="4" customWidth="1"/>
-    <col min="14083" max="14083" width="9.77734375" style="4" customWidth="1"/>
-    <col min="14084" max="14084" width="8.109375" style="4" customWidth="1"/>
-    <col min="14085" max="14085" width="12.44140625" style="4" customWidth="1"/>
-    <col min="14086" max="14086" width="16.21875" style="4" customWidth="1"/>
-    <col min="14087" max="14087" width="6.109375" style="4" customWidth="1"/>
-    <col min="14088" max="14088" width="9.33203125" style="4" customWidth="1"/>
-    <col min="14089" max="14089" width="13.109375" style="4" customWidth="1"/>
+    <col min="14082" max="14082" width="11.375" style="4" customWidth="1"/>
+    <col min="14083" max="14083" width="9.75" style="4" customWidth="1"/>
+    <col min="14084" max="14084" width="8.125" style="4" customWidth="1"/>
+    <col min="14085" max="14085" width="12.5" style="4" customWidth="1"/>
+    <col min="14086" max="14086" width="16.25" style="4" customWidth="1"/>
+    <col min="14087" max="14087" width="6.125" style="4" customWidth="1"/>
+    <col min="14088" max="14088" width="9.375" style="4" customWidth="1"/>
+    <col min="14089" max="14089" width="13.125" style="4" customWidth="1"/>
     <col min="14090" max="14337" width="9" style="4"/>
-    <col min="14338" max="14338" width="11.33203125" style="4" customWidth="1"/>
-    <col min="14339" max="14339" width="9.77734375" style="4" customWidth="1"/>
-    <col min="14340" max="14340" width="8.109375" style="4" customWidth="1"/>
-    <col min="14341" max="14341" width="12.44140625" style="4" customWidth="1"/>
-    <col min="14342" max="14342" width="16.21875" style="4" customWidth="1"/>
-    <col min="14343" max="14343" width="6.109375" style="4" customWidth="1"/>
-    <col min="14344" max="14344" width="9.33203125" style="4" customWidth="1"/>
-    <col min="14345" max="14345" width="13.109375" style="4" customWidth="1"/>
+    <col min="14338" max="14338" width="11.375" style="4" customWidth="1"/>
+    <col min="14339" max="14339" width="9.75" style="4" customWidth="1"/>
+    <col min="14340" max="14340" width="8.125" style="4" customWidth="1"/>
+    <col min="14341" max="14341" width="12.5" style="4" customWidth="1"/>
+    <col min="14342" max="14342" width="16.25" style="4" customWidth="1"/>
+    <col min="14343" max="14343" width="6.125" style="4" customWidth="1"/>
+    <col min="14344" max="14344" width="9.375" style="4" customWidth="1"/>
+    <col min="14345" max="14345" width="13.125" style="4" customWidth="1"/>
     <col min="14346" max="14593" width="9" style="4"/>
-    <col min="14594" max="14594" width="11.33203125" style="4" customWidth="1"/>
-    <col min="14595" max="14595" width="9.77734375" style="4" customWidth="1"/>
-    <col min="14596" max="14596" width="8.109375" style="4" customWidth="1"/>
-    <col min="14597" max="14597" width="12.44140625" style="4" customWidth="1"/>
-    <col min="14598" max="14598" width="16.21875" style="4" customWidth="1"/>
-    <col min="14599" max="14599" width="6.109375" style="4" customWidth="1"/>
-    <col min="14600" max="14600" width="9.33203125" style="4" customWidth="1"/>
-    <col min="14601" max="14601" width="13.109375" style="4" customWidth="1"/>
+    <col min="14594" max="14594" width="11.375" style="4" customWidth="1"/>
+    <col min="14595" max="14595" width="9.75" style="4" customWidth="1"/>
+    <col min="14596" max="14596" width="8.125" style="4" customWidth="1"/>
+    <col min="14597" max="14597" width="12.5" style="4" customWidth="1"/>
+    <col min="14598" max="14598" width="16.25" style="4" customWidth="1"/>
+    <col min="14599" max="14599" width="6.125" style="4" customWidth="1"/>
+    <col min="14600" max="14600" width="9.375" style="4" customWidth="1"/>
+    <col min="14601" max="14601" width="13.125" style="4" customWidth="1"/>
     <col min="14602" max="14849" width="9" style="4"/>
-    <col min="14850" max="14850" width="11.33203125" style="4" customWidth="1"/>
-    <col min="14851" max="14851" width="9.77734375" style="4" customWidth="1"/>
-    <col min="14852" max="14852" width="8.109375" style="4" customWidth="1"/>
-    <col min="14853" max="14853" width="12.44140625" style="4" customWidth="1"/>
-    <col min="14854" max="14854" width="16.21875" style="4" customWidth="1"/>
-    <col min="14855" max="14855" width="6.109375" style="4" customWidth="1"/>
-    <col min="14856" max="14856" width="9.33203125" style="4" customWidth="1"/>
-    <col min="14857" max="14857" width="13.109375" style="4" customWidth="1"/>
+    <col min="14850" max="14850" width="11.375" style="4" customWidth="1"/>
+    <col min="14851" max="14851" width="9.75" style="4" customWidth="1"/>
+    <col min="14852" max="14852" width="8.125" style="4" customWidth="1"/>
+    <col min="14853" max="14853" width="12.5" style="4" customWidth="1"/>
+    <col min="14854" max="14854" width="16.25" style="4" customWidth="1"/>
+    <col min="14855" max="14855" width="6.125" style="4" customWidth="1"/>
+    <col min="14856" max="14856" width="9.375" style="4" customWidth="1"/>
+    <col min="14857" max="14857" width="13.125" style="4" customWidth="1"/>
     <col min="14858" max="15105" width="9" style="4"/>
-    <col min="15106" max="15106" width="11.33203125" style="4" customWidth="1"/>
-    <col min="15107" max="15107" width="9.77734375" style="4" customWidth="1"/>
-    <col min="15108" max="15108" width="8.109375" style="4" customWidth="1"/>
-    <col min="15109" max="15109" width="12.44140625" style="4" customWidth="1"/>
-    <col min="15110" max="15110" width="16.21875" style="4" customWidth="1"/>
-    <col min="15111" max="15111" width="6.109375" style="4" customWidth="1"/>
-    <col min="15112" max="15112" width="9.33203125" style="4" customWidth="1"/>
-    <col min="15113" max="15113" width="13.109375" style="4" customWidth="1"/>
+    <col min="15106" max="15106" width="11.375" style="4" customWidth="1"/>
+    <col min="15107" max="15107" width="9.75" style="4" customWidth="1"/>
+    <col min="15108" max="15108" width="8.125" style="4" customWidth="1"/>
+    <col min="15109" max="15109" width="12.5" style="4" customWidth="1"/>
+    <col min="15110" max="15110" width="16.25" style="4" customWidth="1"/>
+    <col min="15111" max="15111" width="6.125" style="4" customWidth="1"/>
+    <col min="15112" max="15112" width="9.375" style="4" customWidth="1"/>
+    <col min="15113" max="15113" width="13.125" style="4" customWidth="1"/>
     <col min="15114" max="15361" width="9" style="4"/>
-    <col min="15362" max="15362" width="11.33203125" style="4" customWidth="1"/>
-    <col min="15363" max="15363" width="9.77734375" style="4" customWidth="1"/>
-    <col min="15364" max="15364" width="8.109375" style="4" customWidth="1"/>
-    <col min="15365" max="15365" width="12.44140625" style="4" customWidth="1"/>
-    <col min="15366" max="15366" width="16.21875" style="4" customWidth="1"/>
-    <col min="15367" max="15367" width="6.109375" style="4" customWidth="1"/>
-    <col min="15368" max="15368" width="9.33203125" style="4" customWidth="1"/>
-    <col min="15369" max="15369" width="13.109375" style="4" customWidth="1"/>
+    <col min="15362" max="15362" width="11.375" style="4" customWidth="1"/>
+    <col min="15363" max="15363" width="9.75" style="4" customWidth="1"/>
+    <col min="15364" max="15364" width="8.125" style="4" customWidth="1"/>
+    <col min="15365" max="15365" width="12.5" style="4" customWidth="1"/>
+    <col min="15366" max="15366" width="16.25" style="4" customWidth="1"/>
+    <col min="15367" max="15367" width="6.125" style="4" customWidth="1"/>
+    <col min="15368" max="15368" width="9.375" style="4" customWidth="1"/>
+    <col min="15369" max="15369" width="13.125" style="4" customWidth="1"/>
     <col min="15370" max="15617" width="9" style="4"/>
-    <col min="15618" max="15618" width="11.33203125" style="4" customWidth="1"/>
-    <col min="15619" max="15619" width="9.77734375" style="4" customWidth="1"/>
-    <col min="15620" max="15620" width="8.109375" style="4" customWidth="1"/>
-    <col min="15621" max="15621" width="12.44140625" style="4" customWidth="1"/>
-    <col min="15622" max="15622" width="16.21875" style="4" customWidth="1"/>
-    <col min="15623" max="15623" width="6.109375" style="4" customWidth="1"/>
-    <col min="15624" max="15624" width="9.33203125" style="4" customWidth="1"/>
-    <col min="15625" max="15625" width="13.109375" style="4" customWidth="1"/>
+    <col min="15618" max="15618" width="11.375" style="4" customWidth="1"/>
+    <col min="15619" max="15619" width="9.75" style="4" customWidth="1"/>
+    <col min="15620" max="15620" width="8.125" style="4" customWidth="1"/>
+    <col min="15621" max="15621" width="12.5" style="4" customWidth="1"/>
+    <col min="15622" max="15622" width="16.25" style="4" customWidth="1"/>
+    <col min="15623" max="15623" width="6.125" style="4" customWidth="1"/>
+    <col min="15624" max="15624" width="9.375" style="4" customWidth="1"/>
+    <col min="15625" max="15625" width="13.125" style="4" customWidth="1"/>
     <col min="15626" max="15873" width="9" style="4"/>
-    <col min="15874" max="15874" width="11.33203125" style="4" customWidth="1"/>
-    <col min="15875" max="15875" width="9.77734375" style="4" customWidth="1"/>
-    <col min="15876" max="15876" width="8.109375" style="4" customWidth="1"/>
-    <col min="15877" max="15877" width="12.44140625" style="4" customWidth="1"/>
-    <col min="15878" max="15878" width="16.21875" style="4" customWidth="1"/>
-    <col min="15879" max="15879" width="6.109375" style="4" customWidth="1"/>
-    <col min="15880" max="15880" width="9.33203125" style="4" customWidth="1"/>
-    <col min="15881" max="15881" width="13.109375" style="4" customWidth="1"/>
+    <col min="15874" max="15874" width="11.375" style="4" customWidth="1"/>
+    <col min="15875" max="15875" width="9.75" style="4" customWidth="1"/>
+    <col min="15876" max="15876" width="8.125" style="4" customWidth="1"/>
+    <col min="15877" max="15877" width="12.5" style="4" customWidth="1"/>
+    <col min="15878" max="15878" width="16.25" style="4" customWidth="1"/>
+    <col min="15879" max="15879" width="6.125" style="4" customWidth="1"/>
+    <col min="15880" max="15880" width="9.375" style="4" customWidth="1"/>
+    <col min="15881" max="15881" width="13.125" style="4" customWidth="1"/>
     <col min="15882" max="16129" width="9" style="4"/>
-    <col min="16130" max="16130" width="11.33203125" style="4" customWidth="1"/>
-    <col min="16131" max="16131" width="9.77734375" style="4" customWidth="1"/>
-    <col min="16132" max="16132" width="8.109375" style="4" customWidth="1"/>
-    <col min="16133" max="16133" width="12.44140625" style="4" customWidth="1"/>
-    <col min="16134" max="16134" width="16.21875" style="4" customWidth="1"/>
-    <col min="16135" max="16135" width="6.109375" style="4" customWidth="1"/>
-    <col min="16136" max="16136" width="9.33203125" style="4" customWidth="1"/>
-    <col min="16137" max="16137" width="13.109375" style="4" customWidth="1"/>
+    <col min="16130" max="16130" width="11.375" style="4" customWidth="1"/>
+    <col min="16131" max="16131" width="9.75" style="4" customWidth="1"/>
+    <col min="16132" max="16132" width="8.125" style="4" customWidth="1"/>
+    <col min="16133" max="16133" width="12.5" style="4" customWidth="1"/>
+    <col min="16134" max="16134" width="16.25" style="4" customWidth="1"/>
+    <col min="16135" max="16135" width="6.125" style="4" customWidth="1"/>
+    <col min="16136" max="16136" width="9.375" style="4" customWidth="1"/>
+    <col min="16137" max="16137" width="13.125" style="4" customWidth="1"/>
     <col min="16138" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+    </row>
+    <row r="2" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B2" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="B3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-    </row>
-    <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="147" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="25.05" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="B4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="148" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="25.05" customHeight="1">
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="B5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="25.05" customHeight="1">
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="D5" s="113"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="151"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="150" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="151"/>
-      <c r="I5" s="152"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="B6" s="6"/>
@@ -3518,141 +3519,141 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1">
+      <c r="B8" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-    </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="137" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B9" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="111" t="str">
+      <c r="C9" s="129" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="125" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="111" t="str">
+      <c r="D9" s="129"/>
+      <c r="E9" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="129" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="129" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="145" t="str">
+      <c r="G9" s="129"/>
+      <c r="H9" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="124" t="str">
         <f>記入!B21</f>
         <v>${claimdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="146"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="125"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="138" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="139" t="str">
+      <c r="B11" s="117" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="141"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="120"/>
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="138" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="142" t="str">
+      <c r="B12" s="117" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="121" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="144"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="131" t="str">
+        <v>87</v>
+      </c>
+      <c r="C13" s="136" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="132" t="str">
+        <v>88</v>
+      </c>
+      <c r="C14" s="137" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="133" t="str">
+        <v>90</v>
+      </c>
+      <c r="C15" s="138" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
       <c r="F15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
+        <v>92</v>
+      </c>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="6"/>
@@ -3666,10 +3667,10 @@
     </row>
     <row r="17" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="B17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -3680,10 +3681,10 @@
     </row>
     <row r="18" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="B18" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -3694,109 +3695,109 @@
     </row>
     <row r="19" spans="2:9" s="3" customFormat="1" ht="45.75" customHeight="1">
       <c r="B19" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="15" t="s">
+      <c r="G19" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="135" t="s">
+      <c r="H19" s="140"/>
+      <c r="I19" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="135"/>
-      <c r="I19" s="15" t="s">
+    </row>
+    <row r="20" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B20" s="130" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="126" t="s">
+      <c r="C20" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="128">
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="132">
         <v>1</v>
       </c>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="110" t="str">
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="141" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="126"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="110"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="141"/>
     </row>
     <row r="22" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="126"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="110"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="141"/>
     </row>
     <row r="23" spans="2:9" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="B23" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="122">
+      <c r="B23" s="131" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="133">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="122">
+      <c r="G23" s="133">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="122"/>
-      <c r="I23" s="110" t="str">
+      <c r="H23" s="133"/>
+      <c r="I23" s="141" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="B24" s="127"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="110"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="141"/>
     </row>
     <row r="25" spans="2:9" s="3" customFormat="1" ht="24" customHeight="1">
-      <c r="B25" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
+      <c r="B25" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
     <row r="26" spans="2:9" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -3821,11 +3822,11 @@
       <c r="C28" s="16"/>
       <c r="D28" s="13"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="124" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
+      <c r="F28" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3833,11 +3834,11 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="124" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="124"/>
-      <c r="H29" s="124"/>
+      <c r="F29" s="127" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1"/>
@@ -3854,19 +3855,14 @@
     <row r="33" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="G23:H24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F29:H29"/>
@@ -3883,16 +3879,21 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
